--- a/enase/results_tool_11.01.xlsx
+++ b/enase/results_tool_11.01.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C5660496-C0EF-458B-B35E-B8E5063EB0F1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Latex" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Results!$A$4:$A$10</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="114">
   <si>
     <t>Project</t>
   </si>
@@ -271,11 +272,101 @@
   <si>
     <t xml:space="preserve">Diff </t>
   </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>\\</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>ld&lt;=5</t>
+  </si>
+  <si>
+    <t>ld&lt;=10</t>
+  </si>
+  <si>
+    <t>ld&lt;=20</t>
+  </si>
+  <si>
+    <t>No limit</t>
+  </si>
+  <si>
+    <t>Nr of entities</t>
+  </si>
+  <si>
+    <t>table:1 Summary of open source projects studied.</t>
+  </si>
+  <si>
+    <t>csharp</t>
+  </si>
+  <si>
+    <t>tab:ratio:comm Ratio OF number of LD to number of SD, case with comments</t>
+  </si>
+  <si>
+    <t>infinit</t>
+  </si>
+  <si>
+    <t>$occ\geq 1$</t>
+  </si>
+  <si>
+    <t>$occ\geq 2$</t>
+  </si>
+  <si>
+    <t>$occ\geq 3$</t>
+  </si>
+  <si>
+    <t>$occ\geq 4$</t>
+  </si>
+  <si>
+    <t>tab:ratio:nocomm  Ratio OF number of LD to number of SD, case without comments</t>
+  </si>
+  <si>
+    <t>tab:percSD:comm  Percentage of SD that are also LD, case with comments</t>
+  </si>
+  <si>
+    <t>tab:percLD:comm  Percentage of LD that are also SD, case with comments</t>
+  </si>
+  <si>
+    <t>tab:percLD:nocomm  Percentage of LD that are also SD, case without comments</t>
+  </si>
+  <si>
+    <t>tab:percSD:nocomm  Percentage of SD that are also LD case without comments</t>
+  </si>
+  <si>
+    <t>Number of logical dependencies, for different threshold values for $cs$, when $occ\geq 1$, case with comments</t>
+  </si>
+  <si>
+    <t>Number of logical dependencies, for different threshold values for $cs$, when $occ\geq 1$, case without comments</t>
+  </si>
+  <si>
+    <t>Percentage of SD that are also LD,  when $cs \leq 5$, for different threshold values for $occ$</t>
+  </si>
+  <si>
+    <t>occ&gt;=1</t>
+  </si>
+  <si>
+    <t>occ&gt;=2</t>
+  </si>
+  <si>
+    <t>occ&gt;=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of SD that are also LD,  when  $cs&lt; \infty$, for different threshold values for $occ$ </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -381,7 +472,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -736,12 +827,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -805,19 +940,64 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -829,10 +1009,43 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -841,52 +1054,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -901,56 +1069,62 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1013,7 +1187,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1046,9 +1220,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1081,6 +1272,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1256,11 +1464,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CZ98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="BC31" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="BL58" sqref="BL58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1362,220 +1570,220 @@
       <c r="F2" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="63" t="s">
+      <c r="G2" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="100"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="100"/>
-      <c r="R2" s="100"/>
-      <c r="S2" s="100"/>
-      <c r="T2" s="100"/>
-      <c r="U2" s="61"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="74"/>
       <c r="V2" s="55"/>
-      <c r="W2" s="105" t="s">
+      <c r="W2" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="59"/>
-      <c r="AC2" s="59"/>
-      <c r="AD2" s="59"/>
-      <c r="AE2" s="59"/>
-      <c r="AF2" s="59"/>
-      <c r="AG2" s="59"/>
-      <c r="AH2" s="59"/>
-      <c r="AI2" s="59"/>
-      <c r="AJ2" s="59"/>
-      <c r="AK2" s="59"/>
-      <c r="AL2" s="102"/>
-      <c r="AM2" s="60" t="s">
+      <c r="X2" s="70"/>
+      <c r="Y2" s="70"/>
+      <c r="Z2" s="70"/>
+      <c r="AA2" s="70"/>
+      <c r="AB2" s="70"/>
+      <c r="AC2" s="70"/>
+      <c r="AD2" s="70"/>
+      <c r="AE2" s="70"/>
+      <c r="AF2" s="70"/>
+      <c r="AG2" s="70"/>
+      <c r="AH2" s="70"/>
+      <c r="AI2" s="70"/>
+      <c r="AJ2" s="70"/>
+      <c r="AK2" s="70"/>
+      <c r="AL2" s="71"/>
+      <c r="AM2" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="AN2" s="59"/>
-      <c r="AO2" s="59"/>
-      <c r="AP2" s="59"/>
-      <c r="AQ2" s="59"/>
-      <c r="AR2" s="59"/>
-      <c r="AS2" s="59"/>
-      <c r="AT2" s="59"/>
-      <c r="AU2" s="59"/>
-      <c r="AV2" s="59"/>
-      <c r="AW2" s="59"/>
-      <c r="AX2" s="59"/>
-      <c r="AY2" s="59"/>
-      <c r="AZ2" s="59"/>
-      <c r="BA2" s="59"/>
-      <c r="BB2" s="59"/>
-      <c r="BC2" s="59" t="s">
+      <c r="AN2" s="70"/>
+      <c r="AO2" s="70"/>
+      <c r="AP2" s="70"/>
+      <c r="AQ2" s="70"/>
+      <c r="AR2" s="70"/>
+      <c r="AS2" s="70"/>
+      <c r="AT2" s="70"/>
+      <c r="AU2" s="70"/>
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="70"/>
+      <c r="AX2" s="70"/>
+      <c r="AY2" s="70"/>
+      <c r="AZ2" s="70"/>
+      <c r="BA2" s="70"/>
+      <c r="BB2" s="70"/>
+      <c r="BC2" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="BD2" s="59"/>
-      <c r="BE2" s="59"/>
-      <c r="BF2" s="59"/>
-      <c r="BG2" s="59"/>
-      <c r="BH2" s="59"/>
-      <c r="BI2" s="59"/>
-      <c r="BJ2" s="59"/>
-      <c r="BK2" s="59"/>
-      <c r="BL2" s="59"/>
-      <c r="BM2" s="59"/>
-      <c r="BN2" s="59"/>
-      <c r="BO2" s="59"/>
-      <c r="BP2" s="59"/>
-      <c r="BQ2" s="59"/>
-      <c r="BR2" s="59"/>
-      <c r="BS2" s="59" t="s">
+      <c r="BD2" s="70"/>
+      <c r="BE2" s="70"/>
+      <c r="BF2" s="70"/>
+      <c r="BG2" s="70"/>
+      <c r="BH2" s="70"/>
+      <c r="BI2" s="70"/>
+      <c r="BJ2" s="70"/>
+      <c r="BK2" s="70"/>
+      <c r="BL2" s="70"/>
+      <c r="BM2" s="70"/>
+      <c r="BN2" s="70"/>
+      <c r="BO2" s="70"/>
+      <c r="BP2" s="70"/>
+      <c r="BQ2" s="70"/>
+      <c r="BR2" s="70"/>
+      <c r="BS2" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="BT2" s="59"/>
-      <c r="BU2" s="59"/>
-      <c r="BV2" s="59"/>
-      <c r="BW2" s="59"/>
-      <c r="BX2" s="59"/>
-      <c r="BY2" s="59"/>
-      <c r="BZ2" s="59"/>
-      <c r="CA2" s="59"/>
-      <c r="CB2" s="59"/>
-      <c r="CC2" s="59"/>
-      <c r="CD2" s="59"/>
-      <c r="CE2" s="59"/>
-      <c r="CF2" s="59"/>
-      <c r="CG2" s="59"/>
-      <c r="CH2" s="59"/>
+      <c r="BT2" s="70"/>
+      <c r="BU2" s="70"/>
+      <c r="BV2" s="70"/>
+      <c r="BW2" s="70"/>
+      <c r="BX2" s="70"/>
+      <c r="BY2" s="70"/>
+      <c r="BZ2" s="70"/>
+      <c r="CA2" s="70"/>
+      <c r="CB2" s="70"/>
+      <c r="CC2" s="70"/>
+      <c r="CD2" s="70"/>
+      <c r="CE2" s="70"/>
+      <c r="CF2" s="70"/>
+      <c r="CG2" s="70"/>
+      <c r="CH2" s="70"/>
       <c r="CI2" s="25"/>
     </row>
     <row r="3" spans="1:104" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F3" s="21"/>
-      <c r="G3" s="107" t="s">
+      <c r="G3" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="61" t="s">
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="106" t="s">
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="P3" s="106"/>
-      <c r="Q3" s="106"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="75"/>
       <c r="R3" s="35"/>
-      <c r="S3" s="67" t="s">
+      <c r="S3" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="T3" s="68"/>
-      <c r="U3" s="68"/>
-      <c r="V3" s="91"/>
-      <c r="W3" s="92" t="s">
+      <c r="T3" s="81"/>
+      <c r="U3" s="81"/>
+      <c r="V3" s="82"/>
+      <c r="W3" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="X3" s="72"/>
-      <c r="Y3" s="72"/>
-      <c r="Z3" s="93"/>
-      <c r="AA3" s="94" t="s">
+      <c r="X3" s="98"/>
+      <c r="Y3" s="98"/>
+      <c r="Z3" s="99"/>
+      <c r="AA3" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="AB3" s="75"/>
-      <c r="AC3" s="75"/>
-      <c r="AD3" s="95"/>
-      <c r="AE3" s="83" t="s">
+      <c r="AB3" s="92"/>
+      <c r="AC3" s="92"/>
+      <c r="AD3" s="93"/>
+      <c r="AE3" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="AF3" s="78"/>
-      <c r="AG3" s="78"/>
+      <c r="AF3" s="95"/>
+      <c r="AG3" s="95"/>
       <c r="AH3" s="96"/>
-      <c r="AI3" s="97" t="s">
+      <c r="AI3" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="AJ3" s="98"/>
-      <c r="AK3" s="98"/>
-      <c r="AL3" s="98"/>
-      <c r="AM3" s="104" t="s">
+      <c r="AJ3" s="90"/>
+      <c r="AK3" s="90"/>
+      <c r="AL3" s="90"/>
+      <c r="AM3" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="AN3" s="69"/>
-      <c r="AO3" s="69"/>
-      <c r="AP3" s="70"/>
-      <c r="AQ3" s="61" t="s">
+      <c r="AN3" s="101"/>
+      <c r="AO3" s="101"/>
+      <c r="AP3" s="102"/>
+      <c r="AQ3" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="AR3" s="62"/>
-      <c r="AS3" s="62"/>
-      <c r="AT3" s="63"/>
-      <c r="AU3" s="64" t="s">
+      <c r="AR3" s="79"/>
+      <c r="AS3" s="79"/>
+      <c r="AT3" s="72"/>
+      <c r="AU3" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="AV3" s="65"/>
-      <c r="AW3" s="65"/>
-      <c r="AX3" s="66"/>
-      <c r="AY3" s="67" t="s">
+      <c r="AV3" s="86"/>
+      <c r="AW3" s="86"/>
+      <c r="AX3" s="87"/>
+      <c r="AY3" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="AZ3" s="68"/>
-      <c r="BA3" s="68"/>
-      <c r="BB3" s="68"/>
-      <c r="BC3" s="69" t="s">
+      <c r="AZ3" s="81"/>
+      <c r="BA3" s="81"/>
+      <c r="BB3" s="81"/>
+      <c r="BC3" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="BD3" s="69"/>
-      <c r="BE3" s="69"/>
-      <c r="BF3" s="70"/>
-      <c r="BG3" s="61" t="s">
+      <c r="BD3" s="101"/>
+      <c r="BE3" s="101"/>
+      <c r="BF3" s="102"/>
+      <c r="BG3" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="BH3" s="62"/>
-      <c r="BI3" s="62"/>
-      <c r="BJ3" s="63"/>
-      <c r="BK3" s="64" t="s">
+      <c r="BH3" s="79"/>
+      <c r="BI3" s="79"/>
+      <c r="BJ3" s="72"/>
+      <c r="BK3" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="BL3" s="65"/>
-      <c r="BM3" s="65"/>
-      <c r="BN3" s="66"/>
-      <c r="BO3" s="67" t="s">
+      <c r="BL3" s="86"/>
+      <c r="BM3" s="86"/>
+      <c r="BN3" s="87"/>
+      <c r="BO3" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="BP3" s="68"/>
-      <c r="BQ3" s="68"/>
-      <c r="BR3" s="68"/>
-      <c r="BS3" s="69" t="s">
+      <c r="BP3" s="81"/>
+      <c r="BQ3" s="81"/>
+      <c r="BR3" s="81"/>
+      <c r="BS3" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="BT3" s="69"/>
-      <c r="BU3" s="69"/>
-      <c r="BV3" s="70"/>
-      <c r="BW3" s="61" t="s">
+      <c r="BT3" s="101"/>
+      <c r="BU3" s="101"/>
+      <c r="BV3" s="102"/>
+      <c r="BW3" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="BX3" s="62"/>
-      <c r="BY3" s="62"/>
-      <c r="BZ3" s="63"/>
-      <c r="CA3" s="64" t="s">
+      <c r="BX3" s="79"/>
+      <c r="BY3" s="79"/>
+      <c r="BZ3" s="72"/>
+      <c r="CA3" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="CB3" s="65"/>
-      <c r="CC3" s="65"/>
-      <c r="CD3" s="66"/>
-      <c r="CE3" s="67" t="s">
+      <c r="CB3" s="86"/>
+      <c r="CC3" s="86"/>
+      <c r="CD3" s="87"/>
+      <c r="CE3" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="CF3" s="68"/>
-      <c r="CG3" s="68"/>
-      <c r="CH3" s="103"/>
+      <c r="CF3" s="81"/>
+      <c r="CG3" s="81"/>
+      <c r="CH3" s="88"/>
       <c r="CI3" s="25"/>
     </row>
     <row r="4" spans="1:104" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -11324,96 +11532,96 @@
       <c r="F38" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="G38" s="63" t="s">
+      <c r="G38" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="H38" s="100"/>
-      <c r="I38" s="100"/>
-      <c r="J38" s="100"/>
-      <c r="K38" s="100"/>
-      <c r="L38" s="100"/>
-      <c r="M38" s="100"/>
-      <c r="N38" s="100"/>
-      <c r="O38" s="100"/>
-      <c r="P38" s="100"/>
-      <c r="Q38" s="100"/>
-      <c r="R38" s="100"/>
-      <c r="S38" s="100"/>
-      <c r="T38" s="100"/>
-      <c r="U38" s="61"/>
+      <c r="H38" s="73"/>
+      <c r="I38" s="73"/>
+      <c r="J38" s="73"/>
+      <c r="K38" s="73"/>
+      <c r="L38" s="73"/>
+      <c r="M38" s="73"/>
+      <c r="N38" s="73"/>
+      <c r="O38" s="73"/>
+      <c r="P38" s="73"/>
+      <c r="Q38" s="73"/>
+      <c r="R38" s="73"/>
+      <c r="S38" s="73"/>
+      <c r="T38" s="73"/>
+      <c r="U38" s="74"/>
       <c r="V38" s="55"/>
-      <c r="W38" s="61" t="s">
+      <c r="W38" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="X38" s="62"/>
-      <c r="Y38" s="62"/>
-      <c r="Z38" s="62"/>
-      <c r="AA38" s="62"/>
-      <c r="AB38" s="62"/>
-      <c r="AC38" s="62"/>
-      <c r="AD38" s="62"/>
-      <c r="AE38" s="62"/>
-      <c r="AF38" s="62"/>
-      <c r="AG38" s="62"/>
-      <c r="AH38" s="62"/>
-      <c r="AI38" s="62"/>
-      <c r="AJ38" s="62"/>
-      <c r="AK38" s="62"/>
-      <c r="AL38" s="63"/>
-      <c r="AM38" s="101" t="s">
+      <c r="X38" s="79"/>
+      <c r="Y38" s="79"/>
+      <c r="Z38" s="79"/>
+      <c r="AA38" s="79"/>
+      <c r="AB38" s="79"/>
+      <c r="AC38" s="79"/>
+      <c r="AD38" s="79"/>
+      <c r="AE38" s="79"/>
+      <c r="AF38" s="79"/>
+      <c r="AG38" s="79"/>
+      <c r="AH38" s="79"/>
+      <c r="AI38" s="79"/>
+      <c r="AJ38" s="79"/>
+      <c r="AK38" s="79"/>
+      <c r="AL38" s="72"/>
+      <c r="AM38" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="AN38" s="59"/>
-      <c r="AO38" s="59"/>
-      <c r="AP38" s="59"/>
-      <c r="AQ38" s="59"/>
-      <c r="AR38" s="59"/>
-      <c r="AS38" s="59"/>
-      <c r="AT38" s="59"/>
-      <c r="AU38" s="59"/>
-      <c r="AV38" s="59"/>
-      <c r="AW38" s="59"/>
-      <c r="AX38" s="59"/>
-      <c r="AY38" s="59"/>
-      <c r="AZ38" s="59"/>
-      <c r="BA38" s="59"/>
-      <c r="BB38" s="102"/>
-      <c r="BC38" s="60" t="s">
+      <c r="AN38" s="70"/>
+      <c r="AO38" s="70"/>
+      <c r="AP38" s="70"/>
+      <c r="AQ38" s="70"/>
+      <c r="AR38" s="70"/>
+      <c r="AS38" s="70"/>
+      <c r="AT38" s="70"/>
+      <c r="AU38" s="70"/>
+      <c r="AV38" s="70"/>
+      <c r="AW38" s="70"/>
+      <c r="AX38" s="70"/>
+      <c r="AY38" s="70"/>
+      <c r="AZ38" s="70"/>
+      <c r="BA38" s="70"/>
+      <c r="BB38" s="71"/>
+      <c r="BC38" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="BD38" s="59"/>
-      <c r="BE38" s="59"/>
-      <c r="BF38" s="59"/>
-      <c r="BG38" s="59"/>
-      <c r="BH38" s="59"/>
-      <c r="BI38" s="59"/>
-      <c r="BJ38" s="59"/>
-      <c r="BK38" s="59"/>
-      <c r="BL38" s="59"/>
-      <c r="BM38" s="59"/>
-      <c r="BN38" s="59"/>
-      <c r="BO38" s="59"/>
-      <c r="BP38" s="59"/>
-      <c r="BQ38" s="59"/>
-      <c r="BR38" s="102"/>
-      <c r="BS38" s="60" t="s">
+      <c r="BD38" s="70"/>
+      <c r="BE38" s="70"/>
+      <c r="BF38" s="70"/>
+      <c r="BG38" s="70"/>
+      <c r="BH38" s="70"/>
+      <c r="BI38" s="70"/>
+      <c r="BJ38" s="70"/>
+      <c r="BK38" s="70"/>
+      <c r="BL38" s="70"/>
+      <c r="BM38" s="70"/>
+      <c r="BN38" s="70"/>
+      <c r="BO38" s="70"/>
+      <c r="BP38" s="70"/>
+      <c r="BQ38" s="70"/>
+      <c r="BR38" s="71"/>
+      <c r="BS38" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="BT38" s="59"/>
-      <c r="BU38" s="59"/>
-      <c r="BV38" s="59"/>
-      <c r="BW38" s="59"/>
-      <c r="BX38" s="59"/>
-      <c r="BY38" s="59"/>
-      <c r="BZ38" s="59"/>
-      <c r="CA38" s="59"/>
-      <c r="CB38" s="59"/>
-      <c r="CC38" s="59"/>
-      <c r="CD38" s="59"/>
-      <c r="CE38" s="59"/>
-      <c r="CF38" s="59"/>
-      <c r="CG38" s="59"/>
-      <c r="CH38" s="102"/>
+      <c r="BT38" s="70"/>
+      <c r="BU38" s="70"/>
+      <c r="BV38" s="70"/>
+      <c r="BW38" s="70"/>
+      <c r="BX38" s="70"/>
+      <c r="BY38" s="70"/>
+      <c r="BZ38" s="70"/>
+      <c r="CA38" s="70"/>
+      <c r="CB38" s="70"/>
+      <c r="CC38" s="70"/>
+      <c r="CD38" s="70"/>
+      <c r="CE38" s="70"/>
+      <c r="CF38" s="70"/>
+      <c r="CG38" s="70"/>
+      <c r="CH38" s="71"/>
       <c r="CI38" s="25"/>
       <c r="CJ38" s="27"/>
       <c r="CK38" s="27"/>
@@ -11436,126 +11644,126 @@
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
       <c r="F39" s="21"/>
-      <c r="G39" s="90" t="s">
+      <c r="G39" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="H39" s="69"/>
-      <c r="I39" s="69"/>
-      <c r="J39" s="70"/>
-      <c r="K39" s="61" t="s">
+      <c r="H39" s="101"/>
+      <c r="I39" s="101"/>
+      <c r="J39" s="102"/>
+      <c r="K39" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="L39" s="62"/>
-      <c r="M39" s="62"/>
-      <c r="N39" s="63"/>
-      <c r="O39" s="64" t="s">
+      <c r="L39" s="79"/>
+      <c r="M39" s="79"/>
+      <c r="N39" s="72"/>
+      <c r="O39" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="P39" s="65"/>
-      <c r="Q39" s="65"/>
-      <c r="R39" s="66"/>
-      <c r="S39" s="67" t="s">
+      <c r="P39" s="86"/>
+      <c r="Q39" s="86"/>
+      <c r="R39" s="87"/>
+      <c r="S39" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="T39" s="68"/>
-      <c r="U39" s="68"/>
-      <c r="V39" s="91"/>
-      <c r="W39" s="92" t="s">
+      <c r="T39" s="81"/>
+      <c r="U39" s="81"/>
+      <c r="V39" s="82"/>
+      <c r="W39" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="X39" s="72"/>
-      <c r="Y39" s="72"/>
-      <c r="Z39" s="93"/>
-      <c r="AA39" s="94" t="s">
+      <c r="X39" s="98"/>
+      <c r="Y39" s="98"/>
+      <c r="Z39" s="99"/>
+      <c r="AA39" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="AB39" s="75"/>
-      <c r="AC39" s="75"/>
-      <c r="AD39" s="95"/>
-      <c r="AE39" s="83" t="s">
+      <c r="AB39" s="92"/>
+      <c r="AC39" s="92"/>
+      <c r="AD39" s="93"/>
+      <c r="AE39" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="AF39" s="78"/>
-      <c r="AG39" s="78"/>
+      <c r="AF39" s="95"/>
+      <c r="AG39" s="95"/>
       <c r="AH39" s="96"/>
-      <c r="AI39" s="97" t="s">
+      <c r="AI39" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="AJ39" s="98"/>
-      <c r="AK39" s="98"/>
-      <c r="AL39" s="99"/>
-      <c r="AM39" s="84" t="s">
+      <c r="AJ39" s="90"/>
+      <c r="AK39" s="90"/>
+      <c r="AL39" s="108"/>
+      <c r="AM39" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="AN39" s="85"/>
-      <c r="AO39" s="85"/>
-      <c r="AP39" s="86"/>
-      <c r="AQ39" s="87" t="s">
+      <c r="AN39" s="77"/>
+      <c r="AO39" s="77"/>
+      <c r="AP39" s="78"/>
+      <c r="AQ39" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="AR39" s="88"/>
-      <c r="AS39" s="88"/>
-      <c r="AT39" s="89"/>
-      <c r="AU39" s="83" t="s">
+      <c r="AR39" s="105"/>
+      <c r="AS39" s="105"/>
+      <c r="AT39" s="106"/>
+      <c r="AU39" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="AV39" s="78"/>
-      <c r="AW39" s="78"/>
-      <c r="AX39" s="79"/>
-      <c r="AY39" s="80" t="s">
+      <c r="AV39" s="95"/>
+      <c r="AW39" s="95"/>
+      <c r="AX39" s="110"/>
+      <c r="AY39" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="AZ39" s="81"/>
-      <c r="BA39" s="81"/>
-      <c r="BB39" s="82"/>
-      <c r="BC39" s="71" t="s">
+      <c r="AZ39" s="116"/>
+      <c r="BA39" s="116"/>
+      <c r="BB39" s="117"/>
+      <c r="BC39" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="BD39" s="72"/>
-      <c r="BE39" s="72"/>
-      <c r="BF39" s="73"/>
-      <c r="BG39" s="74" t="s">
+      <c r="BD39" s="98"/>
+      <c r="BE39" s="98"/>
+      <c r="BF39" s="114"/>
+      <c r="BG39" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="BH39" s="75"/>
-      <c r="BI39" s="75"/>
-      <c r="BJ39" s="76"/>
-      <c r="BK39" s="77" t="s">
+      <c r="BH39" s="92"/>
+      <c r="BI39" s="92"/>
+      <c r="BJ39" s="112"/>
+      <c r="BK39" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="BL39" s="78"/>
-      <c r="BM39" s="78"/>
-      <c r="BN39" s="79"/>
-      <c r="BO39" s="80" t="s">
+      <c r="BL39" s="95"/>
+      <c r="BM39" s="95"/>
+      <c r="BN39" s="110"/>
+      <c r="BO39" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="BP39" s="81"/>
-      <c r="BQ39" s="81"/>
-      <c r="BR39" s="82"/>
-      <c r="BS39" s="71" t="s">
+      <c r="BP39" s="116"/>
+      <c r="BQ39" s="116"/>
+      <c r="BR39" s="117"/>
+      <c r="BS39" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="BT39" s="72"/>
-      <c r="BU39" s="72"/>
-      <c r="BV39" s="73"/>
-      <c r="BW39" s="74" t="s">
+      <c r="BT39" s="98"/>
+      <c r="BU39" s="98"/>
+      <c r="BV39" s="114"/>
+      <c r="BW39" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="BX39" s="75"/>
-      <c r="BY39" s="75"/>
-      <c r="BZ39" s="76"/>
-      <c r="CA39" s="77" t="s">
+      <c r="BX39" s="92"/>
+      <c r="BY39" s="92"/>
+      <c r="BZ39" s="112"/>
+      <c r="CA39" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="CB39" s="78"/>
-      <c r="CC39" s="78"/>
-      <c r="CD39" s="79"/>
-      <c r="CE39" s="80" t="s">
+      <c r="CB39" s="95"/>
+      <c r="CC39" s="95"/>
+      <c r="CD39" s="110"/>
+      <c r="CE39" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="CF39" s="81"/>
-      <c r="CG39" s="81"/>
-      <c r="CH39" s="82"/>
+      <c r="CF39" s="116"/>
+      <c r="CG39" s="116"/>
+      <c r="CH39" s="117"/>
       <c r="CI39" s="25"/>
       <c r="CJ39" s="14"/>
     </row>
@@ -21823,12 +22031,38 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="W2:AL2"/>
-    <mergeCell ref="G2:U2"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="BS2:CH2"/>
+    <mergeCell ref="BC2:BR2"/>
+    <mergeCell ref="AM2:BB2"/>
+    <mergeCell ref="AQ3:AT3"/>
+    <mergeCell ref="AU3:AX3"/>
+    <mergeCell ref="AY3:BB3"/>
+    <mergeCell ref="BC3:BF3"/>
+    <mergeCell ref="BG3:BJ3"/>
+    <mergeCell ref="BK3:BN3"/>
+    <mergeCell ref="BO3:BR3"/>
+    <mergeCell ref="BS3:BV3"/>
+    <mergeCell ref="BW3:BZ3"/>
+    <mergeCell ref="BS39:BV39"/>
+    <mergeCell ref="BW39:BZ39"/>
+    <mergeCell ref="CA39:CD39"/>
+    <mergeCell ref="CE39:CH39"/>
+    <mergeCell ref="BO39:BR39"/>
+    <mergeCell ref="BK39:BN39"/>
+    <mergeCell ref="BG39:BJ39"/>
+    <mergeCell ref="BC39:BF39"/>
+    <mergeCell ref="AY39:BB39"/>
+    <mergeCell ref="AU39:AX39"/>
+    <mergeCell ref="AM39:AP39"/>
+    <mergeCell ref="AQ39:AT39"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="O39:R39"/>
+    <mergeCell ref="S39:V39"/>
+    <mergeCell ref="W39:Z39"/>
+    <mergeCell ref="AA39:AD39"/>
+    <mergeCell ref="AE39:AH39"/>
+    <mergeCell ref="AI39:AL39"/>
     <mergeCell ref="G38:U38"/>
     <mergeCell ref="AM38:BB38"/>
     <mergeCell ref="BC38:BR38"/>
@@ -21841,64 +22075,38 @@
     <mergeCell ref="AE3:AH3"/>
     <mergeCell ref="W3:Z3"/>
     <mergeCell ref="AM3:AP3"/>
-    <mergeCell ref="AM39:AP39"/>
-    <mergeCell ref="AQ39:AT39"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="O39:R39"/>
-    <mergeCell ref="S39:V39"/>
-    <mergeCell ref="W39:Z39"/>
-    <mergeCell ref="AA39:AD39"/>
-    <mergeCell ref="AE39:AH39"/>
-    <mergeCell ref="AI39:AL39"/>
-    <mergeCell ref="BK39:BN39"/>
-    <mergeCell ref="BG39:BJ39"/>
-    <mergeCell ref="BC39:BF39"/>
-    <mergeCell ref="AY39:BB39"/>
-    <mergeCell ref="AU39:AX39"/>
-    <mergeCell ref="BS39:BV39"/>
-    <mergeCell ref="BW39:BZ39"/>
-    <mergeCell ref="CA39:CD39"/>
-    <mergeCell ref="CE39:CH39"/>
-    <mergeCell ref="BO39:BR39"/>
-    <mergeCell ref="BS2:CH2"/>
-    <mergeCell ref="BC2:BR2"/>
-    <mergeCell ref="AM2:BB2"/>
-    <mergeCell ref="AQ3:AT3"/>
-    <mergeCell ref="AU3:AX3"/>
-    <mergeCell ref="AY3:BB3"/>
-    <mergeCell ref="BC3:BF3"/>
-    <mergeCell ref="BG3:BJ3"/>
-    <mergeCell ref="BK3:BN3"/>
-    <mergeCell ref="BO3:BR3"/>
-    <mergeCell ref="BS3:BV3"/>
-    <mergeCell ref="BW3:BZ3"/>
+    <mergeCell ref="W2:AL2"/>
+    <mergeCell ref="G2:U2"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="S3:V3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="CJ5" r:id="rId1"/>
-    <hyperlink ref="CJ7" r:id="rId2"/>
-    <hyperlink ref="CJ8" r:id="rId3"/>
-    <hyperlink ref="CJ9" r:id="rId4"/>
-    <hyperlink ref="CJ11" r:id="rId5"/>
-    <hyperlink ref="CJ10" r:id="rId6"/>
-    <hyperlink ref="CJ19" r:id="rId7"/>
-    <hyperlink ref="CJ23" r:id="rId8"/>
-    <hyperlink ref="CJ20" r:id="rId9"/>
-    <hyperlink ref="B20" r:id="rId10" display="https://github.com/aspnetboilerplate/aspnetboilerplate.git"/>
-    <hyperlink ref="CJ21" r:id="rId11"/>
-    <hyperlink ref="CJ22" r:id="rId12"/>
-    <hyperlink ref="CJ41" r:id="rId13"/>
-    <hyperlink ref="CJ43" r:id="rId14"/>
-    <hyperlink ref="CJ44" r:id="rId15"/>
-    <hyperlink ref="CJ45" r:id="rId16"/>
-    <hyperlink ref="CJ47" r:id="rId17"/>
-    <hyperlink ref="CJ46" r:id="rId18"/>
-    <hyperlink ref="CJ55" r:id="rId19"/>
-    <hyperlink ref="CJ59" r:id="rId20"/>
-    <hyperlink ref="CJ56" r:id="rId21"/>
-    <hyperlink ref="B56" r:id="rId22" display="https://github.com/aspnetboilerplate/aspnetboilerplate.git"/>
-    <hyperlink ref="CJ57" r:id="rId23"/>
-    <hyperlink ref="CJ58" r:id="rId24"/>
+    <hyperlink ref="CJ5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="CJ7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="CJ8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="CJ9" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="CJ11" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="CJ10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="CJ19" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="CJ23" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="CJ20" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B20" r:id="rId10" display="https://github.com/aspnetboilerplate/aspnetboilerplate.git" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="CJ21" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="CJ22" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="CJ41" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="CJ43" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="CJ44" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="CJ45" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="CJ47" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="CJ46" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="CJ55" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="CJ59" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="CJ56" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B56" r:id="rId22" display="https://github.com/aspnetboilerplate/aspnetboilerplate.git" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="CJ57" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="CJ58" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId25"/>
@@ -21906,19 +22114,5978 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:P213"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:A33"/>
+    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
+      <selection activeCell="J219" sqref="J219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="97.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="2.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" customWidth="1"/>
+    <col min="6" max="6" width="2.7109375" customWidth="1"/>
+    <col min="8" max="8" width="3.140625" customWidth="1"/>
+    <col min="9" max="9" width="8" customWidth="1"/>
+    <col min="10" max="10" width="5" customWidth="1"/>
+    <col min="12" max="12" width="5" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="119" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="65"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3" s="67"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="59">
+        <v>1</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="50">
+        <v>586</v>
+      </c>
+      <c r="F4" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" s="50">
+        <v>1679</v>
+      </c>
+      <c r="H4" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I4" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="59">
+        <v>2</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="50">
+        <v>987</v>
+      </c>
+      <c r="F5" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="50">
+        <v>1181</v>
+      </c>
+      <c r="H5" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I5" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="59">
+        <v>3</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="50">
+        <v>1084</v>
+      </c>
+      <c r="F6" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="50">
+        <v>1512</v>
+      </c>
+      <c r="H6" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I6" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="59">
+        <v>4</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="50">
+        <v>783</v>
+      </c>
+      <c r="F7" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" s="50">
+        <v>1545</v>
+      </c>
+      <c r="H7" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I7" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="59">
+        <v>5</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="50">
+        <v>2673</v>
+      </c>
+      <c r="F8" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" s="50">
+        <v>2468</v>
+      </c>
+      <c r="H8" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I8" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="59">
+        <v>6</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="50">
+        <v>1103</v>
+      </c>
+      <c r="F9" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" s="50">
+        <v>2222</v>
+      </c>
+      <c r="H9" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="59">
+        <v>7</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="50">
+        <v>1409</v>
+      </c>
+      <c r="F10" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" s="50">
+        <v>1572</v>
+      </c>
+      <c r="H10" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I10" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="59">
+        <v>8</v>
+      </c>
+      <c r="B11" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="50">
+        <v>1592</v>
+      </c>
+      <c r="F11" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" s="50">
+        <v>3122</v>
+      </c>
+      <c r="H11" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I11" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="59">
+        <v>9</v>
+      </c>
+      <c r="B12" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="50">
+        <v>242</v>
+      </c>
+      <c r="F12" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" s="50">
+        <v>1483</v>
+      </c>
+      <c r="H12" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I12" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="59">
+        <v>10</v>
+      </c>
+      <c r="B13" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="50">
+        <v>1653</v>
+      </c>
+      <c r="F13" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="50">
+        <v>3749</v>
+      </c>
+      <c r="H13" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I13" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="59">
+        <v>11</v>
+      </c>
+      <c r="B14" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="50">
+        <v>2050</v>
+      </c>
+      <c r="F14" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="50">
+        <v>5029</v>
+      </c>
+      <c r="H14" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="59">
+        <v>12</v>
+      </c>
+      <c r="B15" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="50">
+        <v>541</v>
+      </c>
+      <c r="F15" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="50">
+        <v>5101</v>
+      </c>
+      <c r="H15" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I15" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" s="46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="59">
+        <v>13</v>
+      </c>
+      <c r="B16" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="50">
+        <v>1381</v>
+      </c>
+      <c r="F16" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="50">
+        <v>3449</v>
+      </c>
+      <c r="H16" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I16" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="59">
+        <v>14</v>
+      </c>
+      <c r="B17" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="50">
+        <v>805</v>
+      </c>
+      <c r="F17" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="50">
+        <v>3668</v>
+      </c>
+      <c r="H17" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I17" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="59">
+        <v>15</v>
+      </c>
+      <c r="B18" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="50">
+        <v>919</v>
+      </c>
+      <c r="F18" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G18" s="50">
+        <v>2505</v>
+      </c>
+      <c r="H18" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I18" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="J18" s="46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="59">
+        <v>16</v>
+      </c>
+      <c r="B19" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="50">
+        <v>2353</v>
+      </c>
+      <c r="F19" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" s="50">
+        <v>1615</v>
+      </c>
+      <c r="H19" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I19" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="J19" s="46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="59">
+        <v>17</v>
+      </c>
+      <c r="B20" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="50">
+        <v>3485</v>
+      </c>
+      <c r="F20" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" s="50">
+        <v>3353</v>
+      </c>
+      <c r="H20" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="J20" s="46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="59">
+        <v>18</v>
+      </c>
+      <c r="B21" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="50">
+        <v>767</v>
+      </c>
+      <c r="F21" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G21" s="50">
+        <v>2397</v>
+      </c>
+      <c r="H21" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I21" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="J21" s="46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="59">
+        <v>19</v>
+      </c>
+      <c r="B22" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="50">
+        <v>2250</v>
+      </c>
+      <c r="F22" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G22" s="50">
+        <v>1853</v>
+      </c>
+      <c r="H22" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I22" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="J22" s="46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="59">
+        <v>20</v>
+      </c>
+      <c r="B23" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="50">
+        <v>1677</v>
+      </c>
+      <c r="F23" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G23" s="50">
+        <v>2445</v>
+      </c>
+      <c r="H23" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I23" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="J23" s="46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="59">
+        <v>21</v>
+      </c>
+      <c r="B24" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="50">
+        <v>7107</v>
+      </c>
+      <c r="F24" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G24" s="50">
+        <v>2443</v>
+      </c>
+      <c r="H24" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I24" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="J24" s="46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="59">
+        <v>22</v>
+      </c>
+      <c r="B25" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="50">
+        <v>2179</v>
+      </c>
+      <c r="F25" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G25" s="50">
+        <v>4065</v>
+      </c>
+      <c r="H25" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I25" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="J25" s="46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="59">
+        <v>23</v>
+      </c>
+      <c r="B26" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="50">
+        <v>861</v>
+      </c>
+      <c r="F26" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G26" s="50">
+        <v>2033</v>
+      </c>
+      <c r="H26" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I26" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="J26" s="46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="59">
+        <v>24</v>
+      </c>
+      <c r="B27" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="50">
+        <v>2029</v>
+      </c>
+      <c r="F27" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G27" s="50">
+        <v>2723</v>
+      </c>
+      <c r="H27" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I27" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="J27" s="46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="59">
+        <v>25</v>
+      </c>
+      <c r="B28" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" s="50">
+        <v>117</v>
+      </c>
+      <c r="F28" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G28" s="50">
+        <v>2181</v>
+      </c>
+      <c r="H28" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I28" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="J28" s="46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="59">
+        <v>26</v>
+      </c>
+      <c r="B29" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" s="50">
+        <v>1016</v>
+      </c>
+      <c r="F29" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G29" s="50">
+        <v>4417</v>
+      </c>
+      <c r="H29" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I29" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="J29" s="46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="60">
+        <v>27</v>
+      </c>
+      <c r="B30" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" s="61">
+        <v>259</v>
+      </c>
+      <c r="F30" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="G30" s="61">
+        <v>3882</v>
+      </c>
+      <c r="H30" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="I30" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="J30" s="62" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="118" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" s="118"/>
+      <c r="C33" s="118"/>
+      <c r="D33" s="118"/>
+      <c r="E33" s="118"/>
+      <c r="F33" s="118"/>
+      <c r="G33" s="118"/>
+      <c r="H33" s="118"/>
+      <c r="I33" s="118"/>
+      <c r="J33" s="118"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="63"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="63">
+        <v>5</v>
+      </c>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63">
+        <v>10</v>
+      </c>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63">
+        <v>20</v>
+      </c>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="J34" s="63"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="47">
+        <f>ROUND(8.01980728051392,2)</f>
+        <v>8.02</v>
+      </c>
+      <c r="D35" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E35" s="47">
+        <v>17.25</v>
+      </c>
+      <c r="F35" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G35" s="47">
+        <v>33.24</v>
+      </c>
+      <c r="H35" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I35" s="47">
+        <v>319.19</v>
+      </c>
+      <c r="J35" s="47" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="47">
+        <v>4.05</v>
+      </c>
+      <c r="D36" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E36" s="47">
+        <v>8.93</v>
+      </c>
+      <c r="F36" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G36" s="47">
+        <v>16.25</v>
+      </c>
+      <c r="H36" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I36" s="47">
+        <v>278.97000000000003</v>
+      </c>
+      <c r="J36" s="47" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="47">
+        <v>2.61</v>
+      </c>
+      <c r="D37" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E37" s="47">
+        <v>5.05</v>
+      </c>
+      <c r="F37" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G37" s="47">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="H37" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I37" s="47">
+        <v>201.82</v>
+      </c>
+      <c r="J37" s="47" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="47">
+        <v>1.86</v>
+      </c>
+      <c r="D38" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E38" s="47">
+        <v>3.44</v>
+      </c>
+      <c r="F38" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G38" s="47">
+        <v>6.24</v>
+      </c>
+      <c r="H38" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I38" s="47">
+        <v>135</v>
+      </c>
+      <c r="J38" s="47" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="120" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40" s="120"/>
+      <c r="C40" s="120"/>
+      <c r="D40" s="120"/>
+      <c r="E40" s="120"/>
+      <c r="F40" s="120"/>
+      <c r="G40" s="120"/>
+      <c r="H40" s="120"/>
+      <c r="I40" s="120"/>
+      <c r="J40" s="120"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="120"/>
+      <c r="B41" s="120"/>
+      <c r="C41" s="120"/>
+      <c r="D41" s="120"/>
+      <c r="E41" s="120"/>
+      <c r="F41" s="120"/>
+      <c r="G41" s="120"/>
+      <c r="H41" s="120"/>
+      <c r="I41" s="120"/>
+      <c r="J41" s="120"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="63"/>
+      <c r="B42" s="63"/>
+      <c r="C42" s="63">
+        <v>5</v>
+      </c>
+      <c r="D42" s="63"/>
+      <c r="E42" s="63">
+        <v>10</v>
+      </c>
+      <c r="F42" s="63"/>
+      <c r="G42" s="63">
+        <v>20</v>
+      </c>
+      <c r="H42" s="63"/>
+      <c r="I42" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="J42" s="63"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="47">
+        <v>7.85</v>
+      </c>
+      <c r="D43" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E43" s="47">
+        <v>16.329999999999998</v>
+      </c>
+      <c r="F43" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G43" s="47">
+        <v>29.78</v>
+      </c>
+      <c r="H43" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I43" s="47">
+        <v>306.54000000000002</v>
+      </c>
+      <c r="J43" s="47" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="B44" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="47">
+        <v>3.93</v>
+      </c>
+      <c r="D44" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E44" s="47">
+        <v>7.78</v>
+      </c>
+      <c r="F44" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G44" s="47">
+        <v>15.65</v>
+      </c>
+      <c r="H44" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I44" s="47">
+        <v>246.08</v>
+      </c>
+      <c r="J44" s="47" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="B45" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" s="47">
+        <v>2.42</v>
+      </c>
+      <c r="D45" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E45" s="47">
+        <v>4.91</v>
+      </c>
+      <c r="F45" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G45" s="47">
+        <v>8.19</v>
+      </c>
+      <c r="H45" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I45" s="47">
+        <v>115.56</v>
+      </c>
+      <c r="J45" s="47" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="B46" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" s="47">
+        <v>1.64</v>
+      </c>
+      <c r="D46" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E46" s="47">
+        <v>3.19</v>
+      </c>
+      <c r="F46" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G46" s="47">
+        <v>5.47</v>
+      </c>
+      <c r="H46" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I46" s="47">
+        <v>51.77</v>
+      </c>
+      <c r="J46" s="47" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="118" t="s">
+        <v>103</v>
+      </c>
+      <c r="B50" s="118"/>
+      <c r="C50" s="118"/>
+      <c r="D50" s="118"/>
+      <c r="E50" s="118"/>
+      <c r="F50" s="118"/>
+      <c r="G50" s="118"/>
+      <c r="H50" s="118"/>
+      <c r="I50" s="118"/>
+      <c r="J50" s="118"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="118"/>
+      <c r="B51" s="118"/>
+      <c r="C51" s="118"/>
+      <c r="D51" s="118"/>
+      <c r="E51" s="118"/>
+      <c r="F51" s="118"/>
+      <c r="G51" s="118"/>
+      <c r="H51" s="118"/>
+      <c r="I51" s="118"/>
+      <c r="J51" s="118"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="63"/>
+      <c r="B52" s="63"/>
+      <c r="C52" s="63">
+        <v>5</v>
+      </c>
+      <c r="D52" s="63"/>
+      <c r="E52" s="63">
+        <v>10</v>
+      </c>
+      <c r="F52" s="63"/>
+      <c r="G52" s="63">
+        <v>20</v>
+      </c>
+      <c r="H52" s="63"/>
+      <c r="I52" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="J52" s="63"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="B53" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C53" s="47">
+        <v>17.11</v>
+      </c>
+      <c r="D53" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E53" s="47">
+        <v>25.69</v>
+      </c>
+      <c r="F53" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G53" s="47">
+        <v>37.94</v>
+      </c>
+      <c r="H53" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I53" s="47">
+        <v>78.11</v>
+      </c>
+      <c r="J53" s="47" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="B54" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" s="47">
+        <v>9.74</v>
+      </c>
+      <c r="D54" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E54" s="47">
+        <v>15.8</v>
+      </c>
+      <c r="F54" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G54" s="47">
+        <v>25.2</v>
+      </c>
+      <c r="H54" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I54" s="47">
+        <v>68.319999999999993</v>
+      </c>
+      <c r="J54" s="47" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="B55" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C55" s="47">
+        <v>5.92</v>
+      </c>
+      <c r="D55" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E55" s="47">
+        <v>10.6</v>
+      </c>
+      <c r="F55" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G55" s="47">
+        <v>17.86</v>
+      </c>
+      <c r="H55" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I55" s="47">
+        <v>63.6</v>
+      </c>
+      <c r="J55" s="47" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="B56" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C56" s="47">
+        <v>5.01</v>
+      </c>
+      <c r="D56" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E56" s="47">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="F56" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G56" s="47">
+        <v>13.81</v>
+      </c>
+      <c r="H56" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I56" s="47">
+        <v>56.52</v>
+      </c>
+      <c r="J56" s="47" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="118" t="s">
+        <v>106</v>
+      </c>
+      <c r="B59" s="118"/>
+      <c r="C59" s="118"/>
+      <c r="D59" s="118"/>
+      <c r="E59" s="118"/>
+      <c r="F59" s="118"/>
+      <c r="G59" s="118"/>
+      <c r="H59" s="118"/>
+      <c r="I59" s="118"/>
+      <c r="J59" s="118"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="118"/>
+      <c r="B60" s="118"/>
+      <c r="C60" s="118"/>
+      <c r="D60" s="118"/>
+      <c r="E60" s="118"/>
+      <c r="F60" s="118"/>
+      <c r="G60" s="118"/>
+      <c r="H60" s="118"/>
+      <c r="I60" s="118"/>
+      <c r="J60" s="118"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="63"/>
+      <c r="B61" s="63"/>
+      <c r="C61" s="63">
+        <v>5</v>
+      </c>
+      <c r="D61" s="63"/>
+      <c r="E61" s="63">
+        <v>10</v>
+      </c>
+      <c r="F61" s="63"/>
+      <c r="G61" s="63">
+        <v>20</v>
+      </c>
+      <c r="H61" s="63"/>
+      <c r="I61" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="J61" s="63"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="B62" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C62" s="47">
+        <v>16.559999999999999</v>
+      </c>
+      <c r="D62" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E62" s="47">
+        <v>24.77</v>
+      </c>
+      <c r="F62" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G62" s="47">
+        <v>37.33</v>
+      </c>
+      <c r="H62" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I62" s="47">
+        <v>75.98</v>
+      </c>
+      <c r="J62" s="47" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="B63" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C63" s="47">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="D63" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E63" s="47">
+        <v>15.2</v>
+      </c>
+      <c r="F63" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G63" s="47">
+        <v>23.85</v>
+      </c>
+      <c r="H63" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I63" s="47">
+        <v>61.66</v>
+      </c>
+      <c r="J63" s="47" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="B64" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C64" s="47">
+        <v>5.92</v>
+      </c>
+      <c r="D64" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E64" s="47">
+        <v>10.6</v>
+      </c>
+      <c r="F64" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G64" s="47">
+        <v>15.81</v>
+      </c>
+      <c r="H64" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I64" s="47">
+        <v>49.03</v>
+      </c>
+      <c r="J64" s="47" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="B65" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C65" s="47">
+        <v>4.59</v>
+      </c>
+      <c r="D65" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E65" s="47">
+        <v>7.41</v>
+      </c>
+      <c r="F65" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G65" s="47">
+        <v>11.85</v>
+      </c>
+      <c r="H65" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I65" s="47">
+        <v>37.53</v>
+      </c>
+      <c r="J65" s="47" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="118" t="s">
+        <v>104</v>
+      </c>
+      <c r="B68" s="118"/>
+      <c r="C68" s="118"/>
+      <c r="D68" s="118"/>
+      <c r="E68" s="118"/>
+      <c r="F68" s="118"/>
+      <c r="G68" s="118"/>
+      <c r="H68" s="118"/>
+      <c r="I68" s="118"/>
+      <c r="J68" s="118"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="118"/>
+      <c r="B69" s="118"/>
+      <c r="C69" s="118"/>
+      <c r="D69" s="118"/>
+      <c r="E69" s="118"/>
+      <c r="F69" s="118"/>
+      <c r="G69" s="118"/>
+      <c r="H69" s="118"/>
+      <c r="I69" s="118"/>
+      <c r="J69" s="118"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="63"/>
+      <c r="B70" s="63"/>
+      <c r="C70" s="63">
+        <v>5</v>
+      </c>
+      <c r="D70" s="63"/>
+      <c r="E70" s="63">
+        <v>10</v>
+      </c>
+      <c r="F70" s="63"/>
+      <c r="G70" s="63">
+        <v>20</v>
+      </c>
+      <c r="H70" s="63"/>
+      <c r="I70" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="J70" s="63"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="B71" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C71" s="47">
+        <v>1.62</v>
+      </c>
+      <c r="D71" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E71" s="47">
+        <v>1.26</v>
+      </c>
+      <c r="F71" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G71" s="47">
+        <v>1.07</v>
+      </c>
+      <c r="H71" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I71" s="47">
+        <v>0.24</v>
+      </c>
+      <c r="J71" s="47" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="B72" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C72" s="47">
+        <v>2.72</v>
+      </c>
+      <c r="D72" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E72" s="47">
+        <v>1.95</v>
+      </c>
+      <c r="F72" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G72" s="47">
+        <v>1.57</v>
+      </c>
+      <c r="H72" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I72" s="47">
+        <v>0.32</v>
+      </c>
+      <c r="J72" s="47" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="B73" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C73" s="47">
+        <v>3.93</v>
+      </c>
+      <c r="D73" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E73" s="47">
+        <v>2.27</v>
+      </c>
+      <c r="F73" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G73" s="47">
+        <v>1.71</v>
+      </c>
+      <c r="H73" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I73" s="47">
+        <v>0.34</v>
+      </c>
+      <c r="J73" s="47" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="B74" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C74" s="47">
+        <v>4.66</v>
+      </c>
+      <c r="D74" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E74" s="47">
+        <v>2.69</v>
+      </c>
+      <c r="F74" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G74" s="47">
+        <v>2.42</v>
+      </c>
+      <c r="H74" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I74" s="47">
+        <v>0.41</v>
+      </c>
+      <c r="J74" s="47" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="118" t="s">
+        <v>105</v>
+      </c>
+      <c r="B77" s="118"/>
+      <c r="C77" s="118"/>
+      <c r="D77" s="118"/>
+      <c r="E77" s="118"/>
+      <c r="F77" s="118"/>
+      <c r="G77" s="118"/>
+      <c r="H77" s="118"/>
+      <c r="I77" s="118"/>
+      <c r="J77" s="118"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="118"/>
+      <c r="B78" s="118"/>
+      <c r="C78" s="118"/>
+      <c r="D78" s="118"/>
+      <c r="E78" s="118"/>
+      <c r="F78" s="118"/>
+      <c r="G78" s="118"/>
+      <c r="H78" s="118"/>
+      <c r="I78" s="118"/>
+      <c r="J78" s="118"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="63"/>
+      <c r="B79" s="63"/>
+      <c r="C79" s="63">
+        <v>5</v>
+      </c>
+      <c r="D79" s="63"/>
+      <c r="E79" s="63">
+        <v>10</v>
+      </c>
+      <c r="F79" s="63"/>
+      <c r="G79" s="63">
+        <v>20</v>
+      </c>
+      <c r="H79" s="63"/>
+      <c r="I79" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="J79" s="63"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="B80" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C80" s="47">
+        <v>1.62</v>
+      </c>
+      <c r="D80" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E80" s="47">
+        <v>1.47</v>
+      </c>
+      <c r="F80" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G80" s="47">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H80" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I80" s="47">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J80" s="47" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="B81" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C81" s="47">
+        <v>2.72</v>
+      </c>
+      <c r="D81" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E81" s="47">
+        <v>2.1</v>
+      </c>
+      <c r="F81" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G81" s="47">
+        <v>1.7</v>
+      </c>
+      <c r="H81" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I81" s="47">
+        <v>0.31</v>
+      </c>
+      <c r="J81" s="47" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="B82" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C82" s="47">
+        <v>3.63</v>
+      </c>
+      <c r="D82" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E82" s="47">
+        <v>2.38</v>
+      </c>
+      <c r="F82" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G82" s="47">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H82" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I82" s="47">
+        <v>0.35</v>
+      </c>
+      <c r="J82" s="47" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="B83" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C83" s="47">
+        <v>4.66</v>
+      </c>
+      <c r="D83" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E83" s="47">
+        <v>2.62</v>
+      </c>
+      <c r="F83" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G83" s="47">
+        <v>2.34</v>
+      </c>
+      <c r="H83" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I83" s="47">
+        <v>0.53</v>
+      </c>
+      <c r="J83" s="47" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="120" t="s">
+        <v>107</v>
+      </c>
+      <c r="B86" s="120"/>
+      <c r="C86" s="120"/>
+      <c r="D86" s="120"/>
+      <c r="E86" s="120"/>
+      <c r="F86" s="120"/>
+      <c r="G86" s="120"/>
+      <c r="H86" s="120"/>
+      <c r="I86" s="120"/>
+      <c r="J86" s="120"/>
+      <c r="K86" s="120"/>
+      <c r="L86" s="120"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="120"/>
+      <c r="B87" s="120"/>
+      <c r="C87" s="120"/>
+      <c r="D87" s="120"/>
+      <c r="E87" s="120"/>
+      <c r="F87" s="120"/>
+      <c r="G87" s="120"/>
+      <c r="H87" s="120"/>
+      <c r="I87" s="120"/>
+      <c r="J87" s="120"/>
+      <c r="K87" s="120"/>
+      <c r="L87" s="120"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88" s="64"/>
+      <c r="C88" s="64" t="s">
+        <v>88</v>
+      </c>
+      <c r="D88" s="64"/>
+      <c r="E88" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="F88" s="64"/>
+      <c r="G88" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="H88" s="64"/>
+      <c r="I88" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="J88" s="64"/>
+      <c r="K88" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="L88" s="64"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="47">
+        <v>1</v>
+      </c>
+      <c r="B89" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C89" s="50">
+        <v>698</v>
+      </c>
+      <c r="D89" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E89" s="50">
+        <v>9016</v>
+      </c>
+      <c r="F89" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G89" s="50">
+        <v>11441</v>
+      </c>
+      <c r="H89" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I89" s="6">
+        <v>15079</v>
+      </c>
+      <c r="J89" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="K89" s="6">
+        <v>89274</v>
+      </c>
+      <c r="L89" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="47">
+        <v>2</v>
+      </c>
+      <c r="B90" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C90" s="50">
+        <v>2249</v>
+      </c>
+      <c r="D90" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E90" s="50">
+        <v>2206</v>
+      </c>
+      <c r="F90" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G90" s="50">
+        <v>4569</v>
+      </c>
+      <c r="H90" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I90" s="6">
+        <v>8981</v>
+      </c>
+      <c r="J90" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="K90" s="6">
+        <v>124414</v>
+      </c>
+      <c r="L90" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="47">
+        <v>3</v>
+      </c>
+      <c r="B91" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C91" s="50">
+        <v>728</v>
+      </c>
+      <c r="D91" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E91" s="50">
+        <v>5577</v>
+      </c>
+      <c r="F91" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G91" s="50">
+        <v>12558</v>
+      </c>
+      <c r="H91" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I91" s="47">
+        <v>20754</v>
+      </c>
+      <c r="J91" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="K91" s="47">
+        <v>137161</v>
+      </c>
+      <c r="L91" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="47">
+        <v>4</v>
+      </c>
+      <c r="B92" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C92" s="50">
+        <v>948</v>
+      </c>
+      <c r="D92" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E92" s="50">
+        <v>92979</v>
+      </c>
+      <c r="F92" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G92" s="50">
+        <v>115459</v>
+      </c>
+      <c r="H92" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I92" s="50">
+        <v>188150</v>
+      </c>
+      <c r="J92" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="K92" s="50">
+        <v>294576</v>
+      </c>
+      <c r="L92" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="47">
+        <v>5</v>
+      </c>
+      <c r="B93" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C93" s="50">
+        <v>5280</v>
+      </c>
+      <c r="D93" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E93" s="50">
+        <v>14988</v>
+      </c>
+      <c r="F93" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G93" s="50">
+        <v>72030</v>
+      </c>
+      <c r="H93" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I93" s="50">
+        <v>134049</v>
+      </c>
+      <c r="J93" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="K93" s="50">
+        <v>2881199</v>
+      </c>
+      <c r="L93" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="47">
+        <v>6</v>
+      </c>
+      <c r="B94" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C94" s="50">
+        <v>716</v>
+      </c>
+      <c r="D94" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E94" s="50">
+        <v>1621</v>
+      </c>
+      <c r="F94" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G94" s="50">
+        <v>2438</v>
+      </c>
+      <c r="H94" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I94" s="50">
+        <v>4157</v>
+      </c>
+      <c r="J94" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="K94" s="50">
+        <v>346004</v>
+      </c>
+      <c r="L94" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" s="47">
+        <v>7</v>
+      </c>
+      <c r="B95" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C95" s="50">
+        <v>1231</v>
+      </c>
+      <c r="D95" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E95" s="50">
+        <v>7342</v>
+      </c>
+      <c r="F95" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G95" s="50">
+        <v>15700</v>
+      </c>
+      <c r="H95" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I95" s="50">
+        <v>27506</v>
+      </c>
+      <c r="J95" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="K95" s="50">
+        <v>461617</v>
+      </c>
+      <c r="L95" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="47">
+        <v>8</v>
+      </c>
+      <c r="B96" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C96" s="50">
+        <v>4447</v>
+      </c>
+      <c r="D96" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E96" s="50">
+        <v>18705</v>
+      </c>
+      <c r="F96" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G96" s="50">
+        <v>43341</v>
+      </c>
+      <c r="H96" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I96" s="50">
+        <v>88931</v>
+      </c>
+      <c r="J96" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="K96" s="50">
+        <v>1212519</v>
+      </c>
+      <c r="L96" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="47">
+        <v>9</v>
+      </c>
+      <c r="B97" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C97" s="50">
+        <v>182</v>
+      </c>
+      <c r="D97" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E97" s="50">
+        <v>1190</v>
+      </c>
+      <c r="F97" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G97" s="50">
+        <v>2333</v>
+      </c>
+      <c r="H97" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I97" s="47">
+        <v>4063</v>
+      </c>
+      <c r="J97" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="K97" s="47">
+        <v>14600</v>
+      </c>
+      <c r="L97" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" s="47">
+        <v>10</v>
+      </c>
+      <c r="B98" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C98" s="50">
+        <v>5244</v>
+      </c>
+      <c r="D98" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E98" s="50">
+        <v>6905</v>
+      </c>
+      <c r="F98" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G98" s="50">
+        <v>16257</v>
+      </c>
+      <c r="H98" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I98" s="47">
+        <v>27567</v>
+      </c>
+      <c r="J98" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="K98" s="47">
+        <v>453439</v>
+      </c>
+      <c r="L98" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" s="47">
+        <v>11</v>
+      </c>
+      <c r="B99" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C99" s="50">
+        <v>1830</v>
+      </c>
+      <c r="D99" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E99" s="50">
+        <v>22186</v>
+      </c>
+      <c r="F99" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G99" s="50">
+        <v>47270</v>
+      </c>
+      <c r="H99" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I99" s="47">
+        <v>89063</v>
+      </c>
+      <c r="J99" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="K99" s="47">
+        <v>304631</v>
+      </c>
+      <c r="L99" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" s="47">
+        <v>12</v>
+      </c>
+      <c r="B100" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C100" s="50">
+        <v>1253</v>
+      </c>
+      <c r="D100" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E100" s="50">
+        <v>5735</v>
+      </c>
+      <c r="F100" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G100" s="50">
+        <v>10834</v>
+      </c>
+      <c r="H100" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I100" s="47">
+        <v>15654</v>
+      </c>
+      <c r="J100" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="K100" s="47">
+        <v>24186</v>
+      </c>
+      <c r="L100" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" s="47">
+        <v>13</v>
+      </c>
+      <c r="B101" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C101" s="50">
+        <v>1853</v>
+      </c>
+      <c r="D101" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E101" s="50">
+        <v>21489</v>
+      </c>
+      <c r="F101" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G101" s="50">
+        <v>62122</v>
+      </c>
+      <c r="H101" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I101" s="47">
+        <v>77859</v>
+      </c>
+      <c r="J101" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="K101" s="47">
+        <v>199154</v>
+      </c>
+      <c r="L101" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" s="47">
+        <v>14</v>
+      </c>
+      <c r="B102" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C102" s="50">
+        <v>1189</v>
+      </c>
+      <c r="D102" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E102" s="50">
+        <v>6497</v>
+      </c>
+      <c r="F102" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G102" s="50">
+        <v>9288</v>
+      </c>
+      <c r="H102" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I102" s="47">
+        <v>13279</v>
+      </c>
+      <c r="J102" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="K102" s="47">
+        <v>306682</v>
+      </c>
+      <c r="L102" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" s="47">
+        <v>15</v>
+      </c>
+      <c r="B103" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C103" s="50">
+        <v>295</v>
+      </c>
+      <c r="D103" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E103" s="50">
+        <v>4752</v>
+      </c>
+      <c r="F103" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G103" s="50">
+        <v>9065</v>
+      </c>
+      <c r="H103" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I103" s="47">
+        <v>16209</v>
+      </c>
+      <c r="J103" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="K103" s="47">
+        <v>334934</v>
+      </c>
+      <c r="L103" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" s="47">
+        <v>16</v>
+      </c>
+      <c r="B104" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C104" s="50">
+        <v>1223</v>
+      </c>
+      <c r="D104" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E104" s="50">
+        <v>4871</v>
+      </c>
+      <c r="F104" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G104" s="50">
+        <v>10436</v>
+      </c>
+      <c r="H104" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I104" s="50">
+        <v>17319</v>
+      </c>
+      <c r="J104" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="K104" s="50">
+        <v>220890</v>
+      </c>
+      <c r="L104" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" s="47">
+        <v>17</v>
+      </c>
+      <c r="B105" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C105" s="50">
+        <v>1868</v>
+      </c>
+      <c r="D105" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E105" s="50">
+        <v>14981</v>
+      </c>
+      <c r="F105" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G105" s="50">
+        <v>32904</v>
+      </c>
+      <c r="H105" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I105" s="50">
+        <v>76908</v>
+      </c>
+      <c r="J105" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="K105" s="50">
+        <v>944326</v>
+      </c>
+      <c r="L105" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" s="47">
+        <v>18</v>
+      </c>
+      <c r="B106" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C106" s="50">
+        <v>233</v>
+      </c>
+      <c r="D106" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E106" s="50">
+        <v>1792</v>
+      </c>
+      <c r="F106" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G106" s="50">
+        <v>4455</v>
+      </c>
+      <c r="H106" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I106" s="47">
+        <v>9387</v>
+      </c>
+      <c r="J106" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="K106" s="47">
+        <v>74372</v>
+      </c>
+      <c r="L106" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" s="47">
+        <v>19</v>
+      </c>
+      <c r="B107" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C107" s="50">
+        <v>535</v>
+      </c>
+      <c r="D107" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E107" s="50">
+        <v>11300</v>
+      </c>
+      <c r="F107" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G107" s="50">
+        <v>24004</v>
+      </c>
+      <c r="H107" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I107" s="47">
+        <v>52495</v>
+      </c>
+      <c r="J107" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="K107" s="47">
+        <v>1849862</v>
+      </c>
+      <c r="L107" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" s="47">
+        <v>20</v>
+      </c>
+      <c r="B108" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C108" s="50">
+        <v>717</v>
+      </c>
+      <c r="D108" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E108" s="50">
+        <v>4486</v>
+      </c>
+      <c r="F108" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G108" s="50">
+        <v>10983</v>
+      </c>
+      <c r="H108" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I108" s="47">
+        <v>23835</v>
+      </c>
+      <c r="J108" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="K108" s="47">
+        <v>826110</v>
+      </c>
+      <c r="L108" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" s="47">
+        <v>21</v>
+      </c>
+      <c r="B109" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C109" s="50">
+        <v>2549</v>
+      </c>
+      <c r="D109" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E109" s="50">
+        <v>48082</v>
+      </c>
+      <c r="F109" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G109" s="50">
+        <v>94388</v>
+      </c>
+      <c r="H109" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I109" s="47">
+        <v>2343062</v>
+      </c>
+      <c r="J109" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="K109" s="47">
+        <v>4995768</v>
+      </c>
+      <c r="L109" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" s="47">
+        <v>22</v>
+      </c>
+      <c r="B110" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C110" s="50">
+        <v>979</v>
+      </c>
+      <c r="D110" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E110" s="50">
+        <v>11573</v>
+      </c>
+      <c r="F110" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G110" s="50">
+        <v>33812</v>
+      </c>
+      <c r="H110" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I110" s="47">
+        <v>66460</v>
+      </c>
+      <c r="J110" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="K110" s="47">
+        <v>562112</v>
+      </c>
+      <c r="L110" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" s="47">
+        <v>23</v>
+      </c>
+      <c r="B111" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C111" s="50">
+        <v>262</v>
+      </c>
+      <c r="D111" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E111" s="50">
+        <v>3512</v>
+      </c>
+      <c r="F111" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G111" s="50">
+        <v>6974</v>
+      </c>
+      <c r="H111" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I111" s="47">
+        <v>9816</v>
+      </c>
+      <c r="J111" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="K111" s="47">
+        <v>275373</v>
+      </c>
+      <c r="L111" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" s="47">
+        <v>24</v>
+      </c>
+      <c r="B112" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C112" s="50">
+        <v>970</v>
+      </c>
+      <c r="D112" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E112" s="50">
+        <v>7957</v>
+      </c>
+      <c r="F112" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G112" s="50">
+        <v>15631</v>
+      </c>
+      <c r="H112" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I112" s="47">
+        <v>31880</v>
+      </c>
+      <c r="J112" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="K112" s="47">
+        <v>975910</v>
+      </c>
+      <c r="L112" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" s="47">
+        <v>25</v>
+      </c>
+      <c r="B113" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C113" s="50">
+        <v>16</v>
+      </c>
+      <c r="D113" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E113" s="50">
+        <v>2839</v>
+      </c>
+      <c r="F113" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G113" s="50">
+        <v>4023</v>
+      </c>
+      <c r="H113" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I113" s="47">
+        <v>4646</v>
+      </c>
+      <c r="J113" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="K113" s="47">
+        <v>6877</v>
+      </c>
+      <c r="L113" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" s="47">
+        <v>26</v>
+      </c>
+      <c r="B114" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C114" s="50">
+        <v>362</v>
+      </c>
+      <c r="D114" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E114" s="50">
+        <v>6028</v>
+      </c>
+      <c r="F114" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G114" s="50">
+        <v>12746</v>
+      </c>
+      <c r="H114" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I114" s="47">
+        <v>26964</v>
+      </c>
+      <c r="J114" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="K114" s="47">
+        <v>219046</v>
+      </c>
+      <c r="L114" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" s="47">
+        <v>27</v>
+      </c>
+      <c r="B115" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C115" s="50">
+        <v>115</v>
+      </c>
+      <c r="D115" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E115" s="50">
+        <v>3645</v>
+      </c>
+      <c r="F115" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G115" s="50">
+        <v>6329</v>
+      </c>
+      <c r="H115" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I115" s="47">
+        <v>9755</v>
+      </c>
+      <c r="J115" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="K115" s="47">
+        <v>14489</v>
+      </c>
+      <c r="L115" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118" s="120" t="s">
+        <v>108</v>
+      </c>
+      <c r="B118" s="120"/>
+      <c r="C118" s="120"/>
+      <c r="D118" s="120"/>
+      <c r="E118" s="120"/>
+      <c r="F118" s="120"/>
+      <c r="G118" s="120"/>
+      <c r="H118" s="120"/>
+      <c r="I118" s="120"/>
+      <c r="J118" s="120"/>
+      <c r="K118" s="120"/>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" s="120"/>
+      <c r="B119" s="120"/>
+      <c r="C119" s="120"/>
+      <c r="D119" s="120"/>
+      <c r="E119" s="120"/>
+      <c r="F119" s="120"/>
+      <c r="G119" s="120"/>
+      <c r="H119" s="120"/>
+      <c r="I119" s="120"/>
+      <c r="J119" s="120"/>
+      <c r="K119" s="120"/>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="B120" s="64"/>
+      <c r="C120" s="64" t="s">
+        <v>88</v>
+      </c>
+      <c r="D120" s="64"/>
+      <c r="E120" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="F120" s="64"/>
+      <c r="G120" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="H120" s="64"/>
+      <c r="I120" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="J120" s="64"/>
+      <c r="K120" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="L120" s="64"/>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121" s="47">
+        <v>1</v>
+      </c>
+      <c r="B121" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C121" s="50">
+        <v>698</v>
+      </c>
+      <c r="D121" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E121" s="13">
+        <v>8734</v>
+      </c>
+      <c r="F121" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G121" s="6">
+        <v>10566</v>
+      </c>
+      <c r="H121" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I121" s="6">
+        <v>13950</v>
+      </c>
+      <c r="J121" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="K121" s="6">
+        <v>84906</v>
+      </c>
+      <c r="L121" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122" s="47">
+        <v>2</v>
+      </c>
+      <c r="B122" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C122" s="50">
+        <v>2249</v>
+      </c>
+      <c r="D122" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E122" s="13">
+        <v>1969</v>
+      </c>
+      <c r="F122" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G122" s="6">
+        <v>4022</v>
+      </c>
+      <c r="H122" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I122" s="6">
+        <v>7980</v>
+      </c>
+      <c r="J122" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="K122" s="6">
+        <v>109807</v>
+      </c>
+      <c r="L122" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123" s="47">
+        <v>3</v>
+      </c>
+      <c r="B123" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C123" s="50">
+        <v>728</v>
+      </c>
+      <c r="D123" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E123" s="50">
+        <v>5424</v>
+      </c>
+      <c r="F123" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G123" s="47">
+        <v>11890</v>
+      </c>
+      <c r="H123" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I123" s="47">
+        <v>18279</v>
+      </c>
+      <c r="J123" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="K123" s="47">
+        <v>78914</v>
+      </c>
+      <c r="L123" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124" s="47">
+        <v>4</v>
+      </c>
+      <c r="B124" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C124" s="50">
+        <v>948</v>
+      </c>
+      <c r="D124" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E124" s="50">
+        <v>88298</v>
+      </c>
+      <c r="F124" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G124" s="50">
+        <v>110676</v>
+      </c>
+      <c r="H124" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I124" s="50">
+        <v>117676</v>
+      </c>
+      <c r="J124" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="K124" s="50">
+        <v>290599</v>
+      </c>
+      <c r="L124" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125" s="47">
+        <v>5</v>
+      </c>
+      <c r="B125" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C125" s="50">
+        <v>5280</v>
+      </c>
+      <c r="D125" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E125" s="50">
+        <v>14205</v>
+      </c>
+      <c r="F125" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G125" s="50">
+        <v>65015</v>
+      </c>
+      <c r="H125" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I125" s="50">
+        <v>119070</v>
+      </c>
+      <c r="J125" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="K125" s="50">
+        <v>2868648</v>
+      </c>
+      <c r="L125" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A126" s="47">
+        <v>6</v>
+      </c>
+      <c r="B126" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C126" s="50">
+        <v>716</v>
+      </c>
+      <c r="D126" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E126" s="50">
+        <v>1425</v>
+      </c>
+      <c r="F126" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G126" s="50">
+        <v>1960</v>
+      </c>
+      <c r="H126" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I126" s="50">
+        <v>3260</v>
+      </c>
+      <c r="J126" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="K126" s="50">
+        <v>252659</v>
+      </c>
+      <c r="L126" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A127" s="47">
+        <v>7</v>
+      </c>
+      <c r="B127" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C127" s="50">
+        <v>1231</v>
+      </c>
+      <c r="D127" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E127" s="50">
+        <v>7190</v>
+      </c>
+      <c r="F127" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G127" s="50">
+        <v>14918</v>
+      </c>
+      <c r="H127" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I127" s="50">
+        <v>24586</v>
+      </c>
+      <c r="J127" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="K127" s="50">
+        <v>392655</v>
+      </c>
+      <c r="L127" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A128" s="47">
+        <v>8</v>
+      </c>
+      <c r="B128" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C128" s="50">
+        <v>4447</v>
+      </c>
+      <c r="D128" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E128" s="50">
+        <v>16820</v>
+      </c>
+      <c r="F128" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G128" s="50">
+        <v>36347</v>
+      </c>
+      <c r="H128" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I128" s="50">
+        <v>67334</v>
+      </c>
+      <c r="J128" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="K128" s="50">
+        <v>565626</v>
+      </c>
+      <c r="L128" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129" s="47">
+        <v>9</v>
+      </c>
+      <c r="B129" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C129" s="50">
+        <v>182</v>
+      </c>
+      <c r="D129" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E129" s="50">
+        <v>1085</v>
+      </c>
+      <c r="F129" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G129" s="47">
+        <v>2071</v>
+      </c>
+      <c r="H129" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I129" s="47">
+        <v>3555</v>
+      </c>
+      <c r="J129" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="K129" s="47">
+        <v>13781</v>
+      </c>
+      <c r="L129" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A130" s="47">
+        <v>10</v>
+      </c>
+      <c r="B130" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C130" s="50">
+        <v>5244</v>
+      </c>
+      <c r="D130" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E130" s="50">
+        <v>6799</v>
+      </c>
+      <c r="F130" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G130" s="47">
+        <v>15162</v>
+      </c>
+      <c r="H130" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I130" s="47">
+        <v>23956</v>
+      </c>
+      <c r="J130" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="K130" s="47">
+        <v>40923</v>
+      </c>
+      <c r="L130" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131" s="47">
+        <v>11</v>
+      </c>
+      <c r="B131" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C131" s="50">
+        <v>1830</v>
+      </c>
+      <c r="D131" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E131" s="50">
+        <v>21621</v>
+      </c>
+      <c r="F131" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G131" s="47">
+        <v>45099</v>
+      </c>
+      <c r="H131" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I131" s="47">
+        <v>81986</v>
+      </c>
+      <c r="J131" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="K131" s="47">
+        <v>254614</v>
+      </c>
+      <c r="L131" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132" s="47">
+        <v>12</v>
+      </c>
+      <c r="B132" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C132" s="50">
+        <v>1253</v>
+      </c>
+      <c r="D132" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E132" s="50">
+        <v>5367</v>
+      </c>
+      <c r="F132" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G132" s="47">
+        <v>9908</v>
+      </c>
+      <c r="H132" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I132" s="47">
+        <v>13763</v>
+      </c>
+      <c r="J132" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="K132" s="47">
+        <v>20906</v>
+      </c>
+      <c r="L132" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133" s="47">
+        <v>13</v>
+      </c>
+      <c r="B133" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C133" s="50">
+        <v>1853</v>
+      </c>
+      <c r="D133" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E133" s="50">
+        <v>18970</v>
+      </c>
+      <c r="F133" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G133" s="47">
+        <v>31176</v>
+      </c>
+      <c r="H133" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I133" s="47">
+        <v>43366</v>
+      </c>
+      <c r="J133" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="K133" s="47">
+        <v>182243</v>
+      </c>
+      <c r="L133" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A134" s="47">
+        <v>14</v>
+      </c>
+      <c r="B134" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C134" s="50">
+        <v>1189</v>
+      </c>
+      <c r="D134" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E134" s="50">
+        <v>5929</v>
+      </c>
+      <c r="F134" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G134" s="47">
+        <v>8466</v>
+      </c>
+      <c r="H134" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I134" s="47">
+        <v>11480</v>
+      </c>
+      <c r="J134" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="K134" s="47">
+        <v>115211</v>
+      </c>
+      <c r="L134" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A135" s="47">
+        <v>15</v>
+      </c>
+      <c r="B135" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C135" s="50">
+        <v>295</v>
+      </c>
+      <c r="D135" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E135" s="50">
+        <v>4741</v>
+      </c>
+      <c r="F135" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G135" s="47">
+        <v>8940</v>
+      </c>
+      <c r="H135" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I135" s="47">
+        <v>15744</v>
+      </c>
+      <c r="J135" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="K135" s="47">
+        <v>334819</v>
+      </c>
+      <c r="L135" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A136" s="47">
+        <v>16</v>
+      </c>
+      <c r="B136" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C136" s="50">
+        <v>1223</v>
+      </c>
+      <c r="D136" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E136" s="50">
+        <v>4868</v>
+      </c>
+      <c r="F136" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G136" s="50">
+        <v>10420</v>
+      </c>
+      <c r="H136" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I136" s="50">
+        <v>17269</v>
+      </c>
+      <c r="J136" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="K136" s="50">
+        <v>200771</v>
+      </c>
+      <c r="L136" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137" s="47">
+        <v>17</v>
+      </c>
+      <c r="B137" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C137" s="50">
+        <v>1868</v>
+      </c>
+      <c r="D137" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E137" s="50">
+        <v>14978</v>
+      </c>
+      <c r="F137" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G137" s="50">
+        <v>32870</v>
+      </c>
+      <c r="H137" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I137" s="50">
+        <v>75985</v>
+      </c>
+      <c r="J137" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="K137" s="50">
+        <v>937506</v>
+      </c>
+      <c r="L137" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A138" s="47">
+        <v>18</v>
+      </c>
+      <c r="B138" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C138" s="50">
+        <v>233</v>
+      </c>
+      <c r="D138" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E138" s="50">
+        <v>1782</v>
+      </c>
+      <c r="F138" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G138" s="47">
+        <v>4441</v>
+      </c>
+      <c r="H138" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I138" s="47">
+        <v>9369</v>
+      </c>
+      <c r="J138" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="K138" s="47">
+        <v>64527</v>
+      </c>
+      <c r="L138" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A139" s="47">
+        <v>19</v>
+      </c>
+      <c r="B139" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C139" s="50">
+        <v>535</v>
+      </c>
+      <c r="D139" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E139" s="50">
+        <v>11300</v>
+      </c>
+      <c r="F139" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G139" s="47">
+        <v>23878</v>
+      </c>
+      <c r="H139" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I139" s="47">
+        <v>51556</v>
+      </c>
+      <c r="J139" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="K139" s="47">
+        <v>1798026</v>
+      </c>
+      <c r="L139" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A140" s="47">
+        <v>20</v>
+      </c>
+      <c r="B140" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C140" s="50">
+        <v>717</v>
+      </c>
+      <c r="D140" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E140" s="50">
+        <v>4486</v>
+      </c>
+      <c r="F140" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G140" s="47">
+        <v>10983</v>
+      </c>
+      <c r="H140" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I140" s="47">
+        <v>23799</v>
+      </c>
+      <c r="J140" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="K140" s="47">
+        <v>799645</v>
+      </c>
+      <c r="L140" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A141" s="47">
+        <v>21</v>
+      </c>
+      <c r="B141" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C141" s="50">
+        <v>2549</v>
+      </c>
+      <c r="D141" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E141" s="50">
+        <v>48075</v>
+      </c>
+      <c r="F141" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G141" s="47">
+        <v>94277</v>
+      </c>
+      <c r="H141" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I141" s="47">
+        <v>2341304</v>
+      </c>
+      <c r="J141" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="K141" s="47">
+        <v>4977238</v>
+      </c>
+      <c r="L141" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A142" s="47">
+        <v>22</v>
+      </c>
+      <c r="B142" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C142" s="50">
+        <v>979</v>
+      </c>
+      <c r="D142" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E142" s="50">
+        <v>11494</v>
+      </c>
+      <c r="F142" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G142" s="47">
+        <v>33785</v>
+      </c>
+      <c r="H142" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I142" s="47">
+        <v>66397</v>
+      </c>
+      <c r="J142" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="K142" s="47">
+        <v>548014</v>
+      </c>
+      <c r="L142" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A143" s="47">
+        <v>23</v>
+      </c>
+      <c r="B143" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C143" s="50">
+        <v>262</v>
+      </c>
+      <c r="D143" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E143" s="50">
+        <v>3512</v>
+      </c>
+      <c r="F143" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G143" s="47">
+        <v>6974</v>
+      </c>
+      <c r="H143" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I143" s="47">
+        <v>9644</v>
+      </c>
+      <c r="J143" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="K143" s="47">
+        <v>243969</v>
+      </c>
+      <c r="L143" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A144" s="47">
+        <v>24</v>
+      </c>
+      <c r="B144" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C144" s="50">
+        <v>970</v>
+      </c>
+      <c r="D144" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E144" s="50">
+        <v>7615</v>
+      </c>
+      <c r="F144" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G144" s="47">
+        <v>13974</v>
+      </c>
+      <c r="H144" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I144" s="47">
+        <v>28889</v>
+      </c>
+      <c r="J144" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="K144" s="47">
+        <v>801760</v>
+      </c>
+      <c r="L144" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A145" s="47">
+        <v>25</v>
+      </c>
+      <c r="B145" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C145" s="50">
+        <v>16</v>
+      </c>
+      <c r="D145" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E145" s="50">
+        <v>2801</v>
+      </c>
+      <c r="F145" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G145" s="47">
+        <v>3889</v>
+      </c>
+      <c r="H145" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I145" s="47">
+        <v>4623</v>
+      </c>
+      <c r="J145" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="K145" s="47">
+        <v>6877</v>
+      </c>
+      <c r="L145" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A146" s="47">
+        <v>26</v>
+      </c>
+      <c r="B146" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C146" s="50">
+        <v>362</v>
+      </c>
+      <c r="D146" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E146" s="50">
+        <v>6024</v>
+      </c>
+      <c r="F146" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G146" s="47">
+        <v>12708</v>
+      </c>
+      <c r="H146" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I146" s="47">
+        <v>26837</v>
+      </c>
+      <c r="J146" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="K146" s="47">
+        <v>209870</v>
+      </c>
+      <c r="L146" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A147" s="47">
+        <v>27</v>
+      </c>
+      <c r="B147" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C147" s="50">
+        <v>115</v>
+      </c>
+      <c r="D147" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E147" s="50">
+        <v>3645</v>
+      </c>
+      <c r="F147" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G147" s="47">
+        <v>6329</v>
+      </c>
+      <c r="H147" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I147" s="47">
+        <v>9689</v>
+      </c>
+      <c r="J147" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="K147" s="47">
+        <v>14451</v>
+      </c>
+      <c r="L147" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K150" s="11"/>
+      <c r="L150" s="11"/>
+      <c r="M150" s="11"/>
+    </row>
+    <row r="151" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="121" t="s">
+        <v>109</v>
+      </c>
+      <c r="B151" s="122"/>
+      <c r="C151" s="122"/>
+      <c r="D151" s="122"/>
+      <c r="E151" s="122"/>
+      <c r="F151" s="122"/>
+      <c r="G151" s="122"/>
+      <c r="H151" s="122"/>
+      <c r="I151" s="122"/>
+      <c r="J151" s="123"/>
+      <c r="K151" s="68"/>
+      <c r="L151" s="68"/>
+      <c r="M151" s="11"/>
+    </row>
+    <row r="152" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="124"/>
+      <c r="B152" s="125"/>
+      <c r="C152" s="125"/>
+      <c r="D152" s="125"/>
+      <c r="E152" s="125"/>
+      <c r="F152" s="125"/>
+      <c r="G152" s="125"/>
+      <c r="H152" s="125"/>
+      <c r="I152" s="125"/>
+      <c r="J152" s="126"/>
+      <c r="K152" s="68"/>
+      <c r="L152" s="68"/>
+      <c r="M152" s="11"/>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A153" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="B153" s="64"/>
+      <c r="C153" s="64" t="s">
+        <v>110</v>
+      </c>
+      <c r="D153" s="64"/>
+      <c r="E153" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="F153" s="64"/>
+      <c r="G153" s="64" t="s">
+        <v>112</v>
+      </c>
+      <c r="H153" s="64"/>
+      <c r="I153" s="64" t="s">
+        <v>112</v>
+      </c>
+      <c r="J153" s="64"/>
+      <c r="K153" s="11"/>
+      <c r="L153" s="11"/>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A154" s="47">
+        <v>1</v>
+      </c>
+      <c r="B154" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C154" s="47">
+        <v>18.48</v>
+      </c>
+      <c r="D154" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E154" s="47">
+        <v>9.74</v>
+      </c>
+      <c r="F154" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G154" s="47">
+        <v>5.73</v>
+      </c>
+      <c r="H154" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I154" s="47">
+        <v>5.01</v>
+      </c>
+      <c r="J154" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A155" s="47">
+        <v>2</v>
+      </c>
+      <c r="B155" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C155" s="47">
+        <v>9.52</v>
+      </c>
+      <c r="D155" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E155" s="47">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="F155" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G155" s="47">
+        <v>2.13</v>
+      </c>
+      <c r="H155" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I155" s="47">
+        <v>1.82</v>
+      </c>
+      <c r="J155" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A156" s="47">
+        <v>3</v>
+      </c>
+      <c r="B156" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C156" s="47">
+        <v>19.920000000000002</v>
+      </c>
+      <c r="D156" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E156" s="47">
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="F156" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G156" s="47">
+        <v>5.77</v>
+      </c>
+      <c r="H156" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I156" s="47">
+        <v>3.3</v>
+      </c>
+      <c r="J156" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A157" s="47">
+        <v>4</v>
+      </c>
+      <c r="B157" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C157" s="47">
+        <v>53.69</v>
+      </c>
+      <c r="D157" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E157" s="47">
+        <v>43.14</v>
+      </c>
+      <c r="F157" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G157" s="47">
+        <v>28.38</v>
+      </c>
+      <c r="H157" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I157" s="47">
+        <v>26.05</v>
+      </c>
+      <c r="J157" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A158" s="47">
+        <v>5</v>
+      </c>
+      <c r="B158" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C158" s="47">
+        <v>9.17</v>
+      </c>
+      <c r="D158" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E158" s="47">
+        <v>6.16</v>
+      </c>
+      <c r="F158" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G158" s="47">
+        <v>3.31</v>
+      </c>
+      <c r="H158" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I158" s="47">
+        <v>2.31</v>
+      </c>
+      <c r="J158" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A159" s="47">
+        <v>6</v>
+      </c>
+      <c r="B159" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C159" s="47">
+        <v>12.57</v>
+      </c>
+      <c r="D159" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E159" s="47">
+        <v>8.66</v>
+      </c>
+      <c r="F159" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G159" s="47">
+        <v>5.31</v>
+      </c>
+      <c r="H159" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I159" s="47">
+        <v>4.33</v>
+      </c>
+      <c r="J159" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A160" s="47">
+        <v>7</v>
+      </c>
+      <c r="B160" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C160" s="47">
+        <v>18.850000000000001</v>
+      </c>
+      <c r="D160" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E160" s="47">
+        <v>13.73</v>
+      </c>
+      <c r="F160" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G160" s="47">
+        <v>9.34</v>
+      </c>
+      <c r="H160" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I160" s="47">
+        <v>6.9</v>
+      </c>
+      <c r="J160" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="O160" s="11"/>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A161" s="47">
+        <v>8</v>
+      </c>
+      <c r="B161" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C161" s="47">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="D161" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E161" s="47">
+        <v>11.94</v>
+      </c>
+      <c r="F161" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G161" s="47">
+        <v>7.96</v>
+      </c>
+      <c r="H161" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I161" s="47">
+        <v>5.89</v>
+      </c>
+      <c r="J161" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A162" s="47">
+        <v>9</v>
+      </c>
+      <c r="B162" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C162" s="47">
+        <v>53.85</v>
+      </c>
+      <c r="D162" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E162" s="47">
+        <v>40.11</v>
+      </c>
+      <c r="F162" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G162" s="47">
+        <v>25.82</v>
+      </c>
+      <c r="H162" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I162" s="47">
+        <v>18.68</v>
+      </c>
+      <c r="J162" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A163" s="47">
+        <v>10</v>
+      </c>
+      <c r="B163" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C163" s="47">
+        <v>8.07</v>
+      </c>
+      <c r="D163" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E163" s="47">
+        <v>5.45</v>
+      </c>
+      <c r="F163" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G163" s="47">
+        <v>3.15</v>
+      </c>
+      <c r="H163" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I163" s="47">
+        <v>2.27</v>
+      </c>
+      <c r="J163" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="P163" s="11"/>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A164" s="47">
+        <v>11</v>
+      </c>
+      <c r="B164" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C164" s="47">
+        <v>40.93</v>
+      </c>
+      <c r="D164" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E164" s="47">
+        <v>31.37</v>
+      </c>
+      <c r="F164" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G164" s="47">
+        <v>25.9</v>
+      </c>
+      <c r="H164" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I164" s="47">
+        <v>22.08</v>
+      </c>
+      <c r="J164" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A165" s="47">
+        <v>12</v>
+      </c>
+      <c r="B165" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C165" s="47">
+        <v>36.07</v>
+      </c>
+      <c r="D165" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E165" s="47">
+        <v>24.74</v>
+      </c>
+      <c r="F165" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G165" s="47">
+        <v>17.88</v>
+      </c>
+      <c r="H165" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I165" s="47">
+        <v>13.49</v>
+      </c>
+      <c r="J165" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A166" s="47">
+        <v>13</v>
+      </c>
+      <c r="B166" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C166" s="47">
+        <v>17.11</v>
+      </c>
+      <c r="D166" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E166" s="47">
+        <v>10.79</v>
+      </c>
+      <c r="F166" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G166" s="47">
+        <v>7.56</v>
+      </c>
+      <c r="H166" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I166" s="47">
+        <v>5.94</v>
+      </c>
+      <c r="J166" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A167" s="47">
+        <v>14</v>
+      </c>
+      <c r="B167" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C167" s="47">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="D167" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E167" s="47">
+        <v>28.68</v>
+      </c>
+      <c r="F167" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G167" s="47">
+        <v>18.920000000000002</v>
+      </c>
+      <c r="H167" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I167" s="47">
+        <v>15.56</v>
+      </c>
+      <c r="J167" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A168" s="47">
+        <v>15</v>
+      </c>
+      <c r="B168" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C168" s="47">
+        <v>16.27</v>
+      </c>
+      <c r="D168" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E168" s="47">
+        <v>6.44</v>
+      </c>
+      <c r="F168" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G168" s="47">
+        <v>3.73</v>
+      </c>
+      <c r="H168" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I168" s="47">
+        <v>3.39</v>
+      </c>
+      <c r="J168" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A169" s="47">
+        <v>16</v>
+      </c>
+      <c r="B169" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C169" s="47">
+        <v>14.8</v>
+      </c>
+      <c r="D169" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E169" s="47">
+        <v>7.85</v>
+      </c>
+      <c r="F169" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G169" s="47">
+        <v>4.25</v>
+      </c>
+      <c r="H169" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I169" s="47">
+        <v>3.27</v>
+      </c>
+      <c r="J169" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A170" s="47">
+        <v>17</v>
+      </c>
+      <c r="B170" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C170" s="47">
+        <v>10.33</v>
+      </c>
+      <c r="D170" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E170" s="47">
+        <v>5.19</v>
+      </c>
+      <c r="F170" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G170" s="47">
+        <v>3.1</v>
+      </c>
+      <c r="H170" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I170" s="47">
+        <v>2.36</v>
+      </c>
+      <c r="J170" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A171" s="47">
+        <v>18</v>
+      </c>
+      <c r="B171" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C171" s="47">
+        <v>3.86</v>
+      </c>
+      <c r="D171" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E171" s="47">
+        <v>2.15</v>
+      </c>
+      <c r="F171" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G171" s="47">
+        <v>0.86</v>
+      </c>
+      <c r="H171" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I171" s="47">
+        <v>0</v>
+      </c>
+      <c r="J171" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A172" s="47">
+        <v>19</v>
+      </c>
+      <c r="B172" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C172" s="47">
+        <v>3.55</v>
+      </c>
+      <c r="D172" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E172" s="47">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F172" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G172" s="47">
+        <v>0.93</v>
+      </c>
+      <c r="H172" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I172" s="47">
+        <v>0.75</v>
+      </c>
+      <c r="J172" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A173" s="47">
+        <v>20</v>
+      </c>
+      <c r="B173" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C173" s="47">
+        <v>14.78</v>
+      </c>
+      <c r="D173" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E173" s="47">
+        <v>8.09</v>
+      </c>
+      <c r="F173" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G173" s="47">
+        <v>4.46</v>
+      </c>
+      <c r="H173" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I173" s="47">
+        <v>3.63</v>
+      </c>
+      <c r="J173" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A174" s="47">
+        <v>21</v>
+      </c>
+      <c r="B174" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C174" s="47">
+        <v>16.559999999999999</v>
+      </c>
+      <c r="D174" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E174" s="47">
+        <v>10.67</v>
+      </c>
+      <c r="F174" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G174" s="47">
+        <v>5.92</v>
+      </c>
+      <c r="H174" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I174" s="47">
+        <v>4.59</v>
+      </c>
+      <c r="J174" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A175" s="47">
+        <v>22</v>
+      </c>
+      <c r="B175" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C175" s="47">
+        <v>9.5</v>
+      </c>
+      <c r="D175" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E175" s="47">
+        <v>5.72</v>
+      </c>
+      <c r="F175" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G175" s="47">
+        <v>3.17</v>
+      </c>
+      <c r="H175" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I175" s="47">
+        <v>1.43</v>
+      </c>
+      <c r="J175" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A176" s="47">
+        <v>23</v>
+      </c>
+      <c r="B176" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C176" s="47">
+        <v>21.76</v>
+      </c>
+      <c r="D176" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E176" s="47">
+        <v>16.79</v>
+      </c>
+      <c r="F176" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G176" s="47">
+        <v>14.89</v>
+      </c>
+      <c r="H176" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I176" s="47">
+        <v>13.36</v>
+      </c>
+      <c r="J176" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A177" s="47">
+        <v>24</v>
+      </c>
+      <c r="B177" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C177" s="47">
+        <v>10.72</v>
+      </c>
+      <c r="D177" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E177" s="47">
+        <v>8.56</v>
+      </c>
+      <c r="F177" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G177" s="47">
+        <v>7.11</v>
+      </c>
+      <c r="H177" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I177" s="47">
+        <v>6.08</v>
+      </c>
+      <c r="J177" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A178" s="47">
+        <v>25</v>
+      </c>
+      <c r="B178" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C178" s="47">
+        <v>62.5</v>
+      </c>
+      <c r="D178" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E178" s="47">
+        <v>62.5</v>
+      </c>
+      <c r="F178" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G178" s="47">
+        <v>62.5</v>
+      </c>
+      <c r="H178" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I178" s="47">
+        <v>62.5</v>
+      </c>
+      <c r="J178" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A179" s="47">
+        <v>26</v>
+      </c>
+      <c r="B179" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C179" s="47">
+        <v>25.14</v>
+      </c>
+      <c r="D179" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E179" s="47">
+        <v>18.78</v>
+      </c>
+      <c r="F179" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G179" s="47">
+        <v>14.92</v>
+      </c>
+      <c r="H179" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I179" s="47">
+        <v>11.33</v>
+      </c>
+      <c r="J179" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A180" s="47">
+        <v>27</v>
+      </c>
+      <c r="B180" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C180" s="47">
+        <v>51.3</v>
+      </c>
+      <c r="D180" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E180" s="47">
+        <v>30.43</v>
+      </c>
+      <c r="F180" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G180" s="47">
+        <v>26.96</v>
+      </c>
+      <c r="H180" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I180" s="47">
+        <v>24.35</v>
+      </c>
+      <c r="J180" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A184" s="121" t="s">
+        <v>113</v>
+      </c>
+      <c r="B184" s="122"/>
+      <c r="C184" s="122"/>
+      <c r="D184" s="122"/>
+      <c r="E184" s="122"/>
+      <c r="F184" s="122"/>
+      <c r="G184" s="122"/>
+      <c r="H184" s="122"/>
+      <c r="I184" s="122"/>
+      <c r="J184" s="123"/>
+    </row>
+    <row r="185" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="124"/>
+      <c r="B185" s="125"/>
+      <c r="C185" s="125"/>
+      <c r="D185" s="125"/>
+      <c r="E185" s="125"/>
+      <c r="F185" s="125"/>
+      <c r="G185" s="125"/>
+      <c r="H185" s="125"/>
+      <c r="I185" s="125"/>
+      <c r="J185" s="126"/>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A186" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="B186" s="64"/>
+      <c r="C186" s="64" t="s">
+        <v>110</v>
+      </c>
+      <c r="D186" s="64"/>
+      <c r="E186" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="F186" s="64"/>
+      <c r="G186" s="64" t="s">
+        <v>112</v>
+      </c>
+      <c r="H186" s="64"/>
+      <c r="I186" s="64" t="s">
+        <v>112</v>
+      </c>
+      <c r="J186" s="64"/>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A187" s="47">
+        <v>1</v>
+      </c>
+      <c r="B187" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C187" s="47">
+        <v>77.510000000000005</v>
+      </c>
+      <c r="D187" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E187" s="47">
+        <v>54.44</v>
+      </c>
+      <c r="F187" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G187" s="47">
+        <v>46.85</v>
+      </c>
+      <c r="H187" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I187" s="47">
+        <v>31.38</v>
+      </c>
+      <c r="J187" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A188" s="47">
+        <v>2</v>
+      </c>
+      <c r="B188" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C188" s="47">
+        <v>82.44</v>
+      </c>
+      <c r="D188" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E188" s="47">
+        <v>58.43</v>
+      </c>
+      <c r="F188" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G188" s="47">
+        <v>41.22</v>
+      </c>
+      <c r="H188" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I188" s="47">
+        <v>25.57</v>
+      </c>
+      <c r="J188" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A189" s="47">
+        <v>3</v>
+      </c>
+      <c r="B189" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C189" s="47">
+        <v>71.150000000000006</v>
+      </c>
+      <c r="D189" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E189" s="47">
+        <v>50.14</v>
+      </c>
+      <c r="F189" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G189" s="47">
+        <v>32.69</v>
+      </c>
+      <c r="H189" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I189" s="47">
+        <v>25.41</v>
+      </c>
+      <c r="J189" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A190" s="47">
+        <v>4</v>
+      </c>
+      <c r="B190" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C190" s="47">
+        <v>98.52</v>
+      </c>
+      <c r="D190" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E190" s="47">
+        <v>90.93</v>
+      </c>
+      <c r="F190" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G190" s="47">
+        <v>87.55</v>
+      </c>
+      <c r="H190" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I190" s="47">
+        <v>86.18</v>
+      </c>
+      <c r="J190" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A191" s="47">
+        <v>5</v>
+      </c>
+      <c r="B191" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C191" s="47">
+        <v>91.55</v>
+      </c>
+      <c r="D191" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E191" s="47">
+        <v>81.06</v>
+      </c>
+      <c r="F191" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G191" s="47">
+        <v>72.8</v>
+      </c>
+      <c r="H191" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I191" s="47">
+        <v>65.27</v>
+      </c>
+      <c r="J191" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A192" s="47">
+        <v>6</v>
+      </c>
+      <c r="B192" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C192" s="47">
+        <v>91.06</v>
+      </c>
+      <c r="D192" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E192" s="47">
+        <v>84.78</v>
+      </c>
+      <c r="F192" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G192" s="47">
+        <v>75.7</v>
+      </c>
+      <c r="H192" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I192" s="47">
+        <v>65.78</v>
+      </c>
+      <c r="J192" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A193" s="47">
+        <v>7</v>
+      </c>
+      <c r="B193" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C193" s="47">
+        <v>87.73</v>
+      </c>
+      <c r="D193" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E193" s="47">
+        <v>68.319999999999993</v>
+      </c>
+      <c r="F193" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G193" s="47">
+        <v>49.96</v>
+      </c>
+      <c r="H193" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I193" s="47">
+        <v>35.99</v>
+      </c>
+      <c r="J193" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A194" s="47">
+        <v>8</v>
+      </c>
+      <c r="B194" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C194" s="47">
+        <v>97.57</v>
+      </c>
+      <c r="D194" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E194" s="47">
+        <v>96.42</v>
+      </c>
+      <c r="F194" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G194" s="47">
+        <v>77.87</v>
+      </c>
+      <c r="H194" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I194" s="47">
+        <v>65.28</v>
+      </c>
+      <c r="J194" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A195" s="47">
+        <v>9</v>
+      </c>
+      <c r="B195" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C195" s="47">
+        <v>90.66</v>
+      </c>
+      <c r="D195" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E195" s="47">
+        <v>87.91</v>
+      </c>
+      <c r="F195" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G195" s="47">
+        <v>80.77</v>
+      </c>
+      <c r="H195" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I195" s="47">
+        <v>73.63</v>
+      </c>
+      <c r="J195" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A196" s="47">
+        <v>10</v>
+      </c>
+      <c r="B196" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C196" s="47">
+        <v>66.7</v>
+      </c>
+      <c r="D196" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E196" s="47">
+        <v>48.84</v>
+      </c>
+      <c r="F196" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G196" s="47">
+        <v>32.229999999999997</v>
+      </c>
+      <c r="H196" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I196" s="47">
+        <v>26.87</v>
+      </c>
+      <c r="J196" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A197" s="47">
+        <v>11</v>
+      </c>
+      <c r="B197" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C197" s="47">
+        <v>72.680000000000007</v>
+      </c>
+      <c r="D197" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E197" s="47">
+        <v>64.48</v>
+      </c>
+      <c r="F197" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G197" s="47">
+        <v>56.56</v>
+      </c>
+      <c r="H197" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I197" s="47">
+        <v>49.78</v>
+      </c>
+      <c r="J197" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A198" s="47">
+        <v>12</v>
+      </c>
+      <c r="B198" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C198" s="47">
+        <v>70.069999999999993</v>
+      </c>
+      <c r="D198" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E198" s="47">
+        <v>59.22</v>
+      </c>
+      <c r="F198" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G198" s="47">
+        <v>47.73</v>
+      </c>
+      <c r="H198" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I198" s="47">
+        <v>37.35</v>
+      </c>
+      <c r="J198" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A199" s="47">
+        <v>13</v>
+      </c>
+      <c r="B199" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C199" s="47">
+        <v>56.61</v>
+      </c>
+      <c r="D199" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E199" s="47">
+        <v>47</v>
+      </c>
+      <c r="F199" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G199" s="47">
+        <v>40.26</v>
+      </c>
+      <c r="H199" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I199" s="47">
+        <v>33.94</v>
+      </c>
+      <c r="J199" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A200" s="47">
+        <v>14</v>
+      </c>
+      <c r="B200" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C200" s="47">
+        <v>97.73</v>
+      </c>
+      <c r="D200" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E200" s="47">
+        <v>95.04</v>
+      </c>
+      <c r="F200" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G200" s="47">
+        <v>94.2</v>
+      </c>
+      <c r="H200" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I200" s="47">
+        <v>85.95</v>
+      </c>
+      <c r="J200" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A201" s="47">
+        <v>15</v>
+      </c>
+      <c r="B201" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C201" s="47">
+        <v>97.63</v>
+      </c>
+      <c r="D201" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E201" s="47">
+        <v>95.93</v>
+      </c>
+      <c r="F201" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G201" s="47">
+        <v>94.24</v>
+      </c>
+      <c r="H201" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I201" s="47">
+        <v>64.41</v>
+      </c>
+      <c r="J201" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A202" s="47">
+        <v>16</v>
+      </c>
+      <c r="B202" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C202" s="47">
+        <v>46.03</v>
+      </c>
+      <c r="D202" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E202" s="47">
+        <v>39.33</v>
+      </c>
+      <c r="F202" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G202" s="47">
+        <v>28.21</v>
+      </c>
+      <c r="H202" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I202" s="47">
+        <v>20.69</v>
+      </c>
+      <c r="J202" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A203" s="47">
+        <v>17</v>
+      </c>
+      <c r="B203" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C203" s="47">
+        <v>72.64</v>
+      </c>
+      <c r="D203" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E203" s="47">
+        <v>51.07</v>
+      </c>
+      <c r="F203" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G203" s="47">
+        <v>37.79</v>
+      </c>
+      <c r="H203" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I203" s="47">
+        <v>30.35</v>
+      </c>
+      <c r="J203" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A204" s="47">
+        <v>18</v>
+      </c>
+      <c r="B204" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C204" s="47">
+        <v>78.11</v>
+      </c>
+      <c r="D204" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E204" s="47">
+        <v>75.540000000000006</v>
+      </c>
+      <c r="F204" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G204" s="47">
+        <v>67.81</v>
+      </c>
+      <c r="H204" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I204" s="47">
+        <v>54.08</v>
+      </c>
+      <c r="J204" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A205" s="47">
+        <v>19</v>
+      </c>
+      <c r="B205" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C205" s="47">
+        <v>93.27</v>
+      </c>
+      <c r="D205" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E205" s="47">
+        <v>91.4</v>
+      </c>
+      <c r="F205" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G205" s="47">
+        <v>88.22</v>
+      </c>
+      <c r="H205" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I205" s="47">
+        <v>80.56</v>
+      </c>
+      <c r="J205" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A206" s="47">
+        <v>20</v>
+      </c>
+      <c r="B206" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C206" s="47">
+        <v>71.13</v>
+      </c>
+      <c r="D206" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E206" s="47">
+        <v>65.97</v>
+      </c>
+      <c r="F206" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G206" s="47">
+        <v>63.6</v>
+      </c>
+      <c r="H206" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I206" s="47">
+        <v>59.83</v>
+      </c>
+      <c r="J206" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A207" s="47">
+        <v>21</v>
+      </c>
+      <c r="B207" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C207" s="47">
+        <v>77.09</v>
+      </c>
+      <c r="D207" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E207" s="47">
+        <v>54.96</v>
+      </c>
+      <c r="F207" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G207" s="47">
+        <v>41.43</v>
+      </c>
+      <c r="H207" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I207" s="47">
+        <v>32.33</v>
+      </c>
+      <c r="J207" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A208" s="47">
+        <v>22</v>
+      </c>
+      <c r="B208" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C208" s="47">
+        <v>52.71</v>
+      </c>
+      <c r="D208" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E208" s="47">
+        <v>51.48</v>
+      </c>
+      <c r="F208" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G208" s="47">
+        <v>35.14</v>
+      </c>
+      <c r="H208" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I208" s="47">
+        <v>32.07</v>
+      </c>
+      <c r="J208" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A209" s="47">
+        <v>23</v>
+      </c>
+      <c r="B209" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C209" s="47">
+        <v>98.09</v>
+      </c>
+      <c r="D209" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E209" s="47">
+        <v>90.08</v>
+      </c>
+      <c r="F209" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G209" s="47">
+        <v>86.26</v>
+      </c>
+      <c r="H209" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I209" s="47">
+        <v>69.08</v>
+      </c>
+      <c r="J209" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A210" s="47">
+        <v>24</v>
+      </c>
+      <c r="B210" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C210" s="47">
+        <v>77.63</v>
+      </c>
+      <c r="D210" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E210" s="47">
+        <v>75.88</v>
+      </c>
+      <c r="F210" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G210" s="47">
+        <v>65.569999999999993</v>
+      </c>
+      <c r="H210" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I210" s="47">
+        <v>63.81</v>
+      </c>
+      <c r="J210" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A211" s="47">
+        <v>25</v>
+      </c>
+      <c r="B211" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C211" s="47">
+        <v>100</v>
+      </c>
+      <c r="D211" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E211" s="47">
+        <v>100</v>
+      </c>
+      <c r="F211" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G211" s="47">
+        <v>100</v>
+      </c>
+      <c r="H211" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I211" s="47">
+        <v>100</v>
+      </c>
+      <c r="J211" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A212" s="47">
+        <v>26</v>
+      </c>
+      <c r="B212" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C212" s="47">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="D212" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E212" s="47">
+        <v>67.680000000000007</v>
+      </c>
+      <c r="F212" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G212" s="47">
+        <v>67.680000000000007</v>
+      </c>
+      <c r="H212" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I212" s="47">
+        <v>65.47</v>
+      </c>
+      <c r="J212" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A213" s="47">
+        <v>27</v>
+      </c>
+      <c r="B213" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C213" s="47">
+        <v>80.87</v>
+      </c>
+      <c r="D213" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E213" s="47">
+        <v>68.7</v>
+      </c>
+      <c r="F213" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G213" s="47">
+        <v>59.13</v>
+      </c>
+      <c r="H213" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I213" s="47">
+        <v>56.52</v>
+      </c>
+      <c r="J213" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A184:J185"/>
+    <mergeCell ref="A86:L87"/>
+    <mergeCell ref="A118:K119"/>
+    <mergeCell ref="A151:J152"/>
+    <mergeCell ref="A77:J78"/>
+    <mergeCell ref="A50:J51"/>
+    <mergeCell ref="A68:J69"/>
+    <mergeCell ref="A59:J60"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="A40:J41"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C19" r:id="rId1" display="https://github.com/aspnetboilerplate/aspnetboilerplate.git" xr:uid="{3BA622C2-9986-4442-8214-B0B274D6255E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/enase/results_tool_11.01.xlsx
+++ b/enase/results_tool_11.01.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C5660496-C0EF-458B-B35E-B8E5063EB0F1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
     <sheet name="Latex" sheetId="2" r:id="rId2"/>
+    <sheet name="Commits" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Results!$A$4:$A$10</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="128">
   <si>
     <t>Project</t>
   </si>
@@ -362,11 +362,53 @@
   <si>
     <t xml:space="preserve">Percentage of SD that are also LD,  when  $cs&lt; \infty$, for different threshold values for $occ$ </t>
   </si>
+  <si>
+    <t>cs&lt;=5</t>
+  </si>
+  <si>
+    <t>cs&lt;=10</t>
+  </si>
+  <si>
+    <t>cs&lt;=20</t>
+  </si>
+  <si>
+    <t>cs&lt;=inf</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>% cs&lt;=5</t>
+  </si>
+  <si>
+    <t>% cs&lt;=10</t>
+  </si>
+  <si>
+    <t>% cs&lt;=20</t>
+  </si>
+  <si>
+    <t>% cs&lt;=inf</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cs&lt;=5</t>
+  </si>
+  <si>
+    <t>diff cs&lt;=10</t>
+  </si>
+  <si>
+    <t>diff cs&lt;=20</t>
+  </si>
+  <si>
+    <t>diff cs&lt;=inf</t>
+  </si>
+  <si>
+    <t>% inf</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -472,7 +514,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -871,12 +913,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -952,52 +1018,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1009,43 +1042,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1054,7 +1054,52 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1069,44 +1114,56 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1126,6 +1183,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="7" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="7" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1187,7 +1260,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1220,26 +1293,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1272,23 +1328,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1464,11 +1503,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CZ98"/>
   <sheetViews>
-    <sheetView topLeftCell="BC31" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="BL58" sqref="BL58"/>
+    <sheetView topLeftCell="J1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="S31" sqref="S5:S31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1570,220 +1609,220 @@
       <c r="F2" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="72" t="s">
+      <c r="G2" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="74"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="71"/>
       <c r="V2" s="55"/>
-      <c r="W2" s="69" t="s">
+      <c r="W2" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="X2" s="70"/>
-      <c r="Y2" s="70"/>
-      <c r="Z2" s="70"/>
-      <c r="AA2" s="70"/>
-      <c r="AB2" s="70"/>
-      <c r="AC2" s="70"/>
-      <c r="AD2" s="70"/>
-      <c r="AE2" s="70"/>
-      <c r="AF2" s="70"/>
-      <c r="AG2" s="70"/>
-      <c r="AH2" s="70"/>
-      <c r="AI2" s="70"/>
-      <c r="AJ2" s="70"/>
-      <c r="AK2" s="70"/>
-      <c r="AL2" s="71"/>
-      <c r="AM2" s="84" t="s">
+      <c r="X2" s="69"/>
+      <c r="Y2" s="69"/>
+      <c r="Z2" s="69"/>
+      <c r="AA2" s="69"/>
+      <c r="AB2" s="69"/>
+      <c r="AC2" s="69"/>
+      <c r="AD2" s="69"/>
+      <c r="AE2" s="69"/>
+      <c r="AF2" s="69"/>
+      <c r="AG2" s="69"/>
+      <c r="AH2" s="69"/>
+      <c r="AI2" s="69"/>
+      <c r="AJ2" s="69"/>
+      <c r="AK2" s="69"/>
+      <c r="AL2" s="112"/>
+      <c r="AM2" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="AN2" s="70"/>
-      <c r="AO2" s="70"/>
-      <c r="AP2" s="70"/>
-      <c r="AQ2" s="70"/>
-      <c r="AR2" s="70"/>
-      <c r="AS2" s="70"/>
-      <c r="AT2" s="70"/>
-      <c r="AU2" s="70"/>
-      <c r="AV2" s="70"/>
-      <c r="AW2" s="70"/>
-      <c r="AX2" s="70"/>
-      <c r="AY2" s="70"/>
-      <c r="AZ2" s="70"/>
-      <c r="BA2" s="70"/>
-      <c r="BB2" s="70"/>
-      <c r="BC2" s="70" t="s">
+      <c r="AN2" s="69"/>
+      <c r="AO2" s="69"/>
+      <c r="AP2" s="69"/>
+      <c r="AQ2" s="69"/>
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="69"/>
+      <c r="AU2" s="69"/>
+      <c r="AV2" s="69"/>
+      <c r="AW2" s="69"/>
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69"/>
+      <c r="BB2" s="69"/>
+      <c r="BC2" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="BD2" s="70"/>
-      <c r="BE2" s="70"/>
-      <c r="BF2" s="70"/>
-      <c r="BG2" s="70"/>
-      <c r="BH2" s="70"/>
-      <c r="BI2" s="70"/>
-      <c r="BJ2" s="70"/>
-      <c r="BK2" s="70"/>
-      <c r="BL2" s="70"/>
-      <c r="BM2" s="70"/>
-      <c r="BN2" s="70"/>
-      <c r="BO2" s="70"/>
-      <c r="BP2" s="70"/>
-      <c r="BQ2" s="70"/>
-      <c r="BR2" s="70"/>
-      <c r="BS2" s="70" t="s">
+      <c r="BD2" s="69"/>
+      <c r="BE2" s="69"/>
+      <c r="BF2" s="69"/>
+      <c r="BG2" s="69"/>
+      <c r="BH2" s="69"/>
+      <c r="BI2" s="69"/>
+      <c r="BJ2" s="69"/>
+      <c r="BK2" s="69"/>
+      <c r="BL2" s="69"/>
+      <c r="BM2" s="69"/>
+      <c r="BN2" s="69"/>
+      <c r="BO2" s="69"/>
+      <c r="BP2" s="69"/>
+      <c r="BQ2" s="69"/>
+      <c r="BR2" s="69"/>
+      <c r="BS2" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="BT2" s="70"/>
-      <c r="BU2" s="70"/>
-      <c r="BV2" s="70"/>
-      <c r="BW2" s="70"/>
-      <c r="BX2" s="70"/>
-      <c r="BY2" s="70"/>
-      <c r="BZ2" s="70"/>
-      <c r="CA2" s="70"/>
-      <c r="CB2" s="70"/>
-      <c r="CC2" s="70"/>
-      <c r="CD2" s="70"/>
-      <c r="CE2" s="70"/>
-      <c r="CF2" s="70"/>
-      <c r="CG2" s="70"/>
-      <c r="CH2" s="70"/>
+      <c r="BT2" s="69"/>
+      <c r="BU2" s="69"/>
+      <c r="BV2" s="69"/>
+      <c r="BW2" s="69"/>
+      <c r="BX2" s="69"/>
+      <c r="BY2" s="69"/>
+      <c r="BZ2" s="69"/>
+      <c r="CA2" s="69"/>
+      <c r="CB2" s="69"/>
+      <c r="CC2" s="69"/>
+      <c r="CD2" s="69"/>
+      <c r="CE2" s="69"/>
+      <c r="CF2" s="69"/>
+      <c r="CG2" s="69"/>
+      <c r="CH2" s="69"/>
       <c r="CI2" s="25"/>
     </row>
     <row r="3" spans="1:104" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F3" s="21"/>
-      <c r="G3" s="76" t="s">
+      <c r="G3" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="74" t="s">
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="75" t="s">
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
+      <c r="P3" s="116"/>
+      <c r="Q3" s="116"/>
       <c r="R3" s="35"/>
-      <c r="S3" s="80" t="s">
+      <c r="S3" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="T3" s="81"/>
-      <c r="U3" s="81"/>
-      <c r="V3" s="82"/>
-      <c r="W3" s="97" t="s">
+      <c r="T3" s="78"/>
+      <c r="U3" s="78"/>
+      <c r="V3" s="101"/>
+      <c r="W3" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="X3" s="98"/>
-      <c r="Y3" s="98"/>
-      <c r="Z3" s="99"/>
-      <c r="AA3" s="91" t="s">
+      <c r="X3" s="82"/>
+      <c r="Y3" s="82"/>
+      <c r="Z3" s="103"/>
+      <c r="AA3" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="AB3" s="92"/>
-      <c r="AC3" s="92"/>
-      <c r="AD3" s="93"/>
-      <c r="AE3" s="94" t="s">
+      <c r="AB3" s="85"/>
+      <c r="AC3" s="85"/>
+      <c r="AD3" s="105"/>
+      <c r="AE3" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="AF3" s="95"/>
-      <c r="AG3" s="95"/>
-      <c r="AH3" s="96"/>
-      <c r="AI3" s="89" t="s">
+      <c r="AF3" s="88"/>
+      <c r="AG3" s="88"/>
+      <c r="AH3" s="106"/>
+      <c r="AI3" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="AJ3" s="90"/>
-      <c r="AK3" s="90"/>
-      <c r="AL3" s="90"/>
-      <c r="AM3" s="100" t="s">
+      <c r="AJ3" s="108"/>
+      <c r="AK3" s="108"/>
+      <c r="AL3" s="108"/>
+      <c r="AM3" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="AN3" s="101"/>
-      <c r="AO3" s="101"/>
-      <c r="AP3" s="102"/>
-      <c r="AQ3" s="74" t="s">
+      <c r="AN3" s="79"/>
+      <c r="AO3" s="79"/>
+      <c r="AP3" s="80"/>
+      <c r="AQ3" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="AR3" s="79"/>
-      <c r="AS3" s="79"/>
-      <c r="AT3" s="72"/>
-      <c r="AU3" s="85" t="s">
+      <c r="AR3" s="72"/>
+      <c r="AS3" s="72"/>
+      <c r="AT3" s="73"/>
+      <c r="AU3" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="AV3" s="86"/>
-      <c r="AW3" s="86"/>
-      <c r="AX3" s="87"/>
-      <c r="AY3" s="80" t="s">
+      <c r="AV3" s="75"/>
+      <c r="AW3" s="75"/>
+      <c r="AX3" s="76"/>
+      <c r="AY3" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="AZ3" s="81"/>
-      <c r="BA3" s="81"/>
-      <c r="BB3" s="81"/>
-      <c r="BC3" s="101" t="s">
+      <c r="AZ3" s="78"/>
+      <c r="BA3" s="78"/>
+      <c r="BB3" s="78"/>
+      <c r="BC3" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="BD3" s="101"/>
-      <c r="BE3" s="101"/>
-      <c r="BF3" s="102"/>
-      <c r="BG3" s="74" t="s">
+      <c r="BD3" s="79"/>
+      <c r="BE3" s="79"/>
+      <c r="BF3" s="80"/>
+      <c r="BG3" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="BH3" s="79"/>
-      <c r="BI3" s="79"/>
-      <c r="BJ3" s="72"/>
-      <c r="BK3" s="85" t="s">
+      <c r="BH3" s="72"/>
+      <c r="BI3" s="72"/>
+      <c r="BJ3" s="73"/>
+      <c r="BK3" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="BL3" s="86"/>
-      <c r="BM3" s="86"/>
-      <c r="BN3" s="87"/>
-      <c r="BO3" s="80" t="s">
+      <c r="BL3" s="75"/>
+      <c r="BM3" s="75"/>
+      <c r="BN3" s="76"/>
+      <c r="BO3" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="BP3" s="81"/>
-      <c r="BQ3" s="81"/>
-      <c r="BR3" s="81"/>
-      <c r="BS3" s="101" t="s">
+      <c r="BP3" s="78"/>
+      <c r="BQ3" s="78"/>
+      <c r="BR3" s="78"/>
+      <c r="BS3" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="BT3" s="101"/>
-      <c r="BU3" s="101"/>
-      <c r="BV3" s="102"/>
-      <c r="BW3" s="74" t="s">
+      <c r="BT3" s="79"/>
+      <c r="BU3" s="79"/>
+      <c r="BV3" s="80"/>
+      <c r="BW3" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="BX3" s="79"/>
-      <c r="BY3" s="79"/>
-      <c r="BZ3" s="72"/>
-      <c r="CA3" s="85" t="s">
+      <c r="BX3" s="72"/>
+      <c r="BY3" s="72"/>
+      <c r="BZ3" s="73"/>
+      <c r="CA3" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="CB3" s="86"/>
-      <c r="CC3" s="86"/>
-      <c r="CD3" s="87"/>
-      <c r="CE3" s="80" t="s">
+      <c r="CB3" s="75"/>
+      <c r="CC3" s="75"/>
+      <c r="CD3" s="76"/>
+      <c r="CE3" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="CF3" s="81"/>
-      <c r="CG3" s="81"/>
-      <c r="CH3" s="88"/>
+      <c r="CF3" s="78"/>
+      <c r="CG3" s="78"/>
+      <c r="CH3" s="113"/>
       <c r="CI3" s="25"/>
     </row>
     <row r="4" spans="1:104" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -11532,96 +11571,96 @@
       <c r="F38" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="G38" s="72" t="s">
+      <c r="G38" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="H38" s="73"/>
-      <c r="I38" s="73"/>
-      <c r="J38" s="73"/>
-      <c r="K38" s="73"/>
-      <c r="L38" s="73"/>
-      <c r="M38" s="73"/>
-      <c r="N38" s="73"/>
-      <c r="O38" s="73"/>
-      <c r="P38" s="73"/>
-      <c r="Q38" s="73"/>
-      <c r="R38" s="73"/>
-      <c r="S38" s="73"/>
-      <c r="T38" s="73"/>
-      <c r="U38" s="74"/>
+      <c r="H38" s="110"/>
+      <c r="I38" s="110"/>
+      <c r="J38" s="110"/>
+      <c r="K38" s="110"/>
+      <c r="L38" s="110"/>
+      <c r="M38" s="110"/>
+      <c r="N38" s="110"/>
+      <c r="O38" s="110"/>
+      <c r="P38" s="110"/>
+      <c r="Q38" s="110"/>
+      <c r="R38" s="110"/>
+      <c r="S38" s="110"/>
+      <c r="T38" s="110"/>
+      <c r="U38" s="71"/>
       <c r="V38" s="55"/>
-      <c r="W38" s="74" t="s">
+      <c r="W38" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="X38" s="79"/>
-      <c r="Y38" s="79"/>
-      <c r="Z38" s="79"/>
-      <c r="AA38" s="79"/>
-      <c r="AB38" s="79"/>
-      <c r="AC38" s="79"/>
-      <c r="AD38" s="79"/>
-      <c r="AE38" s="79"/>
-      <c r="AF38" s="79"/>
-      <c r="AG38" s="79"/>
-      <c r="AH38" s="79"/>
-      <c r="AI38" s="79"/>
-      <c r="AJ38" s="79"/>
-      <c r="AK38" s="79"/>
-      <c r="AL38" s="72"/>
-      <c r="AM38" s="83" t="s">
+      <c r="X38" s="72"/>
+      <c r="Y38" s="72"/>
+      <c r="Z38" s="72"/>
+      <c r="AA38" s="72"/>
+      <c r="AB38" s="72"/>
+      <c r="AC38" s="72"/>
+      <c r="AD38" s="72"/>
+      <c r="AE38" s="72"/>
+      <c r="AF38" s="72"/>
+      <c r="AG38" s="72"/>
+      <c r="AH38" s="72"/>
+      <c r="AI38" s="72"/>
+      <c r="AJ38" s="72"/>
+      <c r="AK38" s="72"/>
+      <c r="AL38" s="73"/>
+      <c r="AM38" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="AN38" s="70"/>
-      <c r="AO38" s="70"/>
-      <c r="AP38" s="70"/>
-      <c r="AQ38" s="70"/>
-      <c r="AR38" s="70"/>
-      <c r="AS38" s="70"/>
-      <c r="AT38" s="70"/>
-      <c r="AU38" s="70"/>
-      <c r="AV38" s="70"/>
-      <c r="AW38" s="70"/>
-      <c r="AX38" s="70"/>
-      <c r="AY38" s="70"/>
-      <c r="AZ38" s="70"/>
-      <c r="BA38" s="70"/>
-      <c r="BB38" s="71"/>
-      <c r="BC38" s="84" t="s">
+      <c r="AN38" s="69"/>
+      <c r="AO38" s="69"/>
+      <c r="AP38" s="69"/>
+      <c r="AQ38" s="69"/>
+      <c r="AR38" s="69"/>
+      <c r="AS38" s="69"/>
+      <c r="AT38" s="69"/>
+      <c r="AU38" s="69"/>
+      <c r="AV38" s="69"/>
+      <c r="AW38" s="69"/>
+      <c r="AX38" s="69"/>
+      <c r="AY38" s="69"/>
+      <c r="AZ38" s="69"/>
+      <c r="BA38" s="69"/>
+      <c r="BB38" s="112"/>
+      <c r="BC38" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="BD38" s="70"/>
-      <c r="BE38" s="70"/>
-      <c r="BF38" s="70"/>
-      <c r="BG38" s="70"/>
-      <c r="BH38" s="70"/>
-      <c r="BI38" s="70"/>
-      <c r="BJ38" s="70"/>
-      <c r="BK38" s="70"/>
-      <c r="BL38" s="70"/>
-      <c r="BM38" s="70"/>
-      <c r="BN38" s="70"/>
-      <c r="BO38" s="70"/>
-      <c r="BP38" s="70"/>
-      <c r="BQ38" s="70"/>
-      <c r="BR38" s="71"/>
-      <c r="BS38" s="84" t="s">
+      <c r="BD38" s="69"/>
+      <c r="BE38" s="69"/>
+      <c r="BF38" s="69"/>
+      <c r="BG38" s="69"/>
+      <c r="BH38" s="69"/>
+      <c r="BI38" s="69"/>
+      <c r="BJ38" s="69"/>
+      <c r="BK38" s="69"/>
+      <c r="BL38" s="69"/>
+      <c r="BM38" s="69"/>
+      <c r="BN38" s="69"/>
+      <c r="BO38" s="69"/>
+      <c r="BP38" s="69"/>
+      <c r="BQ38" s="69"/>
+      <c r="BR38" s="112"/>
+      <c r="BS38" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="BT38" s="70"/>
-      <c r="BU38" s="70"/>
-      <c r="BV38" s="70"/>
-      <c r="BW38" s="70"/>
-      <c r="BX38" s="70"/>
-      <c r="BY38" s="70"/>
-      <c r="BZ38" s="70"/>
-      <c r="CA38" s="70"/>
-      <c r="CB38" s="70"/>
-      <c r="CC38" s="70"/>
-      <c r="CD38" s="70"/>
-      <c r="CE38" s="70"/>
-      <c r="CF38" s="70"/>
-      <c r="CG38" s="70"/>
-      <c r="CH38" s="71"/>
+      <c r="BT38" s="69"/>
+      <c r="BU38" s="69"/>
+      <c r="BV38" s="69"/>
+      <c r="BW38" s="69"/>
+      <c r="BX38" s="69"/>
+      <c r="BY38" s="69"/>
+      <c r="BZ38" s="69"/>
+      <c r="CA38" s="69"/>
+      <c r="CB38" s="69"/>
+      <c r="CC38" s="69"/>
+      <c r="CD38" s="69"/>
+      <c r="CE38" s="69"/>
+      <c r="CF38" s="69"/>
+      <c r="CG38" s="69"/>
+      <c r="CH38" s="112"/>
       <c r="CI38" s="25"/>
       <c r="CJ38" s="27"/>
       <c r="CK38" s="27"/>
@@ -11644,126 +11683,126 @@
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
       <c r="F39" s="21"/>
-      <c r="G39" s="107" t="s">
+      <c r="G39" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="H39" s="101"/>
-      <c r="I39" s="101"/>
-      <c r="J39" s="102"/>
-      <c r="K39" s="74" t="s">
+      <c r="H39" s="79"/>
+      <c r="I39" s="79"/>
+      <c r="J39" s="80"/>
+      <c r="K39" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="L39" s="79"/>
-      <c r="M39" s="79"/>
-      <c r="N39" s="72"/>
-      <c r="O39" s="85" t="s">
+      <c r="L39" s="72"/>
+      <c r="M39" s="72"/>
+      <c r="N39" s="73"/>
+      <c r="O39" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="P39" s="86"/>
-      <c r="Q39" s="86"/>
-      <c r="R39" s="87"/>
-      <c r="S39" s="80" t="s">
+      <c r="P39" s="75"/>
+      <c r="Q39" s="75"/>
+      <c r="R39" s="76"/>
+      <c r="S39" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="T39" s="81"/>
-      <c r="U39" s="81"/>
-      <c r="V39" s="82"/>
-      <c r="W39" s="97" t="s">
+      <c r="T39" s="78"/>
+      <c r="U39" s="78"/>
+      <c r="V39" s="101"/>
+      <c r="W39" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="X39" s="98"/>
-      <c r="Y39" s="98"/>
-      <c r="Z39" s="99"/>
-      <c r="AA39" s="91" t="s">
+      <c r="X39" s="82"/>
+      <c r="Y39" s="82"/>
+      <c r="Z39" s="103"/>
+      <c r="AA39" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="AB39" s="92"/>
-      <c r="AC39" s="92"/>
-      <c r="AD39" s="93"/>
-      <c r="AE39" s="94" t="s">
+      <c r="AB39" s="85"/>
+      <c r="AC39" s="85"/>
+      <c r="AD39" s="105"/>
+      <c r="AE39" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="AF39" s="95"/>
-      <c r="AG39" s="95"/>
-      <c r="AH39" s="96"/>
-      <c r="AI39" s="89" t="s">
+      <c r="AF39" s="88"/>
+      <c r="AG39" s="88"/>
+      <c r="AH39" s="106"/>
+      <c r="AI39" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="AJ39" s="90"/>
-      <c r="AK39" s="90"/>
-      <c r="AL39" s="108"/>
-      <c r="AM39" s="103" t="s">
+      <c r="AJ39" s="108"/>
+      <c r="AK39" s="108"/>
+      <c r="AL39" s="109"/>
+      <c r="AM39" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="AN39" s="77"/>
-      <c r="AO39" s="77"/>
-      <c r="AP39" s="78"/>
-      <c r="AQ39" s="104" t="s">
+      <c r="AN39" s="95"/>
+      <c r="AO39" s="95"/>
+      <c r="AP39" s="96"/>
+      <c r="AQ39" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="AR39" s="105"/>
-      <c r="AS39" s="105"/>
-      <c r="AT39" s="106"/>
-      <c r="AU39" s="94" t="s">
+      <c r="AR39" s="98"/>
+      <c r="AS39" s="98"/>
+      <c r="AT39" s="99"/>
+      <c r="AU39" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="AV39" s="95"/>
-      <c r="AW39" s="95"/>
-      <c r="AX39" s="110"/>
-      <c r="AY39" s="115" t="s">
+      <c r="AV39" s="88"/>
+      <c r="AW39" s="88"/>
+      <c r="AX39" s="89"/>
+      <c r="AY39" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="AZ39" s="116"/>
-      <c r="BA39" s="116"/>
-      <c r="BB39" s="117"/>
-      <c r="BC39" s="113" t="s">
+      <c r="AZ39" s="91"/>
+      <c r="BA39" s="91"/>
+      <c r="BB39" s="92"/>
+      <c r="BC39" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="BD39" s="98"/>
-      <c r="BE39" s="98"/>
-      <c r="BF39" s="114"/>
-      <c r="BG39" s="111" t="s">
+      <c r="BD39" s="82"/>
+      <c r="BE39" s="82"/>
+      <c r="BF39" s="83"/>
+      <c r="BG39" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="BH39" s="92"/>
-      <c r="BI39" s="92"/>
-      <c r="BJ39" s="112"/>
-      <c r="BK39" s="109" t="s">
+      <c r="BH39" s="85"/>
+      <c r="BI39" s="85"/>
+      <c r="BJ39" s="86"/>
+      <c r="BK39" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="BL39" s="95"/>
-      <c r="BM39" s="95"/>
-      <c r="BN39" s="110"/>
-      <c r="BO39" s="115" t="s">
+      <c r="BL39" s="88"/>
+      <c r="BM39" s="88"/>
+      <c r="BN39" s="89"/>
+      <c r="BO39" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="BP39" s="116"/>
-      <c r="BQ39" s="116"/>
-      <c r="BR39" s="117"/>
-      <c r="BS39" s="113" t="s">
+      <c r="BP39" s="91"/>
+      <c r="BQ39" s="91"/>
+      <c r="BR39" s="92"/>
+      <c r="BS39" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="BT39" s="98"/>
-      <c r="BU39" s="98"/>
-      <c r="BV39" s="114"/>
-      <c r="BW39" s="111" t="s">
+      <c r="BT39" s="82"/>
+      <c r="BU39" s="82"/>
+      <c r="BV39" s="83"/>
+      <c r="BW39" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="BX39" s="92"/>
-      <c r="BY39" s="92"/>
-      <c r="BZ39" s="112"/>
-      <c r="CA39" s="109" t="s">
+      <c r="BX39" s="85"/>
+      <c r="BY39" s="85"/>
+      <c r="BZ39" s="86"/>
+      <c r="CA39" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="CB39" s="95"/>
-      <c r="CC39" s="95"/>
-      <c r="CD39" s="110"/>
-      <c r="CE39" s="115" t="s">
+      <c r="CB39" s="88"/>
+      <c r="CC39" s="88"/>
+      <c r="CD39" s="89"/>
+      <c r="CE39" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="CF39" s="116"/>
-      <c r="CG39" s="116"/>
-      <c r="CH39" s="117"/>
+      <c r="CF39" s="91"/>
+      <c r="CG39" s="91"/>
+      <c r="CH39" s="92"/>
       <c r="CI39" s="25"/>
       <c r="CJ39" s="14"/>
     </row>
@@ -22031,6 +22070,44 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="W2:AL2"/>
+    <mergeCell ref="G2:U2"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="G38:U38"/>
+    <mergeCell ref="AM38:BB38"/>
+    <mergeCell ref="BC38:BR38"/>
+    <mergeCell ref="BS38:CH38"/>
+    <mergeCell ref="CA3:CD3"/>
+    <mergeCell ref="CE3:CH3"/>
+    <mergeCell ref="AI3:AL3"/>
+    <mergeCell ref="W38:AL38"/>
+    <mergeCell ref="AA3:AD3"/>
+    <mergeCell ref="AE3:AH3"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="AM3:AP3"/>
+    <mergeCell ref="AM39:AP39"/>
+    <mergeCell ref="AQ39:AT39"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="O39:R39"/>
+    <mergeCell ref="S39:V39"/>
+    <mergeCell ref="W39:Z39"/>
+    <mergeCell ref="AA39:AD39"/>
+    <mergeCell ref="AE39:AH39"/>
+    <mergeCell ref="AI39:AL39"/>
+    <mergeCell ref="BK39:BN39"/>
+    <mergeCell ref="BG39:BJ39"/>
+    <mergeCell ref="BC39:BF39"/>
+    <mergeCell ref="AY39:BB39"/>
+    <mergeCell ref="AU39:AX39"/>
+    <mergeCell ref="BS39:BV39"/>
+    <mergeCell ref="BW39:BZ39"/>
+    <mergeCell ref="CA39:CD39"/>
+    <mergeCell ref="CE39:CH39"/>
+    <mergeCell ref="BO39:BR39"/>
     <mergeCell ref="BS2:CH2"/>
     <mergeCell ref="BC2:BR2"/>
     <mergeCell ref="AM2:BB2"/>
@@ -22043,70 +22120,32 @@
     <mergeCell ref="BO3:BR3"/>
     <mergeCell ref="BS3:BV3"/>
     <mergeCell ref="BW3:BZ3"/>
-    <mergeCell ref="BS39:BV39"/>
-    <mergeCell ref="BW39:BZ39"/>
-    <mergeCell ref="CA39:CD39"/>
-    <mergeCell ref="CE39:CH39"/>
-    <mergeCell ref="BO39:BR39"/>
-    <mergeCell ref="BK39:BN39"/>
-    <mergeCell ref="BG39:BJ39"/>
-    <mergeCell ref="BC39:BF39"/>
-    <mergeCell ref="AY39:BB39"/>
-    <mergeCell ref="AU39:AX39"/>
-    <mergeCell ref="AM39:AP39"/>
-    <mergeCell ref="AQ39:AT39"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="O39:R39"/>
-    <mergeCell ref="S39:V39"/>
-    <mergeCell ref="W39:Z39"/>
-    <mergeCell ref="AA39:AD39"/>
-    <mergeCell ref="AE39:AH39"/>
-    <mergeCell ref="AI39:AL39"/>
-    <mergeCell ref="G38:U38"/>
-    <mergeCell ref="AM38:BB38"/>
-    <mergeCell ref="BC38:BR38"/>
-    <mergeCell ref="BS38:CH38"/>
-    <mergeCell ref="CA3:CD3"/>
-    <mergeCell ref="CE3:CH3"/>
-    <mergeCell ref="AI3:AL3"/>
-    <mergeCell ref="W38:AL38"/>
-    <mergeCell ref="AA3:AD3"/>
-    <mergeCell ref="AE3:AH3"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="AM3:AP3"/>
-    <mergeCell ref="W2:AL2"/>
-    <mergeCell ref="G2:U2"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="S3:V3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="CJ5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="CJ7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="CJ8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="CJ9" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="CJ11" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="CJ10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="CJ19" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="CJ23" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="CJ20" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B20" r:id="rId10" display="https://github.com/aspnetboilerplate/aspnetboilerplate.git" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="CJ21" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="CJ22" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="CJ41" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="CJ43" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="CJ44" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="CJ45" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="CJ47" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="CJ46" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="CJ55" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="CJ59" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="CJ56" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="B56" r:id="rId22" display="https://github.com/aspnetboilerplate/aspnetboilerplate.git" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="CJ57" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="CJ58" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="CJ5" r:id="rId1"/>
+    <hyperlink ref="CJ7" r:id="rId2"/>
+    <hyperlink ref="CJ8" r:id="rId3"/>
+    <hyperlink ref="CJ9" r:id="rId4"/>
+    <hyperlink ref="CJ11" r:id="rId5"/>
+    <hyperlink ref="CJ10" r:id="rId6"/>
+    <hyperlink ref="CJ19" r:id="rId7"/>
+    <hyperlink ref="CJ23" r:id="rId8"/>
+    <hyperlink ref="CJ20" r:id="rId9"/>
+    <hyperlink ref="B20" r:id="rId10" display="https://github.com/aspnetboilerplate/aspnetboilerplate.git"/>
+    <hyperlink ref="CJ21" r:id="rId11"/>
+    <hyperlink ref="CJ22" r:id="rId12"/>
+    <hyperlink ref="CJ41" r:id="rId13"/>
+    <hyperlink ref="CJ43" r:id="rId14"/>
+    <hyperlink ref="CJ44" r:id="rId15"/>
+    <hyperlink ref="CJ45" r:id="rId16"/>
+    <hyperlink ref="CJ47" r:id="rId17"/>
+    <hyperlink ref="CJ46" r:id="rId18"/>
+    <hyperlink ref="CJ55" r:id="rId19"/>
+    <hyperlink ref="CJ59" r:id="rId20"/>
+    <hyperlink ref="CJ56" r:id="rId21"/>
+    <hyperlink ref="B56" r:id="rId22" display="https://github.com/aspnetboilerplate/aspnetboilerplate.git"/>
+    <hyperlink ref="CJ57" r:id="rId23"/>
+    <hyperlink ref="CJ58" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId25"/>
@@ -22114,10 +22153,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
+    <sheetView topLeftCell="A203" workbookViewId="0">
       <selection activeCell="J219" sqref="J219"/>
     </sheetView>
   </sheetViews>
@@ -22135,18 +22174,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="126" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
@@ -23033,18 +23072,18 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="118" t="s">
+      <c r="A33" s="125" t="s">
         <v>96</v>
       </c>
-      <c r="B33" s="118"/>
-      <c r="C33" s="118"/>
-      <c r="D33" s="118"/>
-      <c r="E33" s="118"/>
-      <c r="F33" s="118"/>
-      <c r="G33" s="118"/>
-      <c r="H33" s="118"/>
-      <c r="I33" s="118"/>
-      <c r="J33" s="118"/>
+      <c r="B33" s="125"/>
+      <c r="C33" s="125"/>
+      <c r="D33" s="125"/>
+      <c r="E33" s="125"/>
+      <c r="F33" s="125"/>
+      <c r="G33" s="125"/>
+      <c r="H33" s="125"/>
+      <c r="I33" s="125"/>
+      <c r="J33" s="125"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="63"/>
@@ -23197,30 +23236,30 @@
     </row>
     <row r="39" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="120" t="s">
+      <c r="A40" s="124" t="s">
         <v>102</v>
       </c>
-      <c r="B40" s="120"/>
-      <c r="C40" s="120"/>
-      <c r="D40" s="120"/>
-      <c r="E40" s="120"/>
-      <c r="F40" s="120"/>
-      <c r="G40" s="120"/>
-      <c r="H40" s="120"/>
-      <c r="I40" s="120"/>
-      <c r="J40" s="120"/>
+      <c r="B40" s="124"/>
+      <c r="C40" s="124"/>
+      <c r="D40" s="124"/>
+      <c r="E40" s="124"/>
+      <c r="F40" s="124"/>
+      <c r="G40" s="124"/>
+      <c r="H40" s="124"/>
+      <c r="I40" s="124"/>
+      <c r="J40" s="124"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="120"/>
-      <c r="B41" s="120"/>
-      <c r="C41" s="120"/>
-      <c r="D41" s="120"/>
-      <c r="E41" s="120"/>
-      <c r="F41" s="120"/>
-      <c r="G41" s="120"/>
-      <c r="H41" s="120"/>
-      <c r="I41" s="120"/>
-      <c r="J41" s="120"/>
+      <c r="A41" s="124"/>
+      <c r="B41" s="124"/>
+      <c r="C41" s="124"/>
+      <c r="D41" s="124"/>
+      <c r="E41" s="124"/>
+      <c r="F41" s="124"/>
+      <c r="G41" s="124"/>
+      <c r="H41" s="124"/>
+      <c r="I41" s="124"/>
+      <c r="J41" s="124"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="63"/>
@@ -23371,30 +23410,30 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="118" t="s">
+      <c r="A50" s="125" t="s">
         <v>103</v>
       </c>
-      <c r="B50" s="118"/>
-      <c r="C50" s="118"/>
-      <c r="D50" s="118"/>
-      <c r="E50" s="118"/>
-      <c r="F50" s="118"/>
-      <c r="G50" s="118"/>
-      <c r="H50" s="118"/>
-      <c r="I50" s="118"/>
-      <c r="J50" s="118"/>
+      <c r="B50" s="125"/>
+      <c r="C50" s="125"/>
+      <c r="D50" s="125"/>
+      <c r="E50" s="125"/>
+      <c r="F50" s="125"/>
+      <c r="G50" s="125"/>
+      <c r="H50" s="125"/>
+      <c r="I50" s="125"/>
+      <c r="J50" s="125"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="118"/>
-      <c r="B51" s="118"/>
-      <c r="C51" s="118"/>
-      <c r="D51" s="118"/>
-      <c r="E51" s="118"/>
-      <c r="F51" s="118"/>
-      <c r="G51" s="118"/>
-      <c r="H51" s="118"/>
-      <c r="I51" s="118"/>
-      <c r="J51" s="118"/>
+      <c r="A51" s="125"/>
+      <c r="B51" s="125"/>
+      <c r="C51" s="125"/>
+      <c r="D51" s="125"/>
+      <c r="E51" s="125"/>
+      <c r="F51" s="125"/>
+      <c r="G51" s="125"/>
+      <c r="H51" s="125"/>
+      <c r="I51" s="125"/>
+      <c r="J51" s="125"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="63"/>
@@ -23545,30 +23584,30 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="118" t="s">
+      <c r="A59" s="125" t="s">
         <v>106</v>
       </c>
-      <c r="B59" s="118"/>
-      <c r="C59" s="118"/>
-      <c r="D59" s="118"/>
-      <c r="E59" s="118"/>
-      <c r="F59" s="118"/>
-      <c r="G59" s="118"/>
-      <c r="H59" s="118"/>
-      <c r="I59" s="118"/>
-      <c r="J59" s="118"/>
+      <c r="B59" s="125"/>
+      <c r="C59" s="125"/>
+      <c r="D59" s="125"/>
+      <c r="E59" s="125"/>
+      <c r="F59" s="125"/>
+      <c r="G59" s="125"/>
+      <c r="H59" s="125"/>
+      <c r="I59" s="125"/>
+      <c r="J59" s="125"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="118"/>
-      <c r="B60" s="118"/>
-      <c r="C60" s="118"/>
-      <c r="D60" s="118"/>
-      <c r="E60" s="118"/>
-      <c r="F60" s="118"/>
-      <c r="G60" s="118"/>
-      <c r="H60" s="118"/>
-      <c r="I60" s="118"/>
-      <c r="J60" s="118"/>
+      <c r="A60" s="125"/>
+      <c r="B60" s="125"/>
+      <c r="C60" s="125"/>
+      <c r="D60" s="125"/>
+      <c r="E60" s="125"/>
+      <c r="F60" s="125"/>
+      <c r="G60" s="125"/>
+      <c r="H60" s="125"/>
+      <c r="I60" s="125"/>
+      <c r="J60" s="125"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="63"/>
@@ -23719,30 +23758,30 @@
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="118" t="s">
+      <c r="A68" s="125" t="s">
         <v>104</v>
       </c>
-      <c r="B68" s="118"/>
-      <c r="C68" s="118"/>
-      <c r="D68" s="118"/>
-      <c r="E68" s="118"/>
-      <c r="F68" s="118"/>
-      <c r="G68" s="118"/>
-      <c r="H68" s="118"/>
-      <c r="I68" s="118"/>
-      <c r="J68" s="118"/>
+      <c r="B68" s="125"/>
+      <c r="C68" s="125"/>
+      <c r="D68" s="125"/>
+      <c r="E68" s="125"/>
+      <c r="F68" s="125"/>
+      <c r="G68" s="125"/>
+      <c r="H68" s="125"/>
+      <c r="I68" s="125"/>
+      <c r="J68" s="125"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="118"/>
-      <c r="B69" s="118"/>
-      <c r="C69" s="118"/>
-      <c r="D69" s="118"/>
-      <c r="E69" s="118"/>
-      <c r="F69" s="118"/>
-      <c r="G69" s="118"/>
-      <c r="H69" s="118"/>
-      <c r="I69" s="118"/>
-      <c r="J69" s="118"/>
+      <c r="A69" s="125"/>
+      <c r="B69" s="125"/>
+      <c r="C69" s="125"/>
+      <c r="D69" s="125"/>
+      <c r="E69" s="125"/>
+      <c r="F69" s="125"/>
+      <c r="G69" s="125"/>
+      <c r="H69" s="125"/>
+      <c r="I69" s="125"/>
+      <c r="J69" s="125"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="63"/>
@@ -23893,30 +23932,30 @@
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="118" t="s">
+      <c r="A77" s="125" t="s">
         <v>105</v>
       </c>
-      <c r="B77" s="118"/>
-      <c r="C77" s="118"/>
-      <c r="D77" s="118"/>
-      <c r="E77" s="118"/>
-      <c r="F77" s="118"/>
-      <c r="G77" s="118"/>
-      <c r="H77" s="118"/>
-      <c r="I77" s="118"/>
-      <c r="J77" s="118"/>
+      <c r="B77" s="125"/>
+      <c r="C77" s="125"/>
+      <c r="D77" s="125"/>
+      <c r="E77" s="125"/>
+      <c r="F77" s="125"/>
+      <c r="G77" s="125"/>
+      <c r="H77" s="125"/>
+      <c r="I77" s="125"/>
+      <c r="J77" s="125"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="118"/>
-      <c r="B78" s="118"/>
-      <c r="C78" s="118"/>
-      <c r="D78" s="118"/>
-      <c r="E78" s="118"/>
-      <c r="F78" s="118"/>
-      <c r="G78" s="118"/>
-      <c r="H78" s="118"/>
-      <c r="I78" s="118"/>
-      <c r="J78" s="118"/>
+      <c r="A78" s="125"/>
+      <c r="B78" s="125"/>
+      <c r="C78" s="125"/>
+      <c r="D78" s="125"/>
+      <c r="E78" s="125"/>
+      <c r="F78" s="125"/>
+      <c r="G78" s="125"/>
+      <c r="H78" s="125"/>
+      <c r="I78" s="125"/>
+      <c r="J78" s="125"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="63"/>
@@ -24067,34 +24106,34 @@
       </c>
     </row>
     <row r="86" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="120" t="s">
+      <c r="A86" s="124" t="s">
         <v>107</v>
       </c>
-      <c r="B86" s="120"/>
-      <c r="C86" s="120"/>
-      <c r="D86" s="120"/>
-      <c r="E86" s="120"/>
-      <c r="F86" s="120"/>
-      <c r="G86" s="120"/>
-      <c r="H86" s="120"/>
-      <c r="I86" s="120"/>
-      <c r="J86" s="120"/>
-      <c r="K86" s="120"/>
-      <c r="L86" s="120"/>
+      <c r="B86" s="124"/>
+      <c r="C86" s="124"/>
+      <c r="D86" s="124"/>
+      <c r="E86" s="124"/>
+      <c r="F86" s="124"/>
+      <c r="G86" s="124"/>
+      <c r="H86" s="124"/>
+      <c r="I86" s="124"/>
+      <c r="J86" s="124"/>
+      <c r="K86" s="124"/>
+      <c r="L86" s="124"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="120"/>
-      <c r="B87" s="120"/>
-      <c r="C87" s="120"/>
-      <c r="D87" s="120"/>
-      <c r="E87" s="120"/>
-      <c r="F87" s="120"/>
-      <c r="G87" s="120"/>
-      <c r="H87" s="120"/>
-      <c r="I87" s="120"/>
-      <c r="J87" s="120"/>
-      <c r="K87" s="120"/>
-      <c r="L87" s="120"/>
+      <c r="A87" s="124"/>
+      <c r="B87" s="124"/>
+      <c r="C87" s="124"/>
+      <c r="D87" s="124"/>
+      <c r="E87" s="124"/>
+      <c r="F87" s="124"/>
+      <c r="G87" s="124"/>
+      <c r="H87" s="124"/>
+      <c r="I87" s="124"/>
+      <c r="J87" s="124"/>
+      <c r="K87" s="124"/>
+      <c r="L87" s="124"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="64" t="s">
@@ -25149,32 +25188,32 @@
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" s="120" t="s">
+      <c r="A118" s="124" t="s">
         <v>108</v>
       </c>
-      <c r="B118" s="120"/>
-      <c r="C118" s="120"/>
-      <c r="D118" s="120"/>
-      <c r="E118" s="120"/>
-      <c r="F118" s="120"/>
-      <c r="G118" s="120"/>
-      <c r="H118" s="120"/>
-      <c r="I118" s="120"/>
-      <c r="J118" s="120"/>
-      <c r="K118" s="120"/>
+      <c r="B118" s="124"/>
+      <c r="C118" s="124"/>
+      <c r="D118" s="124"/>
+      <c r="E118" s="124"/>
+      <c r="F118" s="124"/>
+      <c r="G118" s="124"/>
+      <c r="H118" s="124"/>
+      <c r="I118" s="124"/>
+      <c r="J118" s="124"/>
+      <c r="K118" s="124"/>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A119" s="120"/>
-      <c r="B119" s="120"/>
-      <c r="C119" s="120"/>
-      <c r="D119" s="120"/>
-      <c r="E119" s="120"/>
-      <c r="F119" s="120"/>
-      <c r="G119" s="120"/>
-      <c r="H119" s="120"/>
-      <c r="I119" s="120"/>
-      <c r="J119" s="120"/>
-      <c r="K119" s="120"/>
+      <c r="A119" s="124"/>
+      <c r="B119" s="124"/>
+      <c r="C119" s="124"/>
+      <c r="D119" s="124"/>
+      <c r="E119" s="124"/>
+      <c r="F119" s="124"/>
+      <c r="G119" s="124"/>
+      <c r="H119" s="124"/>
+      <c r="I119" s="124"/>
+      <c r="J119" s="124"/>
+      <c r="K119" s="124"/>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="64" t="s">
@@ -26234,33 +26273,33 @@
       <c r="M150" s="11"/>
     </row>
     <row r="151" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="121" t="s">
+      <c r="A151" s="118" t="s">
         <v>109</v>
       </c>
-      <c r="B151" s="122"/>
-      <c r="C151" s="122"/>
-      <c r="D151" s="122"/>
-      <c r="E151" s="122"/>
-      <c r="F151" s="122"/>
-      <c r="G151" s="122"/>
-      <c r="H151" s="122"/>
-      <c r="I151" s="122"/>
-      <c r="J151" s="123"/>
+      <c r="B151" s="119"/>
+      <c r="C151" s="119"/>
+      <c r="D151" s="119"/>
+      <c r="E151" s="119"/>
+      <c r="F151" s="119"/>
+      <c r="G151" s="119"/>
+      <c r="H151" s="119"/>
+      <c r="I151" s="119"/>
+      <c r="J151" s="120"/>
       <c r="K151" s="68"/>
       <c r="L151" s="68"/>
       <c r="M151" s="11"/>
     </row>
     <row r="152" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="124"/>
-      <c r="B152" s="125"/>
-      <c r="C152" s="125"/>
-      <c r="D152" s="125"/>
-      <c r="E152" s="125"/>
-      <c r="F152" s="125"/>
-      <c r="G152" s="125"/>
-      <c r="H152" s="125"/>
-      <c r="I152" s="125"/>
-      <c r="J152" s="126"/>
+      <c r="A152" s="121"/>
+      <c r="B152" s="122"/>
+      <c r="C152" s="122"/>
+      <c r="D152" s="122"/>
+      <c r="E152" s="122"/>
+      <c r="F152" s="122"/>
+      <c r="G152" s="122"/>
+      <c r="H152" s="122"/>
+      <c r="I152" s="122"/>
+      <c r="J152" s="123"/>
       <c r="K152" s="68"/>
       <c r="L152" s="68"/>
       <c r="M152" s="11"/>
@@ -27157,30 +27196,30 @@
     </row>
     <row r="183" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A184" s="121" t="s">
+      <c r="A184" s="118" t="s">
         <v>113</v>
       </c>
-      <c r="B184" s="122"/>
-      <c r="C184" s="122"/>
-      <c r="D184" s="122"/>
-      <c r="E184" s="122"/>
-      <c r="F184" s="122"/>
-      <c r="G184" s="122"/>
-      <c r="H184" s="122"/>
-      <c r="I184" s="122"/>
-      <c r="J184" s="123"/>
+      <c r="B184" s="119"/>
+      <c r="C184" s="119"/>
+      <c r="D184" s="119"/>
+      <c r="E184" s="119"/>
+      <c r="F184" s="119"/>
+      <c r="G184" s="119"/>
+      <c r="H184" s="119"/>
+      <c r="I184" s="119"/>
+      <c r="J184" s="120"/>
     </row>
     <row r="185" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="124"/>
-      <c r="B185" s="125"/>
-      <c r="C185" s="125"/>
-      <c r="D185" s="125"/>
-      <c r="E185" s="125"/>
-      <c r="F185" s="125"/>
-      <c r="G185" s="125"/>
-      <c r="H185" s="125"/>
-      <c r="I185" s="125"/>
-      <c r="J185" s="126"/>
+      <c r="A185" s="121"/>
+      <c r="B185" s="122"/>
+      <c r="C185" s="122"/>
+      <c r="D185" s="122"/>
+      <c r="E185" s="122"/>
+      <c r="F185" s="122"/>
+      <c r="G185" s="122"/>
+      <c r="H185" s="122"/>
+      <c r="I185" s="122"/>
+      <c r="J185" s="123"/>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="64" t="s">
@@ -28070,22 +28109,2954 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A184:J185"/>
-    <mergeCell ref="A86:L87"/>
-    <mergeCell ref="A118:K119"/>
-    <mergeCell ref="A151:J152"/>
-    <mergeCell ref="A77:J78"/>
     <mergeCell ref="A50:J51"/>
     <mergeCell ref="A68:J69"/>
     <mergeCell ref="A59:J60"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A33:J33"/>
     <mergeCell ref="A40:J41"/>
+    <mergeCell ref="A184:J185"/>
+    <mergeCell ref="A86:L87"/>
+    <mergeCell ref="A118:K119"/>
+    <mergeCell ref="A151:J152"/>
+    <mergeCell ref="A77:J78"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C19" r:id="rId1" display="https://github.com/aspnetboilerplate/aspnetboilerplate.git" xr:uid="{3BA622C2-9986-4442-8214-B0B274D6255E}"/>
+    <hyperlink ref="C19" r:id="rId1" display="https://github.com/aspnetboilerplate/aspnetboilerplate.git"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:P63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="127">
+        <v>894</v>
+      </c>
+      <c r="D4" s="129">
+        <v>738</v>
+      </c>
+      <c r="E4" s="129">
+        <v>97</v>
+      </c>
+      <c r="F4" s="129">
+        <v>37</v>
+      </c>
+      <c r="G4" s="130">
+        <v>22</v>
+      </c>
+      <c r="H4" s="131">
+        <v>4.9004474272930603</v>
+      </c>
+      <c r="I4" s="129">
+        <f>D4*100/C4</f>
+        <v>82.550335570469798</v>
+      </c>
+      <c r="J4" s="129">
+        <f>E4*100/C4</f>
+        <v>10.850111856823267</v>
+      </c>
+      <c r="K4" s="129">
+        <f>F4*100/C4</f>
+        <v>4.1387024608501122</v>
+      </c>
+      <c r="L4" s="130">
+        <f>G4*100/C4</f>
+        <v>2.4608501118568231</v>
+      </c>
+      <c r="M4">
+        <f>I4+J4+K4+L4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="128">
+        <v>818</v>
+      </c>
+      <c r="D5" s="129">
+        <v>584</v>
+      </c>
+      <c r="E5" s="129">
+        <v>107</v>
+      </c>
+      <c r="F5" s="129">
+        <v>64</v>
+      </c>
+      <c r="G5" s="132">
+        <v>63</v>
+      </c>
+      <c r="H5" s="133">
+        <v>8.9706601466992595</v>
+      </c>
+      <c r="I5" s="129">
+        <f t="shared" ref="I5:I30" si="0">D5*100/C5</f>
+        <v>71.393643031784848</v>
+      </c>
+      <c r="J5" s="129">
+        <f t="shared" ref="J5:J30" si="1">E5*100/C5</f>
+        <v>13.080684596577017</v>
+      </c>
+      <c r="K5" s="129">
+        <f t="shared" ref="K5:K30" si="2">F5*100/C5</f>
+        <v>7.8239608801955987</v>
+      </c>
+      <c r="L5" s="132">
+        <f t="shared" ref="L5:L30" si="3">G5*100/C5</f>
+        <v>7.7017114914425431</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5:M30" si="4">I5+J5+K5+L5</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="49">
+        <v>893</v>
+      </c>
+      <c r="D6" s="129">
+        <v>660</v>
+      </c>
+      <c r="E6" s="129">
+        <v>119</v>
+      </c>
+      <c r="F6" s="129">
+        <v>56</v>
+      </c>
+      <c r="G6" s="132">
+        <v>58</v>
+      </c>
+      <c r="H6" s="133">
+        <v>9.2284434490481502</v>
+      </c>
+      <c r="I6" s="129">
+        <f>D6*100/C6</f>
+        <v>73.908174692049272</v>
+      </c>
+      <c r="J6" s="129">
+        <f>E6*100/C6</f>
+        <v>13.325867861142218</v>
+      </c>
+      <c r="K6" s="129">
+        <f>F6*100/C6</f>
+        <v>6.2709966405375139</v>
+      </c>
+      <c r="L6" s="132">
+        <f>G6*100/C6</f>
+        <v>6.4949608062709965</v>
+      </c>
+      <c r="M6">
+        <f>I6+J6+K6+L6</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="49">
+        <v>1188</v>
+      </c>
+      <c r="D7" s="129">
+        <v>1004</v>
+      </c>
+      <c r="E7" s="129">
+        <v>101</v>
+      </c>
+      <c r="F7" s="129">
+        <v>37</v>
+      </c>
+      <c r="G7" s="132">
+        <v>46</v>
+      </c>
+      <c r="H7" s="133">
+        <v>7.6843434343434298</v>
+      </c>
+      <c r="I7" s="129">
+        <f t="shared" si="0"/>
+        <v>84.511784511784512</v>
+      </c>
+      <c r="J7" s="129">
+        <f t="shared" si="1"/>
+        <v>8.5016835016835017</v>
+      </c>
+      <c r="K7" s="129">
+        <f t="shared" si="2"/>
+        <v>3.1144781144781146</v>
+      </c>
+      <c r="L7" s="132">
+        <f t="shared" si="3"/>
+        <v>3.872053872053872</v>
+      </c>
+      <c r="M7">
+        <f>I7+J7+K7+L7</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="49">
+        <v>2468</v>
+      </c>
+      <c r="D8" s="129">
+        <v>1856</v>
+      </c>
+      <c r="E8" s="129">
+        <v>278</v>
+      </c>
+      <c r="F8" s="129">
+        <v>146</v>
+      </c>
+      <c r="G8" s="132">
+        <v>188</v>
+      </c>
+      <c r="H8" s="133">
+        <v>11.4043760129659</v>
+      </c>
+      <c r="I8" s="129">
+        <f t="shared" si="0"/>
+        <v>75.202593192868719</v>
+      </c>
+      <c r="J8" s="129">
+        <f t="shared" si="1"/>
+        <v>11.26418152350081</v>
+      </c>
+      <c r="K8" s="129">
+        <f t="shared" si="2"/>
+        <v>5.9157212317666126</v>
+      </c>
+      <c r="L8" s="132">
+        <f t="shared" si="3"/>
+        <v>7.6175040518638575</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="49">
+        <v>2222</v>
+      </c>
+      <c r="D9" s="129">
+        <v>1951</v>
+      </c>
+      <c r="E9" s="129">
+        <v>141</v>
+      </c>
+      <c r="F9" s="129">
+        <v>57</v>
+      </c>
+      <c r="G9" s="132">
+        <v>73</v>
+      </c>
+      <c r="H9" s="133">
+        <v>8.9045904590459006</v>
+      </c>
+      <c r="I9" s="129">
+        <f t="shared" si="0"/>
+        <v>87.8037803780378</v>
+      </c>
+      <c r="J9" s="129">
+        <f t="shared" si="1"/>
+        <v>6.345634563456346</v>
+      </c>
+      <c r="K9" s="129">
+        <f t="shared" si="2"/>
+        <v>2.5652565256525652</v>
+      </c>
+      <c r="L9" s="132">
+        <f t="shared" si="3"/>
+        <v>3.2853285328532853</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="49">
+        <v>1572</v>
+      </c>
+      <c r="D10" s="129">
+        <v>1229</v>
+      </c>
+      <c r="E10" s="129">
+        <v>188</v>
+      </c>
+      <c r="F10" s="129">
+        <v>90</v>
+      </c>
+      <c r="G10" s="132">
+        <v>65</v>
+      </c>
+      <c r="H10" s="133">
+        <v>6.4268447837150102</v>
+      </c>
+      <c r="I10" s="129">
+        <f t="shared" si="0"/>
+        <v>78.180661577608149</v>
+      </c>
+      <c r="J10" s="129">
+        <f t="shared" si="1"/>
+        <v>11.959287531806616</v>
+      </c>
+      <c r="K10" s="129">
+        <f t="shared" si="2"/>
+        <v>5.7251908396946565</v>
+      </c>
+      <c r="L10" s="132">
+        <f t="shared" si="3"/>
+        <v>4.1348600508905848</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="4"/>
+        <v>100.00000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="49">
+        <v>3122</v>
+      </c>
+      <c r="D11" s="129">
+        <v>2486</v>
+      </c>
+      <c r="E11" s="129">
+        <v>302</v>
+      </c>
+      <c r="F11" s="129">
+        <v>180</v>
+      </c>
+      <c r="G11" s="132">
+        <v>154</v>
+      </c>
+      <c r="H11" s="133">
+        <v>6.91287636130685</v>
+      </c>
+      <c r="I11" s="129">
+        <f t="shared" si="0"/>
+        <v>79.628443305573356</v>
+      </c>
+      <c r="J11" s="129">
+        <f t="shared" si="1"/>
+        <v>9.6732863549007053</v>
+      </c>
+      <c r="K11" s="129">
+        <f t="shared" si="2"/>
+        <v>5.7655349135169764</v>
+      </c>
+      <c r="L11" s="132">
+        <f t="shared" si="3"/>
+        <v>4.9327354260089686</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="4"/>
+        <v>100.00000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="49">
+        <v>1483</v>
+      </c>
+      <c r="D12" s="129">
+        <v>1243</v>
+      </c>
+      <c r="E12" s="129">
+        <v>142</v>
+      </c>
+      <c r="F12" s="129">
+        <v>62</v>
+      </c>
+      <c r="G12" s="132">
+        <v>36</v>
+      </c>
+      <c r="H12" s="133">
+        <v>4.3304113283883998</v>
+      </c>
+      <c r="I12" s="129">
+        <f t="shared" si="0"/>
+        <v>83.816587997302761</v>
+      </c>
+      <c r="J12" s="129">
+        <f t="shared" si="1"/>
+        <v>9.5751854349291978</v>
+      </c>
+      <c r="K12" s="129">
+        <f t="shared" si="2"/>
+        <v>4.1807147673634528</v>
+      </c>
+      <c r="L12" s="132">
+        <f t="shared" si="3"/>
+        <v>2.4275118004045853</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="49">
+        <v>3749</v>
+      </c>
+      <c r="D13" s="129">
+        <v>3096</v>
+      </c>
+      <c r="E13" s="129">
+        <v>362</v>
+      </c>
+      <c r="F13" s="129">
+        <v>199</v>
+      </c>
+      <c r="G13" s="132">
+        <v>92</v>
+      </c>
+      <c r="H13" s="133">
+        <v>3.8271539077087202</v>
+      </c>
+      <c r="I13" s="129">
+        <f t="shared" si="0"/>
+        <v>82.58202187249934</v>
+      </c>
+      <c r="J13" s="129">
+        <f t="shared" si="1"/>
+        <v>9.6559082421979188</v>
+      </c>
+      <c r="K13" s="129">
+        <f t="shared" si="2"/>
+        <v>5.3080821552413981</v>
+      </c>
+      <c r="L13" s="132">
+        <f t="shared" si="3"/>
+        <v>2.4539877300613497</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="B14" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="49">
+        <v>5029</v>
+      </c>
+      <c r="D14" s="129">
+        <v>4172</v>
+      </c>
+      <c r="E14" s="129">
+        <v>430</v>
+      </c>
+      <c r="F14" s="129">
+        <v>246</v>
+      </c>
+      <c r="G14" s="132">
+        <v>181</v>
+      </c>
+      <c r="H14" s="133">
+        <v>4.5062636707098802</v>
+      </c>
+      <c r="I14" s="129">
+        <f t="shared" si="0"/>
+        <v>82.95883873533505</v>
+      </c>
+      <c r="J14" s="129">
+        <f t="shared" si="1"/>
+        <v>8.5504076357128653</v>
+      </c>
+      <c r="K14" s="129">
+        <f t="shared" si="2"/>
+        <v>4.8916285543845692</v>
+      </c>
+      <c r="L14" s="132">
+        <f t="shared" si="3"/>
+        <v>3.5991250745675085</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="4"/>
+        <v>99.999999999999986</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="49">
+        <v>5101</v>
+      </c>
+      <c r="D15" s="129">
+        <v>4473</v>
+      </c>
+      <c r="E15" s="129">
+        <v>434</v>
+      </c>
+      <c r="F15" s="129">
+        <v>151</v>
+      </c>
+      <c r="G15" s="132">
+        <v>43</v>
+      </c>
+      <c r="H15" s="133">
+        <v>2.89002156439913</v>
+      </c>
+      <c r="I15" s="129">
+        <f t="shared" si="0"/>
+        <v>87.688688492452457</v>
+      </c>
+      <c r="J15" s="129">
+        <f t="shared" si="1"/>
+        <v>8.5081356596745739</v>
+      </c>
+      <c r="K15" s="129">
+        <f t="shared" si="2"/>
+        <v>2.9602038815918448</v>
+      </c>
+      <c r="L15" s="132">
+        <f t="shared" si="3"/>
+        <v>0.84297196628112137</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="4"/>
+        <v>100.00000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>13</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="49">
+        <v>3499</v>
+      </c>
+      <c r="D16" s="129">
+        <v>2841</v>
+      </c>
+      <c r="E16" s="129">
+        <v>288</v>
+      </c>
+      <c r="F16" s="129">
+        <v>194</v>
+      </c>
+      <c r="G16" s="132">
+        <v>176</v>
+      </c>
+      <c r="H16" s="133">
+        <v>6.4172620748785301</v>
+      </c>
+      <c r="I16" s="129">
+        <f t="shared" si="0"/>
+        <v>81.194627036296083</v>
+      </c>
+      <c r="J16" s="129">
+        <f t="shared" si="1"/>
+        <v>8.2309231208916831</v>
+      </c>
+      <c r="K16" s="129">
+        <f t="shared" si="2"/>
+        <v>5.5444412689339808</v>
+      </c>
+      <c r="L16" s="132">
+        <f t="shared" si="3"/>
+        <v>5.0300085738782512</v>
+      </c>
+      <c r="M16">
+        <f>I16+J16+K16+L16</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>14</v>
+      </c>
+      <c r="B17" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="49">
+        <v>3668</v>
+      </c>
+      <c r="D17" s="129">
+        <v>3547</v>
+      </c>
+      <c r="E17" s="129">
+        <v>71</v>
+      </c>
+      <c r="F17" s="129">
+        <v>26</v>
+      </c>
+      <c r="G17" s="132">
+        <v>24</v>
+      </c>
+      <c r="H17" s="133">
+        <v>2.8691384950926899</v>
+      </c>
+      <c r="I17" s="129">
+        <f t="shared" si="0"/>
+        <v>96.701199563794987</v>
+      </c>
+      <c r="J17" s="129">
+        <f t="shared" si="1"/>
+        <v>1.9356597600872409</v>
+      </c>
+      <c r="K17" s="129">
+        <f t="shared" si="2"/>
+        <v>0.70883315158124316</v>
+      </c>
+      <c r="L17" s="132">
+        <f t="shared" si="3"/>
+        <v>0.65430752453653218</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="4"/>
+        <v>100.00000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>15</v>
+      </c>
+      <c r="B18" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="49">
+        <v>2488</v>
+      </c>
+      <c r="D18" s="129">
+        <v>2221</v>
+      </c>
+      <c r="E18" s="129">
+        <v>177</v>
+      </c>
+      <c r="F18" s="129">
+        <v>54</v>
+      </c>
+      <c r="G18" s="132">
+        <v>36</v>
+      </c>
+      <c r="H18" s="133">
+        <v>4.0064308681672003</v>
+      </c>
+      <c r="I18" s="129">
+        <f t="shared" si="0"/>
+        <v>89.268488745980704</v>
+      </c>
+      <c r="J18" s="129">
+        <f t="shared" si="1"/>
+        <v>7.114147909967846</v>
+      </c>
+      <c r="K18" s="129">
+        <f t="shared" si="2"/>
+        <v>2.170418006430868</v>
+      </c>
+      <c r="L18" s="132">
+        <f t="shared" si="3"/>
+        <v>1.4469453376205788</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="4"/>
+        <v>99.999999999999986</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>16</v>
+      </c>
+      <c r="B19" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="49">
+        <v>1615</v>
+      </c>
+      <c r="D19" s="129">
+        <v>1248</v>
+      </c>
+      <c r="E19" s="129">
+        <v>206</v>
+      </c>
+      <c r="F19" s="129">
+        <v>89</v>
+      </c>
+      <c r="G19" s="132">
+        <v>72</v>
+      </c>
+      <c r="H19" s="133">
+        <v>6.2291021671826599</v>
+      </c>
+      <c r="I19" s="129">
+        <f t="shared" si="0"/>
+        <v>77.275541795665632</v>
+      </c>
+      <c r="J19" s="129">
+        <f t="shared" si="1"/>
+        <v>12.755417956656347</v>
+      </c>
+      <c r="K19" s="129">
+        <f t="shared" si="2"/>
+        <v>5.5108359133126932</v>
+      </c>
+      <c r="L19" s="132">
+        <f t="shared" si="3"/>
+        <v>4.458204334365325</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="4"/>
+        <v>99.999999999999986</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>17</v>
+      </c>
+      <c r="B20" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="49">
+        <v>3353</v>
+      </c>
+      <c r="D20" s="129">
+        <v>2357</v>
+      </c>
+      <c r="E20" s="129">
+        <v>420</v>
+      </c>
+      <c r="F20" s="129">
+        <v>318</v>
+      </c>
+      <c r="G20" s="132">
+        <v>258</v>
+      </c>
+      <c r="H20" s="133">
+        <v>8.80584551148225</v>
+      </c>
+      <c r="I20" s="129">
+        <f t="shared" si="0"/>
+        <v>70.295257977930206</v>
+      </c>
+      <c r="J20" s="129">
+        <f t="shared" si="1"/>
+        <v>12.526096033402922</v>
+      </c>
+      <c r="K20" s="129">
+        <f t="shared" si="2"/>
+        <v>9.4840441395764987</v>
+      </c>
+      <c r="L20" s="132">
+        <f t="shared" si="3"/>
+        <v>7.6946018490903665</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="4"/>
+        <v>99.999999999999986</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>18</v>
+      </c>
+      <c r="B21" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="49">
+        <v>2397</v>
+      </c>
+      <c r="D21" s="129">
+        <v>1772</v>
+      </c>
+      <c r="E21" s="129">
+        <v>294</v>
+      </c>
+      <c r="F21" s="129">
+        <v>159</v>
+      </c>
+      <c r="G21" s="132">
+        <v>172</v>
+      </c>
+      <c r="H21" s="133">
+        <v>7.9194826866916896</v>
+      </c>
+      <c r="I21" s="129">
+        <f t="shared" si="0"/>
+        <v>73.92574050896954</v>
+      </c>
+      <c r="J21" s="129">
+        <f t="shared" si="1"/>
+        <v>12.265331664580726</v>
+      </c>
+      <c r="K21" s="129">
+        <f t="shared" si="2"/>
+        <v>6.6332916145181473</v>
+      </c>
+      <c r="L21" s="132">
+        <f t="shared" si="3"/>
+        <v>7.1756362119315815</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="4"/>
+        <v>99.999999999999986</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>19</v>
+      </c>
+      <c r="B22" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="49">
+        <v>1853</v>
+      </c>
+      <c r="D22" s="129">
+        <v>1297</v>
+      </c>
+      <c r="E22" s="129">
+        <v>267</v>
+      </c>
+      <c r="F22" s="129">
+        <v>128</v>
+      </c>
+      <c r="G22" s="132">
+        <v>161</v>
+      </c>
+      <c r="H22" s="133">
+        <v>11.663248785752801</v>
+      </c>
+      <c r="I22" s="129">
+        <f t="shared" si="0"/>
+        <v>69.994603345925526</v>
+      </c>
+      <c r="J22" s="129">
+        <f t="shared" si="1"/>
+        <v>14.409066378845116</v>
+      </c>
+      <c r="K22" s="129">
+        <f t="shared" si="2"/>
+        <v>6.9077172153264979</v>
+      </c>
+      <c r="L22" s="132">
+        <f t="shared" si="3"/>
+        <v>8.6886130599028597</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>20</v>
+      </c>
+      <c r="B23" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="49">
+        <v>2445</v>
+      </c>
+      <c r="D23" s="129">
+        <v>1682</v>
+      </c>
+      <c r="E23" s="129">
+        <v>247</v>
+      </c>
+      <c r="F23" s="129">
+        <v>182</v>
+      </c>
+      <c r="G23" s="132">
+        <v>334</v>
+      </c>
+      <c r="H23" s="133">
+        <v>14.147648261758601</v>
+      </c>
+      <c r="I23" s="129">
+        <f t="shared" si="0"/>
+        <v>68.793456032719831</v>
+      </c>
+      <c r="J23" s="129">
+        <f t="shared" si="1"/>
+        <v>10.102249488752555</v>
+      </c>
+      <c r="K23" s="129">
+        <f t="shared" si="2"/>
+        <v>7.443762781186094</v>
+      </c>
+      <c r="L23" s="132">
+        <f t="shared" si="3"/>
+        <v>13.660531697341513</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>21</v>
+      </c>
+      <c r="B24" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="49">
+        <v>2410</v>
+      </c>
+      <c r="D24" s="129">
+        <v>1462</v>
+      </c>
+      <c r="E24" s="129">
+        <v>425</v>
+      </c>
+      <c r="F24" s="129">
+        <v>242</v>
+      </c>
+      <c r="G24" s="132">
+        <v>281</v>
+      </c>
+      <c r="H24" s="133">
+        <v>10.3207468879668</v>
+      </c>
+      <c r="I24" s="129">
+        <f t="shared" si="0"/>
+        <v>60.663900414937757</v>
+      </c>
+      <c r="J24" s="129">
+        <f t="shared" si="1"/>
+        <v>17.634854771784234</v>
+      </c>
+      <c r="K24" s="129">
+        <f t="shared" si="2"/>
+        <v>10.04149377593361</v>
+      </c>
+      <c r="L24" s="132">
+        <f t="shared" si="3"/>
+        <v>11.659751037344398</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>22</v>
+      </c>
+      <c r="B25" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="49">
+        <v>4037</v>
+      </c>
+      <c r="D25" s="129">
+        <v>2986</v>
+      </c>
+      <c r="E25" s="129">
+        <v>510</v>
+      </c>
+      <c r="F25" s="129">
+        <v>280</v>
+      </c>
+      <c r="G25" s="132">
+        <v>261</v>
+      </c>
+      <c r="H25" s="133">
+        <v>6.7436215011146796</v>
+      </c>
+      <c r="I25" s="129">
+        <f t="shared" si="0"/>
+        <v>73.965816200148623</v>
+      </c>
+      <c r="J25" s="129">
+        <f t="shared" si="1"/>
+        <v>12.633143423334159</v>
+      </c>
+      <c r="K25" s="129">
+        <f t="shared" si="2"/>
+        <v>6.9358434481050288</v>
+      </c>
+      <c r="L25" s="132">
+        <f t="shared" si="3"/>
+        <v>6.4651969284121868</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>23</v>
+      </c>
+      <c r="B26" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="49">
+        <v>2033</v>
+      </c>
+      <c r="D26" s="129">
+        <v>1690</v>
+      </c>
+      <c r="E26" s="129">
+        <v>135</v>
+      </c>
+      <c r="F26" s="129">
+        <v>85</v>
+      </c>
+      <c r="G26" s="132">
+        <v>123</v>
+      </c>
+      <c r="H26" s="133">
+        <v>7.7053615346778104</v>
+      </c>
+      <c r="I26" s="129">
+        <f t="shared" si="0"/>
+        <v>83.128381701918343</v>
+      </c>
+      <c r="J26" s="129">
+        <f>E26*100/C26</f>
+        <v>6.640432857845548</v>
+      </c>
+      <c r="K26" s="129">
+        <f t="shared" si="2"/>
+        <v>4.1810132808657157</v>
+      </c>
+      <c r="L26" s="132">
+        <f t="shared" si="3"/>
+        <v>6.0501721593703888</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>24</v>
+      </c>
+      <c r="B27" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="49">
+        <v>2723</v>
+      </c>
+      <c r="D27" s="129">
+        <v>2163</v>
+      </c>
+      <c r="E27" s="129">
+        <v>233</v>
+      </c>
+      <c r="F27" s="129">
+        <v>154</v>
+      </c>
+      <c r="G27" s="132">
+        <v>173</v>
+      </c>
+      <c r="H27" s="133">
+        <v>8.1917003305178095</v>
+      </c>
+      <c r="I27" s="129">
+        <f t="shared" si="0"/>
+        <v>79.434447300771211</v>
+      </c>
+      <c r="J27" s="129">
+        <f t="shared" si="1"/>
+        <v>8.5567388909291218</v>
+      </c>
+      <c r="K27" s="129">
+        <f t="shared" si="2"/>
+        <v>5.6555269922879177</v>
+      </c>
+      <c r="L27" s="132">
+        <f t="shared" si="3"/>
+        <v>6.3532868160117522</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>25</v>
+      </c>
+      <c r="B28" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="49">
+        <v>2181</v>
+      </c>
+      <c r="D28" s="129">
+        <v>2062</v>
+      </c>
+      <c r="E28" s="129">
+        <v>79</v>
+      </c>
+      <c r="F28" s="129">
+        <v>24</v>
+      </c>
+      <c r="G28" s="132">
+        <v>16</v>
+      </c>
+      <c r="H28" s="133">
+        <v>2.1618523613021501</v>
+      </c>
+      <c r="I28" s="129">
+        <f t="shared" si="0"/>
+        <v>94.543787253553418</v>
+      </c>
+      <c r="J28" s="129">
+        <f t="shared" si="1"/>
+        <v>3.622191655204035</v>
+      </c>
+      <c r="K28" s="129">
+        <f t="shared" si="2"/>
+        <v>1.1004126547455295</v>
+      </c>
+      <c r="L28" s="132">
+        <f t="shared" si="3"/>
+        <v>0.73360843649701968</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>26</v>
+      </c>
+      <c r="B29" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="49">
+        <v>4417</v>
+      </c>
+      <c r="D29" s="129">
+        <v>3366</v>
+      </c>
+      <c r="E29" s="129">
+        <v>430</v>
+      </c>
+      <c r="F29" s="129">
+        <v>258</v>
+      </c>
+      <c r="G29" s="132">
+        <v>363</v>
+      </c>
+      <c r="H29" s="133">
+        <v>8.1643649535884002</v>
+      </c>
+      <c r="I29" s="129">
+        <f t="shared" si="0"/>
+        <v>76.205569390989353</v>
+      </c>
+      <c r="J29" s="129">
+        <f t="shared" si="1"/>
+        <v>9.7351143309938877</v>
+      </c>
+      <c r="K29" s="129">
+        <f t="shared" si="2"/>
+        <v>5.8410685985963324</v>
+      </c>
+      <c r="L29" s="132">
+        <f t="shared" si="3"/>
+        <v>8.2182476794204202</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>27</v>
+      </c>
+      <c r="B30" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="49">
+        <v>3882</v>
+      </c>
+      <c r="D30" s="129">
+        <v>3345</v>
+      </c>
+      <c r="E30" s="129">
+        <v>331</v>
+      </c>
+      <c r="F30" s="129">
+        <v>160</v>
+      </c>
+      <c r="G30" s="132">
+        <v>46</v>
+      </c>
+      <c r="H30" s="133">
+        <v>3.1664090674909802</v>
+      </c>
+      <c r="I30" s="129">
+        <f t="shared" si="0"/>
+        <v>86.166924265842354</v>
+      </c>
+      <c r="J30" s="129">
+        <f t="shared" si="1"/>
+        <v>8.5265327150953123</v>
+      </c>
+      <c r="K30" s="129">
+        <f t="shared" si="2"/>
+        <v>4.1215868109222047</v>
+      </c>
+      <c r="L30" s="132">
+        <f t="shared" si="3"/>
+        <v>1.1849562081401339</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="4"/>
+        <v>100.00000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I31">
+        <f>AVERAGE(I4:I30)</f>
+        <v>79.695677588637395</v>
+      </c>
+      <c r="J31">
+        <f t="shared" ref="J31:L31" si="5">AVERAGE(J4:J30)</f>
+        <v>9.9251213229916964</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="5"/>
+        <v>5.220028171022066</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="5"/>
+        <v>5.1591729173488439</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="15"/>
+      <c r="B36" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="H36" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="I36" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="J36" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="K36" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="L36" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="M36" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="N36" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="O36" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="P36" s="15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>1</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="127">
+        <v>894</v>
+      </c>
+      <c r="D37" s="13">
+        <v>9016</v>
+      </c>
+      <c r="E37" s="6">
+        <v>11441</v>
+      </c>
+      <c r="F37" s="6">
+        <v>15079</v>
+      </c>
+      <c r="G37" s="128">
+        <v>89274</v>
+      </c>
+      <c r="H37" s="13">
+        <v>9016</v>
+      </c>
+      <c r="I37" s="129">
+        <f>E37-D37</f>
+        <v>2425</v>
+      </c>
+      <c r="J37" s="129">
+        <f>F37-E37</f>
+        <v>3638</v>
+      </c>
+      <c r="K37" s="130">
+        <f>G37-F37</f>
+        <v>74195</v>
+      </c>
+      <c r="L37" s="129">
+        <f>H37*100/G37</f>
+        <v>10.099245020946748</v>
+      </c>
+      <c r="M37" s="129">
+        <f>I37*100/G37</f>
+        <v>2.7163563859578375</v>
+      </c>
+      <c r="N37" s="129">
+        <f>J37*100/G37</f>
+        <v>4.0750946524183975</v>
+      </c>
+      <c r="O37" s="130">
+        <f>K37*100/G37</f>
+        <v>83.109303940677023</v>
+      </c>
+      <c r="P37">
+        <f>L37+M37+N37+O37</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>2</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="128">
+        <v>818</v>
+      </c>
+      <c r="D38" s="13">
+        <v>2206</v>
+      </c>
+      <c r="E38" s="6">
+        <v>4569</v>
+      </c>
+      <c r="F38" s="6">
+        <v>8981</v>
+      </c>
+      <c r="G38" s="128">
+        <v>124414</v>
+      </c>
+      <c r="H38" s="13">
+        <v>2206</v>
+      </c>
+      <c r="I38" s="129">
+        <f t="shared" ref="I38:I63" si="6">E38-D38</f>
+        <v>2363</v>
+      </c>
+      <c r="J38" s="129">
+        <f t="shared" ref="J38:J63" si="7">F38-E38</f>
+        <v>4412</v>
+      </c>
+      <c r="K38" s="132">
+        <f t="shared" ref="K38:K63" si="8">G38-F38</f>
+        <v>115433</v>
+      </c>
+      <c r="L38" s="129">
+        <f t="shared" ref="L38:L63" si="9">H38*100/G38</f>
+        <v>1.7731123507000819</v>
+      </c>
+      <c r="M38" s="129">
+        <f t="shared" ref="M38:M63" si="10">I38*100/G38</f>
+        <v>1.8993039368559808</v>
+      </c>
+      <c r="N38" s="129">
+        <f t="shared" ref="N38:N63" si="11">J38*100/G38</f>
+        <v>3.5462247014001638</v>
+      </c>
+      <c r="O38" s="132">
+        <f t="shared" ref="O38:O63" si="12">K38*100/G38</f>
+        <v>92.781359011043776</v>
+      </c>
+      <c r="P38">
+        <f t="shared" ref="P38:P63" si="13">L38+M38+N38+O38</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>3</v>
+      </c>
+      <c r="B39" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="49">
+        <v>893</v>
+      </c>
+      <c r="D39" s="50">
+        <v>5577</v>
+      </c>
+      <c r="E39" s="47">
+        <v>12558</v>
+      </c>
+      <c r="F39" s="47">
+        <v>20754</v>
+      </c>
+      <c r="G39" s="49">
+        <v>137161</v>
+      </c>
+      <c r="H39" s="50">
+        <v>5577</v>
+      </c>
+      <c r="I39" s="129">
+        <f t="shared" si="6"/>
+        <v>6981</v>
+      </c>
+      <c r="J39" s="129">
+        <f t="shared" si="7"/>
+        <v>8196</v>
+      </c>
+      <c r="K39" s="132">
+        <f t="shared" si="8"/>
+        <v>116407</v>
+      </c>
+      <c r="L39" s="129">
+        <f t="shared" si="9"/>
+        <v>4.066024598829113</v>
+      </c>
+      <c r="M39" s="129">
+        <f t="shared" si="10"/>
+        <v>5.0896391831497292</v>
+      </c>
+      <c r="N39" s="129">
+        <f t="shared" si="11"/>
+        <v>5.9754594965041079</v>
+      </c>
+      <c r="O39" s="132">
+        <f t="shared" si="12"/>
+        <v>84.868876721517054</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>4</v>
+      </c>
+      <c r="B40" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="49">
+        <v>1188</v>
+      </c>
+      <c r="D40" s="50">
+        <v>92979</v>
+      </c>
+      <c r="E40" s="50">
+        <v>115459</v>
+      </c>
+      <c r="F40" s="50">
+        <v>188150</v>
+      </c>
+      <c r="G40" s="49">
+        <v>294576</v>
+      </c>
+      <c r="H40" s="50">
+        <v>92979</v>
+      </c>
+      <c r="I40" s="129">
+        <f t="shared" si="6"/>
+        <v>22480</v>
+      </c>
+      <c r="J40" s="129">
+        <f t="shared" si="7"/>
+        <v>72691</v>
+      </c>
+      <c r="K40" s="132">
+        <f t="shared" si="8"/>
+        <v>106426</v>
+      </c>
+      <c r="L40" s="129">
+        <f t="shared" si="9"/>
+        <v>31.563671174841126</v>
+      </c>
+      <c r="M40" s="129">
+        <f t="shared" si="10"/>
+        <v>7.6313073705936665</v>
+      </c>
+      <c r="N40" s="129">
+        <f t="shared" si="11"/>
+        <v>24.676484167074033</v>
+      </c>
+      <c r="O40" s="132">
+        <f t="shared" si="12"/>
+        <v>36.128537287491177</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>5</v>
+      </c>
+      <c r="B41" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="49">
+        <v>2468</v>
+      </c>
+      <c r="D41" s="50">
+        <v>14988</v>
+      </c>
+      <c r="E41" s="50">
+        <v>72030</v>
+      </c>
+      <c r="F41" s="50">
+        <v>134049</v>
+      </c>
+      <c r="G41" s="49">
+        <v>2881199</v>
+      </c>
+      <c r="H41" s="50">
+        <v>14988</v>
+      </c>
+      <c r="I41" s="129">
+        <f t="shared" si="6"/>
+        <v>57042</v>
+      </c>
+      <c r="J41" s="129">
+        <f t="shared" si="7"/>
+        <v>62019</v>
+      </c>
+      <c r="K41" s="132">
+        <f t="shared" si="8"/>
+        <v>2747150</v>
+      </c>
+      <c r="L41" s="129">
+        <f t="shared" si="9"/>
+        <v>0.52020009725117911</v>
+      </c>
+      <c r="M41" s="129">
+        <f t="shared" si="10"/>
+        <v>1.9798007704431384</v>
+      </c>
+      <c r="N41" s="129">
+        <f t="shared" si="11"/>
+        <v>2.1525413551788684</v>
+      </c>
+      <c r="O41" s="132">
+        <f t="shared" si="12"/>
+        <v>95.34745777712682</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>6</v>
+      </c>
+      <c r="B42" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="49">
+        <v>2222</v>
+      </c>
+      <c r="D42" s="50">
+        <v>1621</v>
+      </c>
+      <c r="E42" s="50">
+        <v>2438</v>
+      </c>
+      <c r="F42" s="50">
+        <v>4157</v>
+      </c>
+      <c r="G42" s="49">
+        <v>346004</v>
+      </c>
+      <c r="H42" s="50">
+        <v>1621</v>
+      </c>
+      <c r="I42" s="129">
+        <f t="shared" si="6"/>
+        <v>817</v>
+      </c>
+      <c r="J42" s="129">
+        <f t="shared" si="7"/>
+        <v>1719</v>
+      </c>
+      <c r="K42" s="132">
+        <f t="shared" si="8"/>
+        <v>341847</v>
+      </c>
+      <c r="L42" s="129">
+        <f t="shared" si="9"/>
+        <v>0.46849169373764465</v>
+      </c>
+      <c r="M42" s="129">
+        <f t="shared" si="10"/>
+        <v>0.23612443786777032</v>
+      </c>
+      <c r="N42" s="129">
+        <f t="shared" si="11"/>
+        <v>0.49681506572178358</v>
+      </c>
+      <c r="O42" s="132">
+        <f t="shared" si="12"/>
+        <v>98.798568802672804</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>7</v>
+      </c>
+      <c r="B43" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="49">
+        <v>1572</v>
+      </c>
+      <c r="D43" s="50">
+        <v>7342</v>
+      </c>
+      <c r="E43" s="50">
+        <v>15700</v>
+      </c>
+      <c r="F43" s="50">
+        <v>27506</v>
+      </c>
+      <c r="G43" s="49">
+        <v>461617</v>
+      </c>
+      <c r="H43" s="50">
+        <v>7342</v>
+      </c>
+      <c r="I43" s="129">
+        <f t="shared" si="6"/>
+        <v>8358</v>
+      </c>
+      <c r="J43" s="129">
+        <f t="shared" si="7"/>
+        <v>11806</v>
+      </c>
+      <c r="K43" s="132">
+        <f t="shared" si="8"/>
+        <v>434111</v>
+      </c>
+      <c r="L43" s="129">
+        <f t="shared" si="9"/>
+        <v>1.5904960172610627</v>
+      </c>
+      <c r="M43" s="129">
+        <f t="shared" si="10"/>
+        <v>1.8105918976120896</v>
+      </c>
+      <c r="N43" s="129">
+        <f t="shared" si="11"/>
+        <v>2.5575314600632124</v>
+      </c>
+      <c r="O43" s="132">
+        <f t="shared" si="12"/>
+        <v>94.041380625063638</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>8</v>
+      </c>
+      <c r="B44" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="C44" s="49">
+        <v>3122</v>
+      </c>
+      <c r="D44" s="50">
+        <v>18705</v>
+      </c>
+      <c r="E44" s="50">
+        <v>43341</v>
+      </c>
+      <c r="F44" s="50">
+        <v>88931</v>
+      </c>
+      <c r="G44" s="49">
+        <v>1212519</v>
+      </c>
+      <c r="H44" s="50">
+        <v>18705</v>
+      </c>
+      <c r="I44" s="129">
+        <f t="shared" si="6"/>
+        <v>24636</v>
+      </c>
+      <c r="J44" s="129">
+        <f t="shared" si="7"/>
+        <v>45590</v>
+      </c>
+      <c r="K44" s="132">
+        <f>G44-F44</f>
+        <v>1123588</v>
+      </c>
+      <c r="L44" s="129">
+        <f t="shared" si="9"/>
+        <v>1.5426562387888354</v>
+      </c>
+      <c r="M44" s="129">
+        <f t="shared" si="10"/>
+        <v>2.0318032129805803</v>
+      </c>
+      <c r="N44" s="129">
+        <f t="shared" si="11"/>
+        <v>3.7599410813356329</v>
+      </c>
+      <c r="O44" s="132">
+        <f t="shared" si="12"/>
+        <v>92.665599466894946</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>9</v>
+      </c>
+      <c r="B45" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="49">
+        <v>1483</v>
+      </c>
+      <c r="D45" s="50">
+        <v>1190</v>
+      </c>
+      <c r="E45" s="47">
+        <v>2333</v>
+      </c>
+      <c r="F45" s="47">
+        <v>4063</v>
+      </c>
+      <c r="G45" s="49">
+        <v>14600</v>
+      </c>
+      <c r="H45" s="50">
+        <v>1190</v>
+      </c>
+      <c r="I45" s="129">
+        <f t="shared" si="6"/>
+        <v>1143</v>
+      </c>
+      <c r="J45" s="129">
+        <f t="shared" si="7"/>
+        <v>1730</v>
+      </c>
+      <c r="K45" s="132">
+        <f t="shared" si="8"/>
+        <v>10537</v>
+      </c>
+      <c r="L45" s="129">
+        <f t="shared" si="9"/>
+        <v>8.1506849315068486</v>
+      </c>
+      <c r="M45" s="129">
+        <f t="shared" si="10"/>
+        <v>7.8287671232876717</v>
+      </c>
+      <c r="N45" s="129">
+        <f t="shared" si="11"/>
+        <v>11.849315068493151</v>
+      </c>
+      <c r="O45" s="132">
+        <f t="shared" si="12"/>
+        <v>72.171232876712324</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>10</v>
+      </c>
+      <c r="B46" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="C46" s="49">
+        <v>3749</v>
+      </c>
+      <c r="D46" s="50">
+        <v>6905</v>
+      </c>
+      <c r="E46" s="47">
+        <v>16257</v>
+      </c>
+      <c r="F46" s="47">
+        <v>27567</v>
+      </c>
+      <c r="G46" s="49">
+        <v>453439</v>
+      </c>
+      <c r="H46" s="50">
+        <v>6905</v>
+      </c>
+      <c r="I46" s="129">
+        <f t="shared" si="6"/>
+        <v>9352</v>
+      </c>
+      <c r="J46" s="129">
+        <f t="shared" si="7"/>
+        <v>11310</v>
+      </c>
+      <c r="K46" s="132">
+        <f t="shared" si="8"/>
+        <v>425872</v>
+      </c>
+      <c r="L46" s="129">
+        <f t="shared" si="9"/>
+        <v>1.5228068163523649</v>
+      </c>
+      <c r="M46" s="129">
+        <f t="shared" si="10"/>
+        <v>2.0624604412059835</v>
+      </c>
+      <c r="N46" s="129">
+        <f t="shared" si="11"/>
+        <v>2.4942715558211801</v>
+      </c>
+      <c r="O46" s="132">
+        <f t="shared" si="12"/>
+        <v>93.920461186620471</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>11</v>
+      </c>
+      <c r="B47" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" s="49">
+        <v>5029</v>
+      </c>
+      <c r="D47" s="50">
+        <v>22186</v>
+      </c>
+      <c r="E47" s="47">
+        <v>47270</v>
+      </c>
+      <c r="F47" s="47">
+        <v>89063</v>
+      </c>
+      <c r="G47" s="49">
+        <v>304631</v>
+      </c>
+      <c r="H47" s="50">
+        <v>22186</v>
+      </c>
+      <c r="I47" s="129">
+        <f t="shared" si="6"/>
+        <v>25084</v>
+      </c>
+      <c r="J47" s="129">
+        <f t="shared" si="7"/>
+        <v>41793</v>
+      </c>
+      <c r="K47" s="132">
+        <f t="shared" si="8"/>
+        <v>215568</v>
+      </c>
+      <c r="L47" s="129">
+        <f t="shared" si="9"/>
+        <v>7.2829094872156803</v>
+      </c>
+      <c r="M47" s="129">
+        <f t="shared" si="10"/>
+        <v>8.2342243566807056</v>
+      </c>
+      <c r="N47" s="129">
+        <f t="shared" si="11"/>
+        <v>13.7192209591276</v>
+      </c>
+      <c r="O47" s="132">
+        <f t="shared" si="12"/>
+        <v>70.763645196976015</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>12</v>
+      </c>
+      <c r="B48" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" s="49">
+        <v>5101</v>
+      </c>
+      <c r="D48" s="50">
+        <v>5735</v>
+      </c>
+      <c r="E48" s="47">
+        <v>10834</v>
+      </c>
+      <c r="F48" s="47">
+        <v>15654</v>
+      </c>
+      <c r="G48" s="49">
+        <v>24186</v>
+      </c>
+      <c r="H48" s="50">
+        <v>5735</v>
+      </c>
+      <c r="I48" s="129">
+        <f t="shared" si="6"/>
+        <v>5099</v>
+      </c>
+      <c r="J48" s="129">
+        <f t="shared" si="7"/>
+        <v>4820</v>
+      </c>
+      <c r="K48" s="132">
+        <f t="shared" si="8"/>
+        <v>8532</v>
+      </c>
+      <c r="L48" s="129">
+        <f t="shared" si="9"/>
+        <v>23.712064830893905</v>
+      </c>
+      <c r="M48" s="129">
+        <f t="shared" si="10"/>
+        <v>21.082444389316134</v>
+      </c>
+      <c r="N48" s="129">
+        <f t="shared" si="11"/>
+        <v>19.928884478623996</v>
+      </c>
+      <c r="O48" s="132">
+        <f t="shared" si="12"/>
+        <v>35.276606301165963</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>13</v>
+      </c>
+      <c r="B49" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="49">
+        <v>3499</v>
+      </c>
+      <c r="D49" s="50">
+        <v>21489</v>
+      </c>
+      <c r="E49" s="47">
+        <v>62122</v>
+      </c>
+      <c r="F49" s="47">
+        <v>77859</v>
+      </c>
+      <c r="G49" s="49">
+        <v>199154</v>
+      </c>
+      <c r="H49" s="50">
+        <v>21489</v>
+      </c>
+      <c r="I49" s="129">
+        <f t="shared" si="6"/>
+        <v>40633</v>
+      </c>
+      <c r="J49" s="129">
+        <f t="shared" si="7"/>
+        <v>15737</v>
+      </c>
+      <c r="K49" s="132">
+        <f t="shared" si="8"/>
+        <v>121295</v>
+      </c>
+      <c r="L49" s="129">
+        <f t="shared" si="9"/>
+        <v>10.790142301937195</v>
+      </c>
+      <c r="M49" s="129">
+        <f t="shared" si="10"/>
+        <v>20.402803860329193</v>
+      </c>
+      <c r="N49" s="129">
+        <f t="shared" si="11"/>
+        <v>7.9019251433563973</v>
+      </c>
+      <c r="O49" s="132">
+        <f t="shared" si="12"/>
+        <v>60.905128694377218</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>14</v>
+      </c>
+      <c r="B50" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50" s="49">
+        <v>3668</v>
+      </c>
+      <c r="D50" s="50">
+        <v>6497</v>
+      </c>
+      <c r="E50" s="47">
+        <v>9288</v>
+      </c>
+      <c r="F50" s="47">
+        <v>13279</v>
+      </c>
+      <c r="G50" s="49">
+        <v>306682</v>
+      </c>
+      <c r="H50" s="50">
+        <v>6497</v>
+      </c>
+      <c r="I50" s="129">
+        <f t="shared" si="6"/>
+        <v>2791</v>
+      </c>
+      <c r="J50" s="129">
+        <f t="shared" si="7"/>
+        <v>3991</v>
+      </c>
+      <c r="K50" s="132">
+        <f t="shared" si="8"/>
+        <v>293403</v>
+      </c>
+      <c r="L50" s="129">
+        <f t="shared" si="9"/>
+        <v>2.1184810324701155</v>
+      </c>
+      <c r="M50" s="129">
+        <f t="shared" si="10"/>
+        <v>0.9100631924925493</v>
+      </c>
+      <c r="N50" s="129">
+        <f t="shared" si="11"/>
+        <v>1.3013479760794568</v>
+      </c>
+      <c r="O50" s="132">
+        <f t="shared" si="12"/>
+        <v>95.670107798957872</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>15</v>
+      </c>
+      <c r="B51" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="49">
+        <v>2488</v>
+      </c>
+      <c r="D51" s="50">
+        <v>4752</v>
+      </c>
+      <c r="E51" s="47">
+        <v>9065</v>
+      </c>
+      <c r="F51" s="47">
+        <v>16209</v>
+      </c>
+      <c r="G51" s="49">
+        <v>334934</v>
+      </c>
+      <c r="H51" s="50">
+        <v>4752</v>
+      </c>
+      <c r="I51" s="129">
+        <f t="shared" si="6"/>
+        <v>4313</v>
+      </c>
+      <c r="J51" s="129">
+        <f t="shared" si="7"/>
+        <v>7144</v>
+      </c>
+      <c r="K51" s="132">
+        <f t="shared" si="8"/>
+        <v>318725</v>
+      </c>
+      <c r="L51" s="129">
+        <f t="shared" si="9"/>
+        <v>1.4187869848985173</v>
+      </c>
+      <c r="M51" s="129">
+        <f t="shared" si="10"/>
+        <v>1.2877163859148371</v>
+      </c>
+      <c r="N51" s="129">
+        <f t="shared" si="11"/>
+        <v>2.1329575379029899</v>
+      </c>
+      <c r="O51" s="132">
+        <f t="shared" si="12"/>
+        <v>95.160539091283653</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>16</v>
+      </c>
+      <c r="B52" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" s="49">
+        <v>1615</v>
+      </c>
+      <c r="D52" s="50">
+        <v>4871</v>
+      </c>
+      <c r="E52" s="50">
+        <v>10436</v>
+      </c>
+      <c r="F52" s="50">
+        <v>17319</v>
+      </c>
+      <c r="G52" s="49">
+        <v>220890</v>
+      </c>
+      <c r="H52" s="50">
+        <v>4871</v>
+      </c>
+      <c r="I52" s="129">
+        <f t="shared" si="6"/>
+        <v>5565</v>
+      </c>
+      <c r="J52" s="129">
+        <f t="shared" si="7"/>
+        <v>6883</v>
+      </c>
+      <c r="K52" s="132">
+        <f t="shared" si="8"/>
+        <v>203571</v>
+      </c>
+      <c r="L52" s="129">
+        <f t="shared" si="9"/>
+        <v>2.2051699941147178</v>
+      </c>
+      <c r="M52" s="129">
+        <f t="shared" si="10"/>
+        <v>2.51935352437865</v>
+      </c>
+      <c r="N52" s="129">
+        <f t="shared" si="11"/>
+        <v>3.1160306034677894</v>
+      </c>
+      <c r="O52" s="132">
+        <f t="shared" si="12"/>
+        <v>92.159445878038838</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>17</v>
+      </c>
+      <c r="B53" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" s="49">
+        <v>3353</v>
+      </c>
+      <c r="D53" s="50">
+        <v>14981</v>
+      </c>
+      <c r="E53" s="50">
+        <v>32904</v>
+      </c>
+      <c r="F53" s="50">
+        <v>76908</v>
+      </c>
+      <c r="G53" s="49">
+        <v>944326</v>
+      </c>
+      <c r="H53" s="50">
+        <v>14981</v>
+      </c>
+      <c r="I53" s="129">
+        <f t="shared" si="6"/>
+        <v>17923</v>
+      </c>
+      <c r="J53" s="129">
+        <f t="shared" si="7"/>
+        <v>44004</v>
+      </c>
+      <c r="K53" s="132">
+        <f t="shared" si="8"/>
+        <v>867418</v>
+      </c>
+      <c r="L53" s="129">
+        <f t="shared" si="9"/>
+        <v>1.5864224854552347</v>
+      </c>
+      <c r="M53" s="129">
+        <f t="shared" si="10"/>
+        <v>1.8979674392106116</v>
+      </c>
+      <c r="N53" s="129">
+        <f t="shared" si="11"/>
+        <v>4.6598314565097221</v>
+      </c>
+      <c r="O53" s="132">
+        <f t="shared" si="12"/>
+        <v>91.855778618824431</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>18</v>
+      </c>
+      <c r="B54" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" s="49">
+        <v>2397</v>
+      </c>
+      <c r="D54" s="50">
+        <v>1792</v>
+      </c>
+      <c r="E54" s="47">
+        <v>4455</v>
+      </c>
+      <c r="F54" s="47">
+        <v>9387</v>
+      </c>
+      <c r="G54" s="49">
+        <v>74372</v>
+      </c>
+      <c r="H54" s="50">
+        <v>1792</v>
+      </c>
+      <c r="I54" s="129">
+        <f t="shared" si="6"/>
+        <v>2663</v>
+      </c>
+      <c r="J54" s="129">
+        <f t="shared" si="7"/>
+        <v>4932</v>
+      </c>
+      <c r="K54" s="132">
+        <f t="shared" si="8"/>
+        <v>64985</v>
+      </c>
+      <c r="L54" s="129">
+        <f t="shared" si="9"/>
+        <v>2.4095089549830582</v>
+      </c>
+      <c r="M54" s="129">
+        <f t="shared" si="10"/>
+        <v>3.5806486312052925</v>
+      </c>
+      <c r="N54" s="129">
+        <f t="shared" si="11"/>
+        <v>6.6315279944064969</v>
+      </c>
+      <c r="O54" s="132">
+        <f t="shared" si="12"/>
+        <v>87.378314419405157</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>19</v>
+      </c>
+      <c r="B55" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" s="49">
+        <v>1853</v>
+      </c>
+      <c r="D55" s="50">
+        <v>11300</v>
+      </c>
+      <c r="E55" s="47">
+        <v>24004</v>
+      </c>
+      <c r="F55" s="47">
+        <v>52495</v>
+      </c>
+      <c r="G55" s="49">
+        <v>1849862</v>
+      </c>
+      <c r="H55" s="50">
+        <v>11300</v>
+      </c>
+      <c r="I55" s="129">
+        <f t="shared" si="6"/>
+        <v>12704</v>
+      </c>
+      <c r="J55" s="129">
+        <f t="shared" si="7"/>
+        <v>28491</v>
+      </c>
+      <c r="K55" s="132">
+        <f t="shared" si="8"/>
+        <v>1797367</v>
+      </c>
+      <c r="L55" s="129">
+        <f t="shared" si="9"/>
+        <v>0.61085637739463805</v>
+      </c>
+      <c r="M55" s="129">
+        <f t="shared" si="10"/>
+        <v>0.68675393083375946</v>
+      </c>
+      <c r="N55" s="129">
+        <f t="shared" si="11"/>
+        <v>1.5401689423319145</v>
+      </c>
+      <c r="O55" s="132">
+        <f t="shared" si="12"/>
+        <v>97.162220749439683</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>20</v>
+      </c>
+      <c r="B56" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="C56" s="49">
+        <v>2445</v>
+      </c>
+      <c r="D56" s="50">
+        <v>4486</v>
+      </c>
+      <c r="E56" s="47">
+        <v>10983</v>
+      </c>
+      <c r="F56" s="47">
+        <v>23835</v>
+      </c>
+      <c r="G56" s="49">
+        <v>826110</v>
+      </c>
+      <c r="H56" s="50">
+        <v>4486</v>
+      </c>
+      <c r="I56" s="129">
+        <f t="shared" si="6"/>
+        <v>6497</v>
+      </c>
+      <c r="J56" s="129">
+        <f t="shared" si="7"/>
+        <v>12852</v>
+      </c>
+      <c r="K56" s="132">
+        <f t="shared" si="8"/>
+        <v>802275</v>
+      </c>
+      <c r="L56" s="129">
+        <f t="shared" si="9"/>
+        <v>0.54302695766907549</v>
+      </c>
+      <c r="M56" s="129">
+        <f t="shared" si="10"/>
+        <v>0.78645700935710738</v>
+      </c>
+      <c r="N56" s="129">
+        <f t="shared" si="11"/>
+        <v>1.5557250245124741</v>
+      </c>
+      <c r="O56" s="132">
+        <f t="shared" si="12"/>
+        <v>97.114791008461339</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>21</v>
+      </c>
+      <c r="B57" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="C57" s="49">
+        <v>2410</v>
+      </c>
+      <c r="D57" s="50">
+        <v>48082</v>
+      </c>
+      <c r="E57" s="47">
+        <v>94388</v>
+      </c>
+      <c r="F57" s="47">
+        <v>2343062</v>
+      </c>
+      <c r="G57" s="49">
+        <v>4995768</v>
+      </c>
+      <c r="H57" s="50">
+        <v>48082</v>
+      </c>
+      <c r="I57" s="129">
+        <f t="shared" si="6"/>
+        <v>46306</v>
+      </c>
+      <c r="J57" s="129">
+        <f t="shared" si="7"/>
+        <v>2248674</v>
+      </c>
+      <c r="K57" s="132">
+        <f t="shared" si="8"/>
+        <v>2652706</v>
+      </c>
+      <c r="L57" s="129">
+        <f t="shared" si="9"/>
+        <v>0.96245462159171524</v>
+      </c>
+      <c r="M57" s="129">
+        <f t="shared" si="10"/>
+        <v>0.9269045319958813</v>
+      </c>
+      <c r="N57" s="129">
+        <f t="shared" si="11"/>
+        <v>45.011577799449455</v>
+      </c>
+      <c r="O57" s="132">
+        <f t="shared" si="12"/>
+        <v>53.099063046962947</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>22</v>
+      </c>
+      <c r="B58" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="C58" s="49">
+        <v>4037</v>
+      </c>
+      <c r="D58" s="50">
+        <v>11573</v>
+      </c>
+      <c r="E58" s="47">
+        <v>33812</v>
+      </c>
+      <c r="F58" s="47">
+        <v>66460</v>
+      </c>
+      <c r="G58" s="49">
+        <v>562112</v>
+      </c>
+      <c r="H58" s="50">
+        <v>11573</v>
+      </c>
+      <c r="I58" s="129">
+        <f t="shared" si="6"/>
+        <v>22239</v>
+      </c>
+      <c r="J58" s="129">
+        <f t="shared" si="7"/>
+        <v>32648</v>
+      </c>
+      <c r="K58" s="132">
+        <f t="shared" si="8"/>
+        <v>495652</v>
+      </c>
+      <c r="L58" s="129">
+        <f t="shared" si="9"/>
+        <v>2.0588423659341912</v>
+      </c>
+      <c r="M58" s="129">
+        <f t="shared" si="10"/>
+        <v>3.9563289878173746</v>
+      </c>
+      <c r="N58" s="129">
+        <f t="shared" si="11"/>
+        <v>5.8080951838779464</v>
+      </c>
+      <c r="O58" s="132">
+        <f t="shared" si="12"/>
+        <v>88.176733462370493</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>23</v>
+      </c>
+      <c r="B59" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="C59" s="49">
+        <v>2033</v>
+      </c>
+      <c r="D59" s="50">
+        <v>3512</v>
+      </c>
+      <c r="E59" s="47">
+        <v>6974</v>
+      </c>
+      <c r="F59" s="47">
+        <v>9816</v>
+      </c>
+      <c r="G59" s="49">
+        <v>275373</v>
+      </c>
+      <c r="H59" s="50">
+        <v>3512</v>
+      </c>
+      <c r="I59" s="129">
+        <f t="shared" si="6"/>
+        <v>3462</v>
+      </c>
+      <c r="J59" s="129">
+        <f t="shared" si="7"/>
+        <v>2842</v>
+      </c>
+      <c r="K59" s="132">
+        <f t="shared" si="8"/>
+        <v>265557</v>
+      </c>
+      <c r="L59" s="129">
+        <f t="shared" si="9"/>
+        <v>1.2753610557316803</v>
+      </c>
+      <c r="M59" s="129">
+        <f t="shared" si="10"/>
+        <v>1.2572038653026985</v>
+      </c>
+      <c r="N59" s="129">
+        <f t="shared" si="11"/>
+        <v>1.0320547039833243</v>
+      </c>
+      <c r="O59" s="132">
+        <f t="shared" si="12"/>
+        <v>96.435380374982302</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>24</v>
+      </c>
+      <c r="B60" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="C60" s="49">
+        <v>2723</v>
+      </c>
+      <c r="D60" s="50">
+        <v>7957</v>
+      </c>
+      <c r="E60" s="47">
+        <v>15631</v>
+      </c>
+      <c r="F60" s="47">
+        <v>31880</v>
+      </c>
+      <c r="G60" s="49">
+        <v>975910</v>
+      </c>
+      <c r="H60" s="50">
+        <v>7957</v>
+      </c>
+      <c r="I60" s="129">
+        <f t="shared" si="6"/>
+        <v>7674</v>
+      </c>
+      <c r="J60" s="129">
+        <f t="shared" si="7"/>
+        <v>16249</v>
+      </c>
+      <c r="K60" s="132">
+        <f t="shared" si="8"/>
+        <v>944030</v>
+      </c>
+      <c r="L60" s="129">
+        <f t="shared" si="9"/>
+        <v>0.81534157862917689</v>
+      </c>
+      <c r="M60" s="129">
+        <f t="shared" si="10"/>
+        <v>0.78634300294084492</v>
+      </c>
+      <c r="N60" s="129">
+        <f t="shared" si="11"/>
+        <v>1.665010093143835</v>
+      </c>
+      <c r="O60" s="132">
+        <f t="shared" si="12"/>
+        <v>96.733305325286139</v>
+      </c>
+      <c r="P60">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>25</v>
+      </c>
+      <c r="B61" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="C61" s="49">
+        <v>2181</v>
+      </c>
+      <c r="D61" s="50">
+        <v>2839</v>
+      </c>
+      <c r="E61" s="47">
+        <v>4023</v>
+      </c>
+      <c r="F61" s="47">
+        <v>4646</v>
+      </c>
+      <c r="G61" s="49">
+        <v>6877</v>
+      </c>
+      <c r="H61" s="50">
+        <v>2839</v>
+      </c>
+      <c r="I61" s="129">
+        <f t="shared" si="6"/>
+        <v>1184</v>
+      </c>
+      <c r="J61" s="129">
+        <f t="shared" si="7"/>
+        <v>623</v>
+      </c>
+      <c r="K61" s="132">
+        <f t="shared" si="8"/>
+        <v>2231</v>
+      </c>
+      <c r="L61" s="129">
+        <f t="shared" si="9"/>
+        <v>41.282535989530317</v>
+      </c>
+      <c r="M61" s="129">
+        <f t="shared" si="10"/>
+        <v>17.216809655372984</v>
+      </c>
+      <c r="N61" s="129">
+        <f t="shared" si="11"/>
+        <v>9.0591827831903444</v>
+      </c>
+      <c r="O61" s="132">
+        <f t="shared" si="12"/>
+        <v>32.441471571906355</v>
+      </c>
+      <c r="P61">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>26</v>
+      </c>
+      <c r="B62" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" s="49">
+        <v>4417</v>
+      </c>
+      <c r="D62" s="50">
+        <v>6028</v>
+      </c>
+      <c r="E62" s="47">
+        <v>12746</v>
+      </c>
+      <c r="F62" s="47">
+        <v>26964</v>
+      </c>
+      <c r="G62" s="49">
+        <v>219046</v>
+      </c>
+      <c r="H62" s="50">
+        <v>6028</v>
+      </c>
+      <c r="I62" s="129">
+        <f t="shared" si="6"/>
+        <v>6718</v>
+      </c>
+      <c r="J62" s="129">
+        <f t="shared" si="7"/>
+        <v>14218</v>
+      </c>
+      <c r="K62" s="132">
+        <f t="shared" si="8"/>
+        <v>192082</v>
+      </c>
+      <c r="L62" s="129">
+        <f t="shared" si="9"/>
+        <v>2.7519333838554458</v>
+      </c>
+      <c r="M62" s="129">
+        <f t="shared" si="10"/>
+        <v>3.0669357121335246</v>
+      </c>
+      <c r="N62" s="129">
+        <f t="shared" si="11"/>
+        <v>6.490874062982205</v>
+      </c>
+      <c r="O62" s="132">
+        <f t="shared" si="12"/>
+        <v>87.690256841028827</v>
+      </c>
+      <c r="P62">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>27</v>
+      </c>
+      <c r="B63" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="C63" s="49">
+        <v>3882</v>
+      </c>
+      <c r="D63" s="50">
+        <v>3645</v>
+      </c>
+      <c r="E63" s="47">
+        <v>6329</v>
+      </c>
+      <c r="F63" s="47">
+        <v>9755</v>
+      </c>
+      <c r="G63" s="49">
+        <v>14489</v>
+      </c>
+      <c r="H63" s="50">
+        <v>3645</v>
+      </c>
+      <c r="I63" s="129">
+        <f t="shared" si="6"/>
+        <v>2684</v>
+      </c>
+      <c r="J63" s="129">
+        <f t="shared" si="7"/>
+        <v>3426</v>
+      </c>
+      <c r="K63" s="132">
+        <f t="shared" si="8"/>
+        <v>4734</v>
+      </c>
+      <c r="L63" s="129">
+        <f t="shared" si="9"/>
+        <v>25.157015667057767</v>
+      </c>
+      <c r="M63" s="129">
+        <f t="shared" si="10"/>
+        <v>18.52439781903513</v>
+      </c>
+      <c r="N63" s="129">
+        <f t="shared" si="11"/>
+        <v>23.645524190765407</v>
+      </c>
+      <c r="O63" s="132">
+        <f t="shared" si="12"/>
+        <v>32.673062323141693</v>
+      </c>
+      <c r="P63">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B19" r:id="rId1" display="https://github.com/aspnetboilerplate/aspnetboilerplate.git"/>
+    <hyperlink ref="B52" r:id="rId2" display="https://github.com/aspnetboilerplate/aspnetboilerplate.git"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>